--- a/matlab/StateTL_inputdata.xlsx
+++ b/matlab/StateTL_inputdata.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="210">
   <si>
     <t>Reach</t>
   </si>
@@ -339,24 +339,15 @@
     <t>HOLOUTCO</t>
   </si>
   <si>
-    <t>Crooked Creek baseflow</t>
-  </si>
-  <si>
     <t>Crooked Arroyo Aug Station</t>
   </si>
   <si>
-    <t>Crooked Arroya Ditch</t>
-  </si>
-  <si>
     <t>Crooked Arroyo</t>
   </si>
   <si>
     <t>Crooked Arroyo near Swink</t>
   </si>
   <si>
-    <t>Crooked Arroyo Inflow</t>
-  </si>
-  <si>
     <t>AJ Anderson Ditch</t>
   </si>
   <si>
@@ -456,9 +447,6 @@
     <t>Arkansas-Lake Creek Confluence Point</t>
   </si>
   <si>
-    <t>note that crooked creek has 0.95%TL from aug station (fix as just from aug station) and Timpas 1.25% TL</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -637,6 +625,45 @@
   </si>
   <si>
     <t>muskingum</t>
+  </si>
+  <si>
+    <t>00194349</t>
+  </si>
+  <si>
+    <t>Catlin Timpas Creek Aug Station</t>
+  </si>
+  <si>
+    <t>Timpas Creek near Swink</t>
+  </si>
+  <si>
+    <t>Timpas Creek Arkansas River Confluence</t>
+  </si>
+  <si>
+    <t>CATAGTCO</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Div2 assesses a 1.25% transit loss for releases from Timpas Creek aug station to mainstem</t>
+  </si>
+  <si>
+    <t>evapfactor=0 to not add evap loss on top of assessed TL</t>
+  </si>
+  <si>
+    <t>need real wdid for timpas creek confluence</t>
+  </si>
+  <si>
+    <t>need real wdid for crooked arroyo confluence</t>
+  </si>
+  <si>
+    <t>Crooked Arroyo Arkansas River Confluence</t>
+  </si>
+  <si>
+    <t>Div2 assesses a 0.95% transit loss for releases from Crooked Creek aug station to mainstem</t>
+  </si>
+  <si>
+    <t>should probably stub out</t>
   </si>
 </sst>
 </file>
@@ -692,7 +719,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -718,17 +745,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -736,7 +752,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -768,7 +784,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -781,6 +796,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,13 +1105,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW79"/>
+  <dimension ref="A1:AW78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="AA53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK63" sqref="AK63"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1129,7 @@
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" customWidth="1"/>
     <col min="14" max="16" width="5.85546875" customWidth="1"/>
-    <col min="17" max="17" width="4.28515625" style="30" customWidth="1"/>
+    <col min="17" max="17" width="4.28515625" style="29" customWidth="1"/>
     <col min="18" max="19" width="5.28515625" customWidth="1"/>
     <col min="20" max="22" width="7.5703125" customWidth="1"/>
     <col min="23" max="24" width="6.28515625" style="1" customWidth="1"/>
@@ -1121,8 +1138,8 @@
     <col min="27" max="27" width="7.140625" customWidth="1"/>
     <col min="28" max="28" width="7.5703125" customWidth="1"/>
     <col min="29" max="29" width="6.5703125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="7.5703125" style="30" customWidth="1"/>
-    <col min="31" max="31" width="4.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.5703125" style="29" customWidth="1"/>
+    <col min="31" max="31" width="4.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="6.42578125" customWidth="1"/>
     <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -1157,41 +1174,41 @@
         <v>93</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>126</v>
+        <v>133</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>1</v>
@@ -1207,10 +1224,10 @@
       </c>
       <c r="X1" s="5"/>
       <c r="Y1" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>81</v>
@@ -1219,7 +1236,7 @@
       <c r="AD1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AE1" s="27"/>
+      <c r="AE1" s="26"/>
       <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
       <c r="AH1" s="3" t="s">
@@ -1232,7 +1249,7 @@
         <v>5</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AL1" s="4" t="s">
         <v>73</v>
@@ -1241,7 +1258,7 @@
         <v>74</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AO1" s="5" t="s">
         <v>75</v>
@@ -1250,7 +1267,7 @@
         <v>76</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AR1" s="3" t="s">
         <v>77</v>
@@ -1267,7 +1284,9 @@
       <c r="AV1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AW1" s="13"/>
+      <c r="AW1" s="13" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="2" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F2" s="7"/>
@@ -1281,7 +1300,7 @@
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
-      <c r="Q2" s="31"/>
+      <c r="Q2" s="30"/>
       <c r="V2" s="19"/>
       <c r="W2" s="20"/>
       <c r="X2" s="20"/>
@@ -1290,8 +1309,8 @@
       <c r="AA2" s="19"/>
       <c r="AB2" s="19"/>
       <c r="AC2" s="20"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
       <c r="AF2" s="19"/>
       <c r="AG2" s="19"/>
       <c r="AH2" s="19"/>
@@ -1357,7 +1376,7 @@
       <c r="P3" s="16">
         <v>0</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="28">
         <v>1</v>
       </c>
       <c r="T3" s="15">
@@ -1377,7 +1396,7 @@
       </c>
       <c r="X3" s="17"/>
       <c r="Y3" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA3" s="15">
         <v>0.2</v>
@@ -1389,8 +1408,8 @@
         <f>AA3/(SUM(AA$3:AA$4))</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
       <c r="AF3" s="17">
         <v>0</v>
       </c>
@@ -1475,7 +1494,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" ref="J4:J61" si="1">IF(K4="Inflow",1,IF(K4="Outflow",-1,IF(K4="Gage",0,"")))</f>
+        <f t="shared" ref="J4:J62" si="1">IF(K4="Inflow",1,IF(K4="Outflow",-1,IF(K4="Gage",0,"")))</f>
         <v>-1</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -1492,7 +1511,7 @@
       <c r="P4" s="4">
         <v>0</v>
       </c>
-      <c r="Q4" s="27"/>
+      <c r="Q4" s="26"/>
       <c r="T4" s="3">
         <f t="shared" si="0"/>
         <v>0.1</v>
@@ -1510,7 +1529,7 @@
       </c>
       <c r="X4" s="5"/>
       <c r="Y4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA4" s="3">
         <v>0.1</v>
@@ -1522,8 +1541,8 @@
         <f>AA4/(SUM(AA$3:AA$4))</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
       <c r="AF4" s="5">
         <v>0</v>
       </c>
@@ -1646,7 +1665,7 @@
         <v>3.947826086956522E-2</v>
       </c>
       <c r="Y5" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z5" s="14"/>
       <c r="AA5" s="14">
@@ -1659,10 +1678,10 @@
         <f t="shared" ref="AC5:AC15" si="5">AA5/(SUM(AA$5:AA$15))</f>
         <v>4.4052863436123343E-2</v>
       </c>
-      <c r="AD5" s="30">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="30">
+      <c r="AD5" s="29">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="29">
         <v>0.9</v>
       </c>
       <c r="AF5">
@@ -1783,7 +1802,7 @@
         <v>1.973913043478261E-2</v>
       </c>
       <c r="Y6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z6">
         <v>201.43</v>
@@ -1798,10 +1817,10 @@
         <f t="shared" si="5"/>
         <v>2.2026431718061672E-2</v>
       </c>
-      <c r="AD6" s="30">
+      <c r="AD6" s="29">
         <v>0.5</v>
       </c>
-      <c r="AE6" s="30">
+      <c r="AE6" s="29">
         <v>0.4</v>
       </c>
       <c r="AF6">
@@ -1922,7 +1941,7 @@
         <v>3.947826086956522E-2</v>
       </c>
       <c r="Y7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z7">
         <f>Z9+2.73</f>
@@ -2055,7 +2074,7 @@
         <v>7.8956521739130439E-2</v>
       </c>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z8">
         <v>198.72</v>
@@ -2072,10 +2091,10 @@
         <f t="shared" si="5"/>
         <v>7.903506347838804E-2</v>
       </c>
-      <c r="AD8" s="30">
+      <c r="AD8" s="29">
         <v>2.6</v>
       </c>
-      <c r="AE8" s="30">
+      <c r="AE8" s="29">
         <v>1.9</v>
       </c>
       <c r="AF8">
@@ -2196,7 +2215,7 @@
         <v>2.9608695652173913E-2</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z9">
         <v>197.86</v>
@@ -2332,7 +2351,7 @@
         <v>0.18752173913043479</v>
       </c>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z10">
         <f>Z9-4.83</f>
@@ -2350,10 +2369,10 @@
         <f t="shared" si="5"/>
         <v>0.19445197153983784</v>
       </c>
-      <c r="AD10" s="30">
+      <c r="AD10" s="29">
         <v>5.2</v>
       </c>
-      <c r="AE10" s="30">
+      <c r="AE10" s="29">
         <v>3.8</v>
       </c>
       <c r="AF10">
@@ -2472,7 +2491,7 @@
         <v>1.973913043478261E-2</v>
       </c>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z11" s="1">
         <v>192</v>
@@ -2604,7 +2623,7 @@
         <v>1.973913043478261E-2</v>
       </c>
       <c r="Y12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z12">
         <f>Z10-2.11</f>
@@ -2622,10 +2641,10 @@
         <f t="shared" si="5"/>
         <v>1.5783869553416784E-2</v>
       </c>
-      <c r="AD12" s="30">
+      <c r="AD12" s="29">
         <v>0.7</v>
       </c>
-      <c r="AE12" s="30">
+      <c r="AE12" s="29">
         <v>0.5</v>
       </c>
       <c r="AF12">
@@ -2750,7 +2769,7 @@
         <v>0.24673913043478263</v>
       </c>
       <c r="Y13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z13">
         <v>186.27</v>
@@ -2765,10 +2784,10 @@
         <f t="shared" si="5"/>
         <v>0.2466960352422907</v>
       </c>
-      <c r="AD13" s="30">
+      <c r="AD13" s="29">
         <v>5.6</v>
       </c>
-      <c r="AE13" s="30">
+      <c r="AE13" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="AF13">
@@ -2889,7 +2908,7 @@
         <v>0.11843478260869565</v>
       </c>
       <c r="Y14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14">
@@ -2902,10 +2921,10 @@
         <f t="shared" si="5"/>
         <v>0.11894273127753303</v>
       </c>
-      <c r="AD14" s="30">
+      <c r="AD14" s="29">
         <v>2.7</v>
       </c>
-      <c r="AE14" s="30">
+      <c r="AE14" s="29">
         <v>2</v>
       </c>
       <c r="AF14">
@@ -3013,7 +3032,7 @@
       <c r="P15" s="4">
         <v>202</v>
       </c>
-      <c r="Q15" s="27"/>
+      <c r="Q15" s="26"/>
       <c r="T15" s="3">
         <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
@@ -3032,7 +3051,7 @@
       </c>
       <c r="X15" s="5"/>
       <c r="Y15" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA15" s="3">
         <v>4.4000000000000004</v>
@@ -3044,10 +3063,10 @@
         <f t="shared" si="5"/>
         <v>0.19383259911894271</v>
       </c>
-      <c r="AD15" s="27">
+      <c r="AD15" s="26">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AE15" s="27">
+      <c r="AE15" s="26">
         <v>3.3</v>
       </c>
       <c r="AF15" s="3">
@@ -3171,7 +3190,7 @@
         <v>1.1567796610169491E-2</v>
       </c>
       <c r="Y16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA16">
         <v>0.3</v>
@@ -3183,10 +3202,10 @@
         <f t="shared" ref="AC16:AC22" si="12">AA16/(SUM(AA$16:AA$22))</f>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="AD16" s="30">
+      <c r="AD16" s="29">
         <v>0.3</v>
       </c>
-      <c r="AE16" s="30">
+      <c r="AE16" s="29">
         <v>0.2</v>
       </c>
       <c r="AF16" s="1">
@@ -3306,7 +3325,7 @@
         <v>0.16194915254237288</v>
       </c>
       <c r="Y17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA17">
         <v>2.9</v>
@@ -3318,10 +3337,10 @@
         <f t="shared" si="12"/>
         <v>0.1380952380952381</v>
       </c>
-      <c r="AD17" s="30">
+      <c r="AD17" s="29">
         <v>2.9</v>
       </c>
-      <c r="AE17" s="30">
+      <c r="AE17" s="29">
         <v>2.1</v>
       </c>
       <c r="AF17" s="1">
@@ -3441,7 +3460,7 @@
         <v>0.18508474576271186</v>
       </c>
       <c r="Y18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA18">
         <v>3.3</v>
@@ -3453,10 +3472,10 @@
         <f t="shared" si="12"/>
         <v>0.15714285714285714</v>
       </c>
-      <c r="AD18" s="30">
+      <c r="AD18" s="29">
         <v>3.3</v>
       </c>
-      <c r="AE18" s="30">
+      <c r="AE18" s="29">
         <v>2.4</v>
       </c>
       <c r="AF18" s="1">
@@ -3580,7 +3599,7 @@
         <v>0.25449152542372877</v>
       </c>
       <c r="Y19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA19">
         <v>4.5999999999999996</v>
@@ -3592,10 +3611,10 @@
         <f t="shared" si="12"/>
         <v>0.21904761904761902</v>
       </c>
-      <c r="AD19" s="30">
+      <c r="AD19" s="29">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AE19" s="30">
+      <c r="AE19" s="29">
         <v>3.4</v>
       </c>
       <c r="AF19" s="1">
@@ -3719,7 +3738,7 @@
         <v>2.3135593220338983E-2</v>
       </c>
       <c r="Y20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA20">
         <v>0.5</v>
@@ -3731,10 +3750,10 @@
         <f t="shared" si="12"/>
         <v>2.3809523809523808E-2</v>
       </c>
-      <c r="AD20" s="30">
+      <c r="AD20" s="29">
         <v>0.5</v>
       </c>
-      <c r="AE20" s="30">
+      <c r="AE20" s="29">
         <v>0.4</v>
       </c>
       <c r="AF20" s="1">
@@ -3858,7 +3877,7 @@
         <v>0.35860169491525423</v>
       </c>
       <c r="Y21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA21">
         <v>6.5</v>
@@ -3870,10 +3889,10 @@
         <f t="shared" si="12"/>
         <v>0.30952380952380953</v>
       </c>
-      <c r="AD21" s="30">
+      <c r="AD21" s="29">
         <v>6.5</v>
       </c>
-      <c r="AE21" s="30">
+      <c r="AE21" s="29">
         <v>4.8</v>
       </c>
       <c r="AF21" s="1">
@@ -3981,7 +4000,7 @@
       <c r="P22" s="4">
         <v>103</v>
       </c>
-      <c r="Q22" s="27"/>
+      <c r="Q22" s="26"/>
       <c r="T22" s="3">
         <f t="shared" si="6"/>
         <v>2.9</v>
@@ -3999,7 +4018,7 @@
       </c>
       <c r="X22" s="5"/>
       <c r="Y22" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA22" s="3">
         <v>2.9</v>
@@ -4011,10 +4030,10 @@
         <f t="shared" si="12"/>
         <v>0.1380952380952381</v>
       </c>
-      <c r="AD22" s="27">
+      <c r="AD22" s="26">
         <v>2.9</v>
       </c>
-      <c r="AE22" s="27">
+      <c r="AE22" s="26">
         <v>2.1</v>
       </c>
       <c r="AF22" s="5">
@@ -4139,7 +4158,7 @@
         <v>0.52352542372881361</v>
       </c>
       <c r="Y23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA23">
         <v>9.6</v>
@@ -4147,14 +4166,14 @@
       <c r="AB23">
         <v>7.1</v>
       </c>
-      <c r="AC23" s="32">
+      <c r="AC23" s="31">
         <f>AA23/(SUM(AA$23:AA$26))</f>
         <v>0.54545454545454541</v>
       </c>
-      <c r="AD23" s="30">
+      <c r="AD23" s="29">
         <v>9.6</v>
       </c>
-      <c r="AE23" s="30">
+      <c r="AE23" s="29">
         <v>7.1</v>
       </c>
       <c r="AF23" s="1">
@@ -4279,7 +4298,7 @@
         <v>0.31993220338983053</v>
       </c>
       <c r="Y24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA24">
         <v>5.8</v>
@@ -4287,14 +4306,14 @@
       <c r="AB24">
         <v>4.3</v>
       </c>
-      <c r="AC24" s="32">
+      <c r="AC24" s="31">
         <f>AA24/(SUM(AA$23:AA$26))</f>
         <v>0.32954545454545453</v>
       </c>
-      <c r="AD24" s="30">
+      <c r="AD24" s="29">
         <v>5.8</v>
       </c>
-      <c r="AE24" s="30">
+      <c r="AE24" s="29">
         <v>4.3</v>
       </c>
       <c r="AF24">
@@ -4418,7 +4437,7 @@
         <v>0.11633898305084747</v>
       </c>
       <c r="Y25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z25">
         <v>142.18</v>
@@ -4429,7 +4448,7 @@
       <c r="AB25">
         <v>1.5</v>
       </c>
-      <c r="AC25" s="32">
+      <c r="AC25" s="31">
         <v>0.12</v>
       </c>
       <c r="AH25">
@@ -4476,6 +4495,9 @@
       </c>
       <c r="AV25" s="1">
         <v>1.05</v>
+      </c>
+      <c r="AW25" s="14" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -4534,7 +4556,7 @@
       <c r="P26" s="4">
         <v>272</v>
       </c>
-      <c r="Q26" s="27"/>
+      <c r="Q26" s="26"/>
       <c r="T26" s="3">
         <f t="shared" si="6"/>
         <v>0.1</v>
@@ -4552,7 +4574,7 @@
       </c>
       <c r="X26" s="5"/>
       <c r="Y26" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z26" s="3">
         <v>142.19</v>
@@ -4563,14 +4585,14 @@
       <c r="AB26" s="3">
         <v>0.1</v>
       </c>
-      <c r="AC26" s="33">
+      <c r="AC26" s="32">
         <f>AA26/(SUM(AA$23:AA$26))</f>
         <v>5.681818181818182E-3</v>
       </c>
-      <c r="AD26" s="27">
+      <c r="AD26" s="26">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AE26" s="27">
+      <c r="AE26" s="26">
         <v>1.6</v>
       </c>
       <c r="AF26" s="5">
@@ -4696,7 +4718,7 @@
         <v>0.34703389830508474</v>
       </c>
       <c r="Y27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA27">
         <v>6.3</v>
@@ -4704,14 +4726,14 @@
       <c r="AB27">
         <v>4.7</v>
       </c>
-      <c r="AC27" s="32">
+      <c r="AC27" s="31">
         <f>AA27/(SUM(AA$27:AA$32))</f>
         <v>0.35</v>
       </c>
-      <c r="AD27" s="30">
+      <c r="AD27" s="29">
         <v>6.3</v>
       </c>
-      <c r="AE27" s="30">
+      <c r="AE27" s="29">
         <v>4.7</v>
       </c>
       <c r="AF27" s="1">
@@ -4836,7 +4858,7 @@
         <v>7.9322033898305083E-2</v>
       </c>
       <c r="Y28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA28">
         <v>1.5</v>
@@ -4844,14 +4866,14 @@
       <c r="AB28">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AC28" s="32">
+      <c r="AC28" s="31">
         <f>AA28/(SUM(AA$27:AA$32))</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="AD28" s="30">
+      <c r="AD28" s="29">
         <v>1.5</v>
       </c>
-      <c r="AE28" s="30">
+      <c r="AE28" s="29">
         <v>1.1000000000000001</v>
       </c>
       <c r="AF28" s="1">
@@ -4976,7 +4998,7 @@
         <v>5.9491525423728805E-2</v>
       </c>
       <c r="Y29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z29">
         <v>132.29</v>
@@ -4987,14 +5009,14 @@
       <c r="AB29">
         <v>0.7</v>
       </c>
-      <c r="AC29" s="32">
+      <c r="AC29" s="31">
         <f t="shared" ref="AC29:AC32" si="17">AA29/(SUM(AA$27:AA$32))</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="AD29" s="30">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="30">
+      <c r="AD29" s="29">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="29">
         <v>0.7</v>
       </c>
       <c r="AF29" s="1">
@@ -5119,7 +5141,7 @@
         <v>7.9322033898305083E-2</v>
       </c>
       <c r="Y30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z30">
         <f>Z29-1.4</f>
@@ -5133,7 +5155,7 @@
         <f>(Z29-Z30)/(Z29-Z32)*AE32</f>
         <v>0.99270072992701253</v>
       </c>
-      <c r="AC30" s="32">
+      <c r="AC30" s="31">
         <f t="shared" si="17"/>
         <v>7.4614760746147993E-2</v>
       </c>
@@ -5257,7 +5279,7 @@
         <v>6.9406779661016951E-2</v>
       </c>
       <c r="Y31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z31">
         <f>Z29-2.77</f>
@@ -5271,7 +5293,7 @@
         <f>(Z30-Z31)/(Z29-Z32)*AE32</f>
         <v>0.97142857142857564</v>
       </c>
-      <c r="AC31" s="32">
+      <c r="AC31" s="31">
         <f t="shared" si="17"/>
         <v>7.3015873015873339E-2</v>
       </c>
@@ -5379,7 +5401,7 @@
       <c r="P32" s="4">
         <v>47</v>
       </c>
-      <c r="Q32" s="27">
+      <c r="Q32" s="26">
         <v>1</v>
       </c>
       <c r="T32" s="3">
@@ -5399,7 +5421,7 @@
       </c>
       <c r="X32" s="5"/>
       <c r="Y32" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z32" s="3">
         <v>122.7</v>
@@ -5412,14 +5434,14 @@
         <f>(Z31-Z32)/(Z29-Z32)*AE32</f>
         <v>4.8358706986444115</v>
       </c>
-      <c r="AC32" s="33">
+      <c r="AC32" s="32">
         <f t="shared" si="17"/>
         <v>0.36348047734908973</v>
       </c>
-      <c r="AD32" s="27">
+      <c r="AD32" s="26">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AE32" s="27">
+      <c r="AE32" s="26">
         <v>6.8</v>
       </c>
       <c r="AF32" s="5">
@@ -5545,7 +5567,7 @@
         <v>0.3519915254237288</v>
       </c>
       <c r="Y33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z33">
         <f>ROUND(Z32-5.6650572,2)</f>
@@ -5561,10 +5583,10 @@
         <f>AA33/(SUM(AA$33:AA$37))</f>
         <v>0.45070422535211274</v>
       </c>
-      <c r="AD33" s="30">
+      <c r="AD33" s="29">
         <v>6.4</v>
       </c>
-      <c r="AE33" s="30">
+      <c r="AE33" s="29">
         <v>4.7</v>
       </c>
       <c r="AF33" s="1">
@@ -5638,8 +5660,7 @@
         <v>32</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="3"/>
-        <v>1709520</v>
+        <v>1709998</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="3"/>
@@ -5658,12 +5679,8 @@
       <c r="K34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
       <c r="N34" s="2">
         <v>21</v>
       </c>
@@ -5690,7 +5707,7 @@
         <v>4.6932203389830507E-2</v>
       </c>
       <c r="Y34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z34">
         <f>ROUND(Z33-0.894105618177762,2)</f>
@@ -5755,6 +5772,9 @@
       <c r="AV34" s="1">
         <v>1.04</v>
       </c>
+      <c r="AW34" s="14" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -5812,7 +5832,7 @@
       <c r="P35" s="2">
         <v>0</v>
       </c>
-      <c r="Q35" s="30">
+      <c r="Q35" s="29">
         <v>1</v>
       </c>
       <c r="T35">
@@ -5832,7 +5852,7 @@
         <v>0.11733050847457627</v>
       </c>
       <c r="Y35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z35">
         <v>113.91</v>
@@ -5849,10 +5869,10 @@
         <f t="shared" si="19"/>
         <v>0.15100216684723733</v>
       </c>
-      <c r="AD35" s="30">
+      <c r="AD35" s="29">
         <v>3</v>
       </c>
-      <c r="AE35" s="30">
+      <c r="AE35" s="29">
         <v>2.2000000000000002</v>
       </c>
       <c r="AF35" s="1">
@@ -5937,7 +5957,7 @@
         <v>1709999</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="1"/>
@@ -5977,7 +5997,7 @@
         <v>9.3864406779661014E-2</v>
       </c>
       <c r="Y36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA36">
         <v>1.7</v>
@@ -5989,10 +6009,10 @@
         <f t="shared" si="19"/>
         <v>0.11971830985915494</v>
       </c>
-      <c r="AD36" s="30">
+      <c r="AD36" s="29">
         <v>1.7</v>
       </c>
-      <c r="AE36" s="30">
+      <c r="AE36" s="29">
         <v>1.3</v>
       </c>
       <c r="AF36" s="1">
@@ -6097,7 +6117,7 @@
       <c r="P37" s="4">
         <v>32</v>
       </c>
-      <c r="Q37" s="27"/>
+      <c r="Q37" s="26"/>
       <c r="T37" s="3">
         <f t="shared" si="6"/>
         <v>3.1</v>
@@ -6115,7 +6135,7 @@
       </c>
       <c r="X37" s="5"/>
       <c r="Y37" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA37" s="3">
         <v>3.1</v>
@@ -6127,10 +6147,10 @@
         <f t="shared" si="19"/>
         <v>0.21830985915492959</v>
       </c>
-      <c r="AD37" s="27">
+      <c r="AD37" s="26">
         <v>3.1</v>
       </c>
-      <c r="AE37" s="27">
+      <c r="AE37" s="26">
         <v>2.2999999999999998</v>
       </c>
       <c r="AF37" s="5">
@@ -6182,7 +6202,9 @@
       <c r="AV37" s="5">
         <v>1.04</v>
       </c>
-      <c r="AW37" s="13"/>
+      <c r="AW37" s="13" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -6255,7 +6277,7 @@
         <v>2.4035608308605343E-2</v>
       </c>
       <c r="Y38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA38">
         <v>0.1</v>
@@ -6267,10 +6289,10 @@
         <f>AA38/(SUM(AA$38:AA$41))</f>
         <v>3.7037037037037034E-3</v>
       </c>
-      <c r="AD38" s="30">
+      <c r="AD38" s="29">
         <v>0.1</v>
       </c>
-      <c r="AE38" s="30">
+      <c r="AE38" s="29">
         <v>0.1</v>
       </c>
       <c r="AF38">
@@ -6389,7 +6411,7 @@
         <v>1.4421364985163203</v>
       </c>
       <c r="Y39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA39">
         <v>16.3</v>
@@ -6401,10 +6423,10 @@
         <f>AA39/(SUM(AA$38:AA$41))</f>
         <v>0.60370370370370363</v>
       </c>
-      <c r="AD39" s="30">
+      <c r="AD39" s="29">
         <v>16.3</v>
       </c>
-      <c r="AE39" s="30">
+      <c r="AE39" s="29">
         <v>12</v>
       </c>
       <c r="AF39" s="1">
@@ -6528,7 +6550,7 @@
         <v>0.14421364985163204</v>
       </c>
       <c r="Y40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA40">
         <v>1.6</v>
@@ -6540,10 +6562,10 @@
         <f>AA40/(SUM(AA$38:AA$41))</f>
         <v>5.9259259259259255E-2</v>
       </c>
-      <c r="AD40" s="30">
+      <c r="AD40" s="29">
         <v>1.6</v>
       </c>
-      <c r="AE40" s="30">
+      <c r="AE40" s="29">
         <v>1.2</v>
       </c>
       <c r="AF40" s="1">
@@ -6651,7 +6673,7 @@
       <c r="P41" s="4">
         <v>7</v>
       </c>
-      <c r="Q41" s="27"/>
+      <c r="Q41" s="26"/>
       <c r="T41" s="3">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -6669,7 +6691,7 @@
       </c>
       <c r="X41" s="5"/>
       <c r="Y41" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA41" s="3">
         <v>9</v>
@@ -6681,10 +6703,10 @@
         <f>AA41/(SUM(AA$38:AA$41))</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AD41" s="27">
+      <c r="AD41" s="26">
         <v>9</v>
       </c>
-      <c r="AE41" s="27">
+      <c r="AE41" s="26">
         <v>6.7</v>
       </c>
       <c r="AF41" s="5">
@@ -6809,7 +6831,7 @@
         <v>0.32804154302670624</v>
       </c>
       <c r="Y42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AA42">
         <v>3.7</v>
@@ -6821,10 +6843,10 @@
         <f>AA42/(SUM(AA$42:AA$43))</f>
         <v>0.55223880597014929</v>
       </c>
-      <c r="AD42" s="30">
+      <c r="AD42" s="29">
         <v>3.7</v>
       </c>
-      <c r="AE42" s="30">
+      <c r="AE42" s="29">
         <v>2.7</v>
       </c>
       <c r="AF42" s="1">
@@ -6933,7 +6955,7 @@
       <c r="P43" s="4">
         <v>148</v>
       </c>
-      <c r="Q43" s="27"/>
+      <c r="Q43" s="26"/>
       <c r="T43" s="3">
         <f t="shared" si="6"/>
         <v>3</v>
@@ -6950,8 +6972,8 @@
         <v>0.26839762611275964</v>
       </c>
       <c r="X43" s="5"/>
-      <c r="Y43" s="25" t="s">
-        <v>112</v>
+      <c r="Y43" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="AA43" s="3">
         <v>3</v>
@@ -6963,10 +6985,10 @@
         <f>AA43/(SUM(AA$42:AA$43))</f>
         <v>0.44776119402985076</v>
       </c>
-      <c r="AD43" s="27">
+      <c r="AD43" s="26">
         <v>3</v>
       </c>
-      <c r="AE43" s="27">
+      <c r="AE43" s="26">
         <v>2.2000000000000002</v>
       </c>
       <c r="AF43" s="5">
@@ -7027,13 +7049,13 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="19"/>
-      <c r="K44" s="4"/>
+      <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="M44" s="23"/>
+      <c r="M44" s="16"/>
       <c r="N44" s="19"/>
       <c r="O44" s="19"/>
       <c r="P44" s="19"/>
-      <c r="Q44" s="31"/>
+      <c r="Q44" s="30"/>
       <c r="V44" s="19"/>
       <c r="W44" s="20"/>
       <c r="X44" s="20"/>
@@ -7042,8 +7064,8 @@
       <c r="AA44" s="19"/>
       <c r="AB44" s="19"/>
       <c r="AC44" s="20"/>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="28"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="27"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
@@ -7055,7 +7077,7 @@
       <c r="AN44" s="19"/>
       <c r="AO44" s="19"/>
       <c r="AP44" s="19"/>
-      <c r="AQ44" s="26"/>
+      <c r="AQ44" s="25"/>
       <c r="AR44" s="19"/>
       <c r="AS44" s="19"/>
       <c r="AT44" s="19"/>
@@ -7068,7 +7090,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="15">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C45" s="15">
         <v>1</v>
@@ -7080,26 +7102,30 @@
         <v>1</v>
       </c>
       <c r="F45" s="16">
-        <v>1709998</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>101</v>
+        <v>1700800</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>198</v>
       </c>
       <c r="H45" s="16">
-        <v>1700801</v>
-      </c>
-      <c r="I45" s="16" t="s">
-        <v>102</v>
+        <v>1709520</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="J45" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="K45" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L45" s="16"/>
-      <c r="M45" s="2"/>
+      <c r="L45" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="M45" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="N45" s="16">
         <v>1</v>
       </c>
@@ -7109,39 +7135,35 @@
       <c r="P45" s="16">
         <v>3</v>
       </c>
-      <c r="Q45" s="29"/>
+      <c r="Q45" s="28">
+        <v>1</v>
+      </c>
       <c r="T45" s="15">
-        <f t="shared" ref="T45:U61" si="24">AA45</f>
-        <v>1.3</v>
+        <f>Z45-Z46</f>
+        <v>7.71</v>
       </c>
       <c r="U45" s="15">
-        <f t="shared" si="24"/>
-        <v>1</v>
+        <f>T45</f>
+        <v>7.71</v>
       </c>
       <c r="V45" s="17">
-        <v>0.28999999999999998</v>
+        <f>ROUND(T45/(T45+T46),2)</f>
+        <v>0.73</v>
       </c>
       <c r="W45" s="17">
-        <f>0.95*V45*(SUM(AA$45:AA$47)/SUM(AA$45:AA$49))</f>
-        <v>0.1879836182336182</v>
+        <f>1.25*V45</f>
+        <v>0.91249999999999998</v>
       </c>
       <c r="X45" s="17"/>
-      <c r="Y45" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA45" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="AB45" s="15">
-        <f>C45</f>
-        <v>1</v>
-      </c>
-      <c r="AC45" s="17">
-        <f>AA45/(SUM(AA$45:AA$47))</f>
-        <v>0.27139874739039671</v>
-      </c>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="29"/>
+      <c r="Y45" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z45" s="15">
+        <v>10.58</v>
+      </c>
+      <c r="AC45" s="17"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="28"/>
       <c r="AF45" s="17"/>
       <c r="AG45" s="17"/>
       <c r="AH45" s="15">
@@ -7178,7 +7200,7 @@
         <v>50</v>
       </c>
       <c r="AS45" s="16">
-        <v>-999</v>
+        <v>10</v>
       </c>
       <c r="AT45" s="17">
         <v>0.31</v>
@@ -7186,1381 +7208,1288 @@
       <c r="AU45" s="17">
         <v>1.32</v>
       </c>
-      <c r="AV45" s="1">
-        <v>1.04</v>
-      </c>
-      <c r="AW45" s="18"/>
-    </row>
-    <row r="46" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="AV45" s="17">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" ref="A46" si="24">A45</f>
         <v>2</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="3">
+        <v>171</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" ref="F46" si="25">H45</f>
+        <v>1709520</v>
+      </c>
+      <c r="G46" s="5" t="str">
+        <f t="shared" ref="G46" si="26">I45</f>
+        <v>Timpas Creek near Swink</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1709998</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N46" s="4">
+        <v>21</v>
+      </c>
+      <c r="O46" s="4">
+        <v>48</v>
+      </c>
+      <c r="P46" s="4">
+        <v>79</v>
+      </c>
+      <c r="Q46" s="26"/>
+      <c r="T46" s="3">
+        <v>2.87</v>
+      </c>
+      <c r="U46" s="3">
+        <f>T46</f>
+        <v>2.87</v>
+      </c>
+      <c r="V46" s="5">
+        <f>ROUND(T46/(T45+T46),2)</f>
+        <v>0.27</v>
+      </c>
+      <c r="W46" s="5">
+        <f>1.25*V46</f>
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>2.87</v>
+      </c>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="26"/>
+      <c r="AE46" s="26"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AI46" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="AJ46" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AK46" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL46" s="4">
+        <v>32</v>
+      </c>
+      <c r="AM46" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AN46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO46" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="AP46" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="AQ46" s="4">
+        <v>17</v>
+      </c>
+      <c r="AR46" s="3">
+        <v>50</v>
+      </c>
+      <c r="AS46" s="4">
+        <v>10</v>
+      </c>
+      <c r="AT46" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="AU46" s="5">
+        <v>1.32</v>
+      </c>
+      <c r="AV46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="30"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="AA47"/>
+      <c r="AC47" s="21"/>
+      <c r="AD47" s="30"/>
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="21"/>
+      <c r="AG47" s="21"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="21"/>
+      <c r="AN47" s="7"/>
+      <c r="AO47" s="21"/>
+      <c r="AP47" s="21"/>
+      <c r="AQ47" s="7"/>
+      <c r="AS47" s="7"/>
+      <c r="AT47" s="21"/>
+      <c r="AU47" s="21"/>
+      <c r="AV47" s="21"/>
+      <c r="AW47" s="22"/>
+    </row>
+    <row r="48" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <v>2</v>
+      </c>
+      <c r="B48" s="15">
         <v>172</v>
       </c>
-      <c r="C46" s="6">
-        <v>1</v>
-      </c>
-      <c r="D46" s="19">
+      <c r="C48" s="15">
+        <v>1</v>
+      </c>
+      <c r="D48" s="36">
+        <v>1</v>
+      </c>
+      <c r="E48" s="15">
+        <v>1</v>
+      </c>
+      <c r="F48" s="16">
+        <v>1700801</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" s="16">
+        <v>1709510</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J48" s="16">
+        <f t="shared" ref="J48:J50" si="27">IF(K48="Inflow",1,IF(K48="Outflow",-1,IF(K48="Gage",0,"")))</f>
+        <v>1</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="M48" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="N48" s="16">
+        <v>1</v>
+      </c>
+      <c r="O48" s="16">
         <v>2</v>
       </c>
-      <c r="E46" s="6">
+      <c r="P48" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="28">
+        <v>1</v>
+      </c>
+      <c r="T48" s="15">
+        <f t="shared" ref="T48:T50" si="28">AA48</f>
+        <v>3.97</v>
+      </c>
+      <c r="U48" s="15">
+        <f t="shared" ref="U48:U50" si="29">T48</f>
+        <v>3.97</v>
+      </c>
+      <c r="V48" s="17">
+        <f>ROUND(T48/(T48+T49+T50),2)</f>
+        <v>0.64</v>
+      </c>
+      <c r="W48" s="17">
+        <f>0.95*V48</f>
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z48" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="AA48" s="15">
+        <f>Z48-Z49</f>
+        <v>3.97</v>
+      </c>
+      <c r="AB48" s="15">
+        <f>C48</f>
+        <v>1</v>
+      </c>
+      <c r="AC48" s="17">
+        <f>AA48/(SUM(AA$48:AA$48))</f>
+        <v>1</v>
+      </c>
+      <c r="AD48" s="28"/>
+      <c r="AE48" s="28"/>
+      <c r="AF48" s="17"/>
+      <c r="AG48" s="17"/>
+      <c r="AH48" s="15">
+        <v>10000</v>
+      </c>
+      <c r="AI48" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="AJ48" s="15">
+        <v>2500</v>
+      </c>
+      <c r="AK48" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL48" s="16">
+        <v>32</v>
+      </c>
+      <c r="AM48" s="17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AN48" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO48" s="17">
+        <v>0.83</v>
+      </c>
+      <c r="AP48" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="AQ48" s="16">
+        <v>17</v>
+      </c>
+      <c r="AR48" s="15">
+        <v>50</v>
+      </c>
+      <c r="AS48" s="16">
+        <v>10</v>
+      </c>
+      <c r="AT48" s="17">
+        <v>0.31</v>
+      </c>
+      <c r="AU48" s="17">
+        <v>1.32</v>
+      </c>
+      <c r="AV48" s="17">
+        <v>0</v>
+      </c>
+      <c r="AW48" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>2</v>
       </c>
-      <c r="F46" s="7">
-        <v>1700801</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H46" s="7">
-        <v>1700578</v>
-      </c>
-      <c r="I46" s="7" t="s">
+      <c r="B49">
+        <v>172</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1709510</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J46" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="H49" s="2">
+        <v>1700577</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N49" s="2">
+        <v>4</v>
+      </c>
+      <c r="O49" s="2">
+        <v>10</v>
+      </c>
+      <c r="P49" s="2">
         <v>32</v>
       </c>
-      <c r="L46" s="7" t="s">
+      <c r="T49">
+        <f t="shared" si="28"/>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="29"/>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="V49" s="1">
+        <f>ROUND(T49/(T48+T49+T50),2)</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="W49" s="1">
+        <f t="shared" ref="W49:W50" si="30">0.95*V49</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Y49" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="M46" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="N46" s="7">
-        <v>1</v>
-      </c>
-      <c r="O46" s="7">
+      <c r="Z49">
+        <v>2.23</v>
+      </c>
+      <c r="AA49">
+        <f>Z49-Z50</f>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="AB49">
+        <f>C49</f>
+        <v>1</v>
+      </c>
+      <c r="AC49" s="1">
+        <f>AA49/(SUM(AA$49:AA$50))</f>
+        <v>0.3991031390134529</v>
+      </c>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49">
+        <v>10000</v>
+      </c>
+      <c r="AI49">
+        <v>0.15</v>
+      </c>
+      <c r="AJ49">
+        <v>2500</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AL49" s="2">
+        <v>32</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AN49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO49" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="AP49" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="AQ49" s="2">
+        <v>17</v>
+      </c>
+      <c r="AR49">
+        <v>50</v>
+      </c>
+      <c r="AS49" s="2">
+        <v>10</v>
+      </c>
+      <c r="AT49" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="AU49" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="AV49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW49" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>2</v>
       </c>
-      <c r="P46" s="7">
+      <c r="B50" s="3">
+        <v>172</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3">
         <v>3</v>
       </c>
-      <c r="Q46" s="31">
-        <v>1</v>
-      </c>
-      <c r="T46" s="6">
-        <f t="shared" si="24"/>
-        <v>1.7</v>
-      </c>
-      <c r="U46" s="6">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="V46" s="21">
-        <v>0.38</v>
-      </c>
-      <c r="W46" s="21">
-        <f>0.95*V46*(SUM(AA$46:AA$47)/SUM(AA$46:AA$49))</f>
-        <v>0.22026048951048949</v>
-      </c>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA46" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="AB46" s="6">
-        <f>C46</f>
-        <v>1</v>
-      </c>
-      <c r="AC46" s="21">
-        <f>AA46/(SUM(AA$45:AA$47))</f>
-        <v>0.35490605427974953</v>
-      </c>
-      <c r="AD46" s="31"/>
-      <c r="AE46" s="31"/>
-      <c r="AF46" s="21"/>
-      <c r="AG46" s="21"/>
-      <c r="AH46" s="6">
+      <c r="E50" s="3">
+        <v>3</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1700577</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1709999</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4">
+        <v>1</v>
+      </c>
+      <c r="O50" s="4">
+        <v>4</v>
+      </c>
+      <c r="P50" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q50" s="26"/>
+      <c r="T50" s="3">
+        <f t="shared" si="28"/>
+        <v>1.34</v>
+      </c>
+      <c r="U50" s="3">
+        <f t="shared" si="29"/>
+        <v>1.34</v>
+      </c>
+      <c r="V50" s="5">
+        <f>ROUND(T50/(T48+T49+T50),2)</f>
+        <v>0.22</v>
+      </c>
+      <c r="W50" s="5">
+        <f t="shared" si="30"/>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>1.34</v>
+      </c>
+      <c r="AA50" s="3">
+        <f>Z50</f>
+        <v>1.34</v>
+      </c>
+      <c r="AB50" s="3">
+        <f>C50</f>
+        <v>1</v>
+      </c>
+      <c r="AC50" s="5">
+        <f>AA50/(SUM(AA$49:AA$50))</f>
+        <v>0.60089686098654715</v>
+      </c>
+      <c r="AD50" s="26"/>
+      <c r="AE50" s="26"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="3">
         <v>10000</v>
       </c>
-      <c r="AI46" s="6">
+      <c r="AI50" s="3">
         <v>0.15</v>
       </c>
-      <c r="AJ46" s="6">
+      <c r="AJ50" s="3">
         <v>2500</v>
       </c>
-      <c r="AK46" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL46" s="7">
+      <c r="AK50" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL50" s="4">
         <v>32</v>
       </c>
-      <c r="AM46" s="21">
+      <c r="AM50" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AN46" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO46" s="21">
+      <c r="AN50" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO50" s="5">
         <v>0.83</v>
       </c>
-      <c r="AP46" s="21">
+      <c r="AP50" s="5">
         <v>0.21</v>
       </c>
-      <c r="AQ46" s="7">
+      <c r="AQ50" s="4">
         <v>17</v>
       </c>
-      <c r="AR46" s="6">
+      <c r="AR50" s="3">
         <v>50</v>
       </c>
-      <c r="AS46" s="7">
+      <c r="AS50" s="4">
         <v>10</v>
       </c>
-      <c r="AT46" s="21">
+      <c r="AT50" s="5">
         <v>0.31</v>
       </c>
-      <c r="AU46" s="21">
+      <c r="AU50" s="5">
         <v>1.32</v>
       </c>
-      <c r="AV46" s="21">
-        <v>1.04</v>
-      </c>
-      <c r="AW46" s="22"/>
-    </row>
-    <row r="47" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="AV50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW50" s="13"/>
+    </row>
+    <row r="51" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="30"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+      <c r="AA51"/>
+      <c r="AC51" s="21"/>
+      <c r="AD51" s="30"/>
+      <c r="AE51" s="30"/>
+      <c r="AF51" s="21"/>
+      <c r="AG51" s="21"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="21"/>
+      <c r="AN51" s="7"/>
+      <c r="AO51" s="21"/>
+      <c r="AP51" s="21"/>
+      <c r="AQ51" s="7"/>
+      <c r="AS51" s="7"/>
+      <c r="AT51" s="21"/>
+      <c r="AU51" s="21"/>
+      <c r="AV51" s="21"/>
+      <c r="AW51" s="22"/>
+    </row>
+    <row r="52" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
         <v>2</v>
       </c>
-      <c r="B47" s="3">
-        <v>172</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1</v>
-      </c>
-      <c r="D47" s="3">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3">
-        <v>3</v>
-      </c>
-      <c r="F47" s="4">
-        <v>1700578</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H47" s="4">
-        <v>1709510</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J47" s="4">
+      <c r="B52" s="15">
+        <v>112</v>
+      </c>
+      <c r="C52" s="15">
+        <v>1</v>
+      </c>
+      <c r="D52" s="15">
+        <v>1</v>
+      </c>
+      <c r="E52" s="15">
+        <v>1</v>
+      </c>
+      <c r="F52" s="16">
+        <v>1103503</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H52" s="16">
+        <v>1109518</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="J52" s="16">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K52" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4">
-        <v>1</v>
-      </c>
-      <c r="O47" s="4">
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16">
+        <v>0</v>
+      </c>
+      <c r="O52" s="16">
+        <v>0</v>
+      </c>
+      <c r="P52" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="28">
+        <v>1</v>
+      </c>
+      <c r="T52" s="15">
+        <f t="shared" ref="T52" si="31">AA52</f>
+        <v>1.71</v>
+      </c>
+      <c r="U52" s="15">
+        <f>T52</f>
+        <v>1.71</v>
+      </c>
+      <c r="V52" s="17">
+        <v>1</v>
+      </c>
+      <c r="W52" s="17">
+        <f>1*V52*(SUM(AA$3:AA$4)/SUM(AA$3:AA$15))</f>
+        <v>1.3043478260869568E-2</v>
+      </c>
+      <c r="X52" s="17"/>
+      <c r="Y52" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z52" s="15">
+        <v>1.71</v>
+      </c>
+      <c r="AA52" s="15">
+        <f>Z52</f>
+        <v>1.71</v>
+      </c>
+      <c r="AC52" s="17"/>
+      <c r="AD52" s="28"/>
+      <c r="AE52" s="28"/>
+      <c r="AF52" s="17"/>
+      <c r="AG52" s="17"/>
+      <c r="AH52" s="15">
+        <v>10000</v>
+      </c>
+      <c r="AI52" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="AJ52" s="15">
+        <v>750</v>
+      </c>
+      <c r="AK52" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL52" s="16">
+        <v>32</v>
+      </c>
+      <c r="AM52" s="17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AN52" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO52" s="17">
+        <v>0.83</v>
+      </c>
+      <c r="AP52" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="AQ52" s="16">
+        <v>17</v>
+      </c>
+      <c r="AR52" s="15">
+        <v>50</v>
+      </c>
+      <c r="AS52" s="16">
+        <v>10</v>
+      </c>
+      <c r="AT52" s="17">
+        <v>0.31</v>
+      </c>
+      <c r="AU52" s="17">
+        <v>1.32</v>
+      </c>
+      <c r="AV52" s="17">
+        <v>1.27</v>
+      </c>
+      <c r="AW52" s="18"/>
+    </row>
+    <row r="53" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>2</v>
       </c>
-      <c r="P47" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q47" s="27"/>
-      <c r="T47" s="3">
-        <f t="shared" si="24"/>
-        <v>1.7899999999999996</v>
-      </c>
-      <c r="U47" s="3">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="V47" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="W47" s="5">
-        <f>0.95*V47*(SUM(AA$46:AA$47)/SUM(AA$46:AA$49))</f>
-        <v>0.19127884615384613</v>
-      </c>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="3" t="s">
+      <c r="B53" s="3">
+        <v>112</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1109518</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1120002</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J53" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N53" s="4">
+        <v>5</v>
+      </c>
+      <c r="O53" s="4">
+        <v>10</v>
+      </c>
+      <c r="P53" s="4">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="26">
+        <v>1</v>
+      </c>
+      <c r="T53" s="3">
+        <f t="shared" ref="T53:T62" si="32">AA53</f>
+        <v>1.71</v>
+      </c>
+      <c r="U53" s="3">
+        <f>T53</f>
+        <v>1.71</v>
+      </c>
+      <c r="V53" s="5">
+        <v>1</v>
+      </c>
+      <c r="W53" s="5">
+        <f>1*V53*(SUM(AA$3:AA$4)/SUM(AA$3:AA$15))</f>
+        <v>1.3043478260869568E-2</v>
+      </c>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Z47" s="3">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="AA47" s="3">
-        <f>Z47-Z48</f>
-        <v>1.7899999999999996</v>
-      </c>
-      <c r="AB47" s="3">
-        <f>C47</f>
-        <v>1</v>
-      </c>
-      <c r="AC47" s="5">
-        <f>AA47/(SUM(AA$45:AA$47))</f>
-        <v>0.37369519832985382</v>
-      </c>
-      <c r="AD47" s="27"/>
-      <c r="AE47" s="27"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="3">
+      <c r="Z53" s="3">
+        <v>1.71</v>
+      </c>
+      <c r="AA53" s="3">
+        <f>Z53</f>
+        <v>1.71</v>
+      </c>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="26"/>
+      <c r="AE53" s="26"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="3">
         <v>10000</v>
       </c>
-      <c r="AI47" s="3">
+      <c r="AI53" s="3">
         <v>0.15</v>
       </c>
-      <c r="AJ47" s="3">
-        <v>2500</v>
-      </c>
-      <c r="AK47" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL47" s="4">
+      <c r="AJ53" s="3">
+        <v>750</v>
+      </c>
+      <c r="AK53" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL53" s="4">
         <v>32</v>
       </c>
-      <c r="AM47" s="5">
+      <c r="AM53" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AN47" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO47" s="5">
+      <c r="AN53" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO53" s="5">
         <v>0.83</v>
       </c>
-      <c r="AP47" s="5">
+      <c r="AP53" s="5">
         <v>0.21</v>
       </c>
-      <c r="AQ47" s="4">
+      <c r="AQ53" s="4">
         <v>17</v>
       </c>
-      <c r="AR47" s="3">
+      <c r="AR53" s="3">
         <v>50</v>
       </c>
-      <c r="AS47" s="4">
+      <c r="AS53" s="4">
         <v>10</v>
       </c>
-      <c r="AT47" s="5">
+      <c r="AT53" s="5">
         <v>0.31</v>
       </c>
-      <c r="AU47" s="5">
+      <c r="AU53" s="5">
         <v>1.32</v>
       </c>
-      <c r="AV47" s="5">
-        <v>1.04</v>
-      </c>
-      <c r="AW47" s="13"/>
-    </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" ref="A48:A49" si="25">A47</f>
+      <c r="AV53" s="5">
+        <v>1.27</v>
+      </c>
+      <c r="AW53" s="13"/>
+    </row>
+    <row r="54" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="30"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
+      <c r="AA54" s="19"/>
+      <c r="AB54" s="19"/>
+      <c r="AC54" s="20"/>
+      <c r="AD54" s="27"/>
+      <c r="AE54" s="27"/>
+      <c r="AF54" s="19"/>
+      <c r="AG54" s="19"/>
+      <c r="AH54" s="19"/>
+      <c r="AI54" s="19"/>
+      <c r="AJ54" s="19"/>
+      <c r="AK54" s="19"/>
+      <c r="AL54" s="19"/>
+      <c r="AM54" s="19"/>
+      <c r="AN54" s="25"/>
+      <c r="AO54" s="19"/>
+      <c r="AP54" s="19"/>
+      <c r="AQ54" s="25"/>
+      <c r="AR54" s="19"/>
+      <c r="AS54" s="19"/>
+      <c r="AT54" s="19"/>
+      <c r="AU54" s="19"/>
+      <c r="AV54" s="20"/>
+      <c r="AW54" s="19"/>
+    </row>
+    <row r="55" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
         <v>2</v>
       </c>
-      <c r="B48">
-        <v>172</v>
-      </c>
-      <c r="C48">
-        <f>C47+1</f>
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <f t="shared" ref="E48:E49" si="26">E47+1</f>
-        <v>4</v>
-      </c>
-      <c r="F48" s="2">
-        <v>1709510</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H48" s="2">
-        <v>1700577</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J48" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N48" s="2">
-        <v>4</v>
-      </c>
-      <c r="O48" s="2">
+      <c r="B55" s="15">
         <v>10</v>
       </c>
-      <c r="P48" s="2">
-        <v>32</v>
-      </c>
-      <c r="T48">
-        <f t="shared" si="24"/>
-        <v>0.8899999999999999</v>
-      </c>
-      <c r="U48">
-        <f t="shared" si="24"/>
-        <v>2</v>
-      </c>
-      <c r="V48" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="W48" s="1">
-        <f>0.95*V48*(SUM(AA$48:AA$49)/SUM(AA$46:AA$49))</f>
-        <v>0.15555419580419583</v>
-      </c>
-      <c r="Y48" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z48">
-        <v>2.23</v>
-      </c>
-      <c r="AA48">
-        <f>Z48-Z49</f>
-        <v>0.8899999999999999</v>
-      </c>
-      <c r="AB48">
-        <f>C48</f>
-        <v>2</v>
-      </c>
-      <c r="AC48" s="1">
-        <f>AA48/(SUM(AA$48:AA$49))</f>
-        <v>0.3991031390134529</v>
-      </c>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="1"/>
-      <c r="AH48">
-        <v>10000</v>
-      </c>
-      <c r="AI48">
-        <v>0.15</v>
-      </c>
-      <c r="AJ48">
-        <v>2500</v>
-      </c>
-      <c r="AK48">
-        <v>1</v>
-      </c>
-      <c r="AL48" s="2">
-        <v>32</v>
-      </c>
-      <c r="AM48" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AN48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO48" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AP48" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="AQ48" s="2">
-        <v>17</v>
-      </c>
-      <c r="AR48">
-        <v>50</v>
-      </c>
-      <c r="AS48" s="2">
-        <v>10</v>
-      </c>
-      <c r="AT48" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="AU48" s="1">
-        <v>1.32</v>
-      </c>
-      <c r="AV48" s="1">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="49" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="B49" s="3">
-        <v>172</v>
-      </c>
-      <c r="C49" s="3">
-        <f>C48</f>
-        <v>2</v>
-      </c>
-      <c r="D49" s="3">
-        <v>2</v>
-      </c>
-      <c r="E49" s="3">
-        <f t="shared" si="26"/>
-        <v>5</v>
-      </c>
-      <c r="F49" s="4">
-        <v>1700577</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H49" s="4">
-        <v>1709999</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J49" s="4">
+      <c r="C55" s="15">
+        <v>1</v>
+      </c>
+      <c r="D55" s="15">
+        <v>1</v>
+      </c>
+      <c r="E55" s="15">
+        <v>1</v>
+      </c>
+      <c r="F55" s="16">
+        <v>1003657</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H55" s="16">
+        <v>1009999</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="J55" s="16">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K55" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4">
-        <v>1</v>
-      </c>
-      <c r="O49" s="4">
-        <v>4</v>
-      </c>
-      <c r="P49" s="4">
-        <v>6</v>
-      </c>
-      <c r="Q49" s="27"/>
-      <c r="T49" s="3">
-        <f t="shared" si="24"/>
-        <v>1.34</v>
-      </c>
-      <c r="U49" s="3">
-        <f t="shared" si="24"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16">
+        <v>0</v>
+      </c>
+      <c r="O55" s="16">
+        <v>0</v>
+      </c>
+      <c r="P55" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="28">
+        <v>1</v>
+      </c>
+      <c r="T55" s="15">
+        <v>50</v>
+      </c>
+      <c r="U55" s="15">
+        <v>50</v>
+      </c>
+      <c r="V55" s="17">
+        <v>0.67</v>
+      </c>
+      <c r="W55" s="17">
+        <v>1</v>
+      </c>
+      <c r="X55" s="17"/>
+      <c r="AC55" s="17"/>
+      <c r="AD55" s="28"/>
+      <c r="AE55" s="28"/>
+      <c r="AF55" s="17"/>
+      <c r="AG55" s="17"/>
+      <c r="AH55" s="15">
+        <v>10000</v>
+      </c>
+      <c r="AI55" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="AJ55" s="15">
+        <v>750</v>
+      </c>
+      <c r="AK55" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL55" s="16">
+        <v>32</v>
+      </c>
+      <c r="AM55" s="17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AN55" s="16">
+        <v>1</v>
+      </c>
+      <c r="AO55" s="17">
+        <v>0.83</v>
+      </c>
+      <c r="AP55" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="AQ55" s="16">
+        <v>17</v>
+      </c>
+      <c r="AR55" s="15">
+        <v>50</v>
+      </c>
+      <c r="AS55" s="16">
+        <v>10</v>
+      </c>
+      <c r="AT55" s="17">
+        <v>0.31</v>
+      </c>
+      <c r="AU55" s="17">
+        <v>1.32</v>
+      </c>
+      <c r="AV55" s="17">
+        <v>1.27</v>
+      </c>
+      <c r="AW55" s="18"/>
+    </row>
+    <row r="56" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
         <v>2</v>
       </c>
-      <c r="V49" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="W49" s="5">
-        <f>0.95*V49*(SUM(AA$48:AA$49)/SUM(AA$46:AA$49))</f>
-        <v>0.21481293706293708</v>
-      </c>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>1.34</v>
-      </c>
-      <c r="AA49" s="3">
-        <f>Z49</f>
-        <v>1.34</v>
-      </c>
-      <c r="AB49" s="3">
-        <f>C49</f>
+      <c r="B56" s="6">
+        <v>10</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6">
         <v>2</v>
       </c>
-      <c r="AC49" s="5">
-        <f>AA49/(SUM(AA$48:AA$49))</f>
-        <v>0.60089686098654715</v>
-      </c>
-      <c r="AD49" s="27"/>
-      <c r="AE49" s="27"/>
-      <c r="AF49" s="5"/>
-      <c r="AG49" s="5"/>
-      <c r="AH49" s="3">
-        <v>10000</v>
-      </c>
-      <c r="AI49" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="AJ49" s="3">
-        <v>2500</v>
-      </c>
-      <c r="AK49" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL49" s="4">
-        <v>32</v>
-      </c>
-      <c r="AM49" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AN49" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO49" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="AP49" s="5">
-        <v>0.21</v>
-      </c>
-      <c r="AQ49" s="4">
-        <v>17</v>
-      </c>
-      <c r="AR49" s="3">
-        <v>50</v>
-      </c>
-      <c r="AS49" s="4">
-        <v>10</v>
-      </c>
-      <c r="AT49" s="5">
-        <v>0.31</v>
-      </c>
-      <c r="AU49" s="5">
-        <v>1.32</v>
-      </c>
-      <c r="AV49" s="5">
-        <v>1.04</v>
-      </c>
-      <c r="AW49" s="13"/>
-    </row>
-    <row r="50" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="29"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="AA50"/>
-      <c r="AC50" s="17"/>
-      <c r="AD50" s="29"/>
-      <c r="AE50" s="29"/>
-      <c r="AF50" s="17"/>
-      <c r="AG50" s="17"/>
-      <c r="AL50" s="16"/>
-      <c r="AM50" s="17"/>
-      <c r="AN50" s="16"/>
-      <c r="AO50" s="17"/>
-      <c r="AP50" s="17"/>
-      <c r="AQ50" s="16"/>
-      <c r="AS50" s="16"/>
-      <c r="AT50" s="17"/>
-      <c r="AU50" s="17"/>
-      <c r="AV50" s="17"/>
-      <c r="AW50" s="18"/>
-    </row>
-    <row r="51" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+      <c r="E56" s="6">
+        <f>E55+1</f>
         <v>2</v>
       </c>
-      <c r="B51" s="6">
-        <v>112</v>
-      </c>
-      <c r="C51" s="6">
-        <v>1</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1</v>
-      </c>
-      <c r="E51" s="6">
-        <v>1</v>
-      </c>
-      <c r="F51" s="7">
-        <v>1103503</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H51" s="7">
-        <v>1109518</v>
-      </c>
-      <c r="I51" s="7" t="s">
+      <c r="F56" s="7">
+        <v>1009999</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J51" s="7">
+      <c r="H56" s="7">
+        <v>1009510</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J56" s="7">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="K56" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7">
-        <v>0</v>
-      </c>
-      <c r="O51" s="7">
-        <v>0</v>
-      </c>
-      <c r="P51" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="31">
-        <v>1</v>
-      </c>
-      <c r="T51" s="6">
-        <f t="shared" ref="T51" si="27">AA51</f>
-        <v>1.71</v>
-      </c>
-      <c r="U51" s="6">
-        <f>T51</f>
-        <v>1.71</v>
-      </c>
-      <c r="V51" s="21">
-        <v>1</v>
-      </c>
-      <c r="W51" s="21">
-        <f>1*V51*(SUM(AA$3:AA$4)/SUM(AA$3:AA$15))</f>
-        <v>1.3043478260869568E-2</v>
-      </c>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z51" s="6">
-        <v>1.71</v>
-      </c>
-      <c r="AA51">
-        <f>Z51</f>
-        <v>1.71</v>
-      </c>
-      <c r="AC51" s="21"/>
-      <c r="AD51" s="31"/>
-      <c r="AE51" s="31"/>
-      <c r="AF51" s="21"/>
-      <c r="AG51" s="21"/>
-      <c r="AH51" s="6">
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+      <c r="O56" s="7">
+        <v>0</v>
+      </c>
+      <c r="P56" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="30"/>
+      <c r="T56" s="6">
+        <v>50</v>
+      </c>
+      <c r="U56" s="6">
+        <v>50</v>
+      </c>
+      <c r="V56" s="21">
+        <v>0.33</v>
+      </c>
+      <c r="W56" s="21">
+        <v>1</v>
+      </c>
+      <c r="X56" s="21"/>
+      <c r="AC56" s="21"/>
+      <c r="AD56" s="30"/>
+      <c r="AE56" s="30"/>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="21"/>
+      <c r="AH56" s="6">
         <v>10000</v>
       </c>
-      <c r="AI51" s="6">
+      <c r="AI56" s="6">
         <v>0.15</v>
       </c>
-      <c r="AJ51" s="6">
+      <c r="AJ56" s="6">
         <v>750</v>
       </c>
-      <c r="AK51" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL51" s="7">
+      <c r="AK56" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL56" s="7">
         <v>32</v>
       </c>
-      <c r="AM51" s="21">
+      <c r="AM56" s="21">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AN51" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO51" s="21">
+      <c r="AN56" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO56" s="21">
         <v>0.83</v>
       </c>
-      <c r="AP51" s="21">
+      <c r="AP56" s="21">
         <v>0.21</v>
       </c>
-      <c r="AQ51" s="7">
+      <c r="AQ56" s="7">
         <v>17</v>
       </c>
-      <c r="AR51" s="6">
+      <c r="AR56" s="6">
         <v>50</v>
       </c>
-      <c r="AS51" s="7">
+      <c r="AS56" s="7">
         <v>10</v>
       </c>
-      <c r="AT51" s="21">
+      <c r="AT56" s="21">
         <v>0.31</v>
       </c>
-      <c r="AU51" s="21">
+      <c r="AU56" s="21">
         <v>1.32</v>
       </c>
-      <c r="AV51" s="21">
-        <v>1.27</v>
-      </c>
-      <c r="AW51" s="22"/>
-    </row>
-    <row r="52" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="AV56" s="21">
+        <v>1.17</v>
+      </c>
+      <c r="AW56" s="22"/>
+    </row>
+    <row r="57" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>2</v>
       </c>
-      <c r="B52" s="3">
-        <v>112</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3">
-        <v>2</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2</v>
-      </c>
-      <c r="F52" s="4">
-        <v>1109518</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H52" s="4">
-        <v>1120002</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J52" s="4">
+      <c r="B57" s="3">
+        <v>10</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
+        <f>E56+1</f>
+        <v>3</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1009510</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H57" s="4">
+        <v>1400800</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J57" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="K57" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L52" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M52" s="4" t="s">
+      <c r="L57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M57" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N52" s="4">
-        <v>5</v>
-      </c>
-      <c r="O52" s="4">
+      <c r="N57" s="4">
+        <v>49</v>
+      </c>
+      <c r="O57" s="4">
+        <v>133</v>
+      </c>
+      <c r="P57" s="4">
+        <v>296</v>
+      </c>
+      <c r="Q57" s="26"/>
+      <c r="T57" s="3">
+        <v>50</v>
+      </c>
+      <c r="U57" s="3">
+        <v>50</v>
+      </c>
+      <c r="V57" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="W57" s="5">
+        <v>1</v>
+      </c>
+      <c r="X57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="26"/>
+      <c r="AE57" s="26"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AI57" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="AJ57" s="3">
+        <v>750</v>
+      </c>
+      <c r="AK57" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL57" s="4">
+        <v>32</v>
+      </c>
+      <c r="AM57" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AN57" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO57" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="AP57" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="AQ57" s="4">
+        <v>17</v>
+      </c>
+      <c r="AR57" s="3">
+        <v>50</v>
+      </c>
+      <c r="AS57" s="4">
         <v>10</v>
       </c>
-      <c r="P52" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q52" s="27">
-        <v>1</v>
-      </c>
-      <c r="T52" s="3">
-        <f t="shared" si="24"/>
-        <v>1.71</v>
-      </c>
-      <c r="U52" s="3">
-        <f>T52</f>
-        <v>1.71</v>
-      </c>
-      <c r="V52" s="5">
-        <v>1</v>
-      </c>
-      <c r="W52" s="5">
-        <f>1*V52*(SUM(AA$3:AA$4)/SUM(AA$3:AA$15))</f>
-        <v>1.3043478260869568E-2</v>
-      </c>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>1.71</v>
-      </c>
-      <c r="AA52" s="3">
-        <f>Z52</f>
-        <v>1.71</v>
-      </c>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="27"/>
-      <c r="AE52" s="27"/>
-      <c r="AF52" s="5"/>
-      <c r="AG52" s="5"/>
-      <c r="AH52" s="3">
-        <v>10000</v>
-      </c>
-      <c r="AI52" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="AJ52" s="3">
-        <v>750</v>
-      </c>
-      <c r="AK52" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL52" s="4">
-        <v>32</v>
-      </c>
-      <c r="AM52" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AN52" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO52" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="AP52" s="5">
-        <v>0.21</v>
-      </c>
-      <c r="AQ52" s="4">
-        <v>17</v>
-      </c>
-      <c r="AR52" s="3">
-        <v>50</v>
-      </c>
-      <c r="AS52" s="4">
-        <v>10</v>
-      </c>
-      <c r="AT52" s="5">
+      <c r="AT57" s="5">
         <v>0.31</v>
       </c>
-      <c r="AU52" s="5">
+      <c r="AU57" s="5">
         <v>1.32</v>
       </c>
-      <c r="AV52" s="5">
-        <v>1.27</v>
-      </c>
-      <c r="AW52" s="13"/>
-    </row>
-    <row r="53" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="31"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="20"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="19"/>
-      <c r="AA53" s="19"/>
-      <c r="AB53" s="19"/>
-      <c r="AC53" s="20"/>
-      <c r="AD53" s="28"/>
-      <c r="AE53" s="28"/>
-      <c r="AF53" s="19"/>
-      <c r="AG53" s="19"/>
-      <c r="AH53" s="19"/>
-      <c r="AI53" s="19"/>
-      <c r="AJ53" s="19"/>
-      <c r="AK53" s="19"/>
-      <c r="AL53" s="19"/>
-      <c r="AM53" s="19"/>
-      <c r="AN53" s="26"/>
-      <c r="AO53" s="19"/>
-      <c r="AP53" s="19"/>
-      <c r="AQ53" s="26"/>
-      <c r="AR53" s="19"/>
-      <c r="AS53" s="19"/>
-      <c r="AT53" s="19"/>
-      <c r="AU53" s="19"/>
-      <c r="AV53" s="20"/>
-      <c r="AW53" s="19"/>
-    </row>
-    <row r="54" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15">
-        <v>2</v>
-      </c>
-      <c r="B54" s="15">
-        <v>10</v>
-      </c>
-      <c r="C54" s="15">
-        <v>1</v>
-      </c>
-      <c r="D54" s="15">
-        <v>1</v>
-      </c>
-      <c r="E54" s="15">
-        <v>1</v>
-      </c>
-      <c r="F54" s="16">
-        <v>1003657</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H54" s="16">
-        <v>1009999</v>
-      </c>
-      <c r="I54" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="J54" s="16">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16">
-        <v>0</v>
-      </c>
-      <c r="O54" s="16">
-        <v>0</v>
-      </c>
-      <c r="P54" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="29">
-        <v>1</v>
-      </c>
-      <c r="T54" s="15">
-        <v>50</v>
-      </c>
-      <c r="U54" s="15">
-        <v>50</v>
-      </c>
-      <c r="V54" s="17">
-        <v>0.67</v>
-      </c>
-      <c r="W54" s="17">
-        <v>1</v>
-      </c>
-      <c r="X54" s="17"/>
-      <c r="AC54" s="17"/>
-      <c r="AD54" s="29"/>
-      <c r="AE54" s="29"/>
-      <c r="AF54" s="17"/>
-      <c r="AG54" s="17"/>
-      <c r="AH54" s="15">
-        <v>10000</v>
-      </c>
-      <c r="AI54" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="AJ54" s="15">
-        <v>750</v>
-      </c>
-      <c r="AK54" s="15">
-        <v>1</v>
-      </c>
-      <c r="AL54" s="16">
-        <v>32</v>
-      </c>
-      <c r="AM54" s="17">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AN54" s="16">
-        <v>1</v>
-      </c>
-      <c r="AO54" s="17">
-        <v>0.83</v>
-      </c>
-      <c r="AP54" s="17">
-        <v>0.21</v>
-      </c>
-      <c r="AQ54" s="16">
-        <v>17</v>
-      </c>
-      <c r="AR54" s="15">
-        <v>50</v>
-      </c>
-      <c r="AS54" s="16">
-        <v>10</v>
-      </c>
-      <c r="AT54" s="17">
-        <v>0.31</v>
-      </c>
-      <c r="AU54" s="17">
-        <v>1.32</v>
-      </c>
-      <c r="AV54" s="17">
-        <v>1.27</v>
-      </c>
-      <c r="AW54" s="18"/>
-    </row>
-    <row r="55" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
-        <v>2</v>
-      </c>
-      <c r="B55" s="6">
-        <v>10</v>
-      </c>
-      <c r="C55" s="6">
-        <v>1</v>
-      </c>
-      <c r="D55" s="6">
-        <v>2</v>
-      </c>
-      <c r="E55" s="6">
-        <f>E54+1</f>
-        <v>2</v>
-      </c>
-      <c r="F55" s="7">
-        <v>1009999</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H55" s="7">
-        <v>1009510</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J55" s="7">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7">
-        <v>0</v>
-      </c>
-      <c r="O55" s="7">
-        <v>0</v>
-      </c>
-      <c r="P55" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="31"/>
-      <c r="T55" s="6">
-        <v>50</v>
-      </c>
-      <c r="U55" s="6">
-        <v>50</v>
-      </c>
-      <c r="V55" s="21">
-        <v>0.33</v>
-      </c>
-      <c r="W55" s="21">
-        <v>1</v>
-      </c>
-      <c r="X55" s="21"/>
-      <c r="AC55" s="21"/>
-      <c r="AD55" s="31"/>
-      <c r="AE55" s="31"/>
-      <c r="AF55" s="21"/>
-      <c r="AG55" s="21"/>
-      <c r="AH55" s="6">
-        <v>10000</v>
-      </c>
-      <c r="AI55" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="AJ55" s="6">
-        <v>750</v>
-      </c>
-      <c r="AK55" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL55" s="7">
-        <v>32</v>
-      </c>
-      <c r="AM55" s="21">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AN55" s="7">
-        <v>1</v>
-      </c>
-      <c r="AO55" s="21">
-        <v>0.83</v>
-      </c>
-      <c r="AP55" s="21">
-        <v>0.21</v>
-      </c>
-      <c r="AQ55" s="7">
-        <v>17</v>
-      </c>
-      <c r="AR55" s="6">
-        <v>50</v>
-      </c>
-      <c r="AS55" s="7">
-        <v>10</v>
-      </c>
-      <c r="AT55" s="21">
-        <v>0.31</v>
-      </c>
-      <c r="AU55" s="21">
-        <v>1.32</v>
-      </c>
-      <c r="AV55" s="21">
+      <c r="AV57" s="5">
         <v>1.17</v>
       </c>
-      <c r="AW55" s="22"/>
-    </row>
-    <row r="56" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>2</v>
-      </c>
-      <c r="B56" s="3">
-        <v>10</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3">
-        <v>3</v>
-      </c>
-      <c r="E56" s="3">
-        <f>E55+1</f>
-        <v>3</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1009510</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H56" s="4">
-        <v>1400800</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J56" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="N56" s="4">
-        <v>49</v>
-      </c>
-      <c r="O56" s="4">
-        <v>133</v>
-      </c>
-      <c r="P56" s="4">
-        <v>296</v>
-      </c>
-      <c r="Q56" s="27"/>
-      <c r="T56" s="3">
-        <v>50</v>
-      </c>
-      <c r="U56" s="3">
-        <v>50</v>
-      </c>
-      <c r="V56" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="W56" s="5">
-        <v>1</v>
-      </c>
-      <c r="X56" s="5"/>
-      <c r="AC56" s="5"/>
-      <c r="AD56" s="27"/>
-      <c r="AE56" s="27"/>
-      <c r="AF56" s="5"/>
-      <c r="AG56" s="5"/>
-      <c r="AH56" s="3">
-        <v>10000</v>
-      </c>
-      <c r="AI56" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="AJ56" s="3">
-        <v>750</v>
-      </c>
-      <c r="AK56" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL56" s="4">
-        <v>32</v>
-      </c>
-      <c r="AM56" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AN56" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO56" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="AP56" s="5">
-        <v>0.21</v>
-      </c>
-      <c r="AQ56" s="4">
-        <v>17</v>
-      </c>
-      <c r="AR56" s="3">
-        <v>50</v>
-      </c>
-      <c r="AS56" s="4">
-        <v>10</v>
-      </c>
-      <c r="AT56" s="5">
-        <v>0.31</v>
-      </c>
-      <c r="AU56" s="5">
-        <v>1.32</v>
-      </c>
-      <c r="AV56" s="5">
-        <v>1.17</v>
-      </c>
-      <c r="AW56" s="13"/>
-    </row>
-    <row r="57" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="Q57" s="31"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="21"/>
-      <c r="Y57" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z57" s="6">
-        <v>361.99</v>
-      </c>
-      <c r="AA57" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="34"/>
-      <c r="AD57" s="31"/>
-      <c r="AE57" s="31"/>
-      <c r="AQ57" s="7"/>
-      <c r="AS57" s="7"/>
-      <c r="AV57" s="21"/>
-      <c r="AW57" s="22"/>
-    </row>
-    <row r="58" spans="1:49" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
-        <v>2</v>
-      </c>
-      <c r="B58" s="6">
-        <v>11</v>
-      </c>
-      <c r="C58" s="6">
-        <v>1</v>
-      </c>
-      <c r="D58" s="6">
-        <v>1</v>
-      </c>
-      <c r="E58" s="6">
-        <v>1</v>
-      </c>
-      <c r="F58" s="7">
-        <v>1109504</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H58" s="7">
-        <v>1120002</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J58" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="M58" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="N58" s="6">
-        <v>5</v>
-      </c>
-      <c r="O58" s="6">
-        <v>10</v>
-      </c>
-      <c r="P58" s="6">
-        <v>20</v>
-      </c>
-      <c r="Q58" s="31"/>
-      <c r="T58" s="7">
-        <f t="shared" si="24"/>
-        <v>14.889999999999986</v>
-      </c>
-      <c r="U58" s="7">
-        <f>T58</f>
-        <v>14.889999999999986</v>
-      </c>
-      <c r="V58" s="21">
-        <f>AC58</f>
-        <v>0.23552673204682031</v>
-      </c>
-      <c r="W58" s="21">
-        <v>1</v>
-      </c>
+      <c r="AW57" s="13"/>
+    </row>
+    <row r="58" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="Q58" s="30"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="21"/>
       <c r="X58" s="21"/>
       <c r="Y58" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z58" s="6">
-        <v>347.1</v>
-      </c>
-      <c r="AA58" s="6">
-        <f>Z57-Z58</f>
-        <v>14.889999999999986</v>
-      </c>
-      <c r="AB58" s="6"/>
-      <c r="AC58" s="21">
-        <f>AA58/(SUM(AA$57:AA$59))</f>
-        <v>0.23552673204682031</v>
-      </c>
-      <c r="AD58" s="31"/>
-      <c r="AE58" s="31"/>
-      <c r="AF58" s="6"/>
-      <c r="AG58" s="6"/>
-      <c r="AH58" s="6">
-        <v>10000</v>
-      </c>
-      <c r="AI58" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="AJ58" s="6">
-        <v>750</v>
-      </c>
-      <c r="AK58" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL58" s="6">
-        <v>32</v>
-      </c>
-      <c r="AM58" s="6">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AN58" s="6">
-        <v>1</v>
-      </c>
-      <c r="AO58" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="AP58" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="AQ58" s="7">
-        <v>17</v>
-      </c>
-      <c r="AR58" s="6">
-        <v>50</v>
-      </c>
-      <c r="AS58" s="7">
-        <v>110</v>
-      </c>
-      <c r="AT58" s="6">
-        <v>0.31</v>
-      </c>
-      <c r="AU58" s="6">
-        <v>1.32</v>
-      </c>
-      <c r="AV58" s="21">
-        <v>1.27</v>
-      </c>
+        <v>361.99</v>
+      </c>
+      <c r="AA58" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="33"/>
+      <c r="AD58" s="30"/>
+      <c r="AE58" s="30"/>
+      <c r="AQ58" s="7"/>
+      <c r="AS58" s="7"/>
+      <c r="AV58" s="21"/>
       <c r="AW58" s="22"/>
     </row>
     <row r="59" spans="1:49" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -8574,32 +8503,36 @@
         <v>1</v>
       </c>
       <c r="D59" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" s="7">
+        <v>1109504</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H59" s="7">
         <v>1120002</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H59" s="7">
-        <v>1109501</v>
-      </c>
       <c r="I59" s="6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="J59" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="N59" s="6">
         <v>5</v>
       </c>
@@ -8609,40 +8542,40 @@
       <c r="P59" s="6">
         <v>20</v>
       </c>
-      <c r="Q59" s="31"/>
+      <c r="Q59" s="30"/>
       <c r="T59" s="7">
-        <f t="shared" si="24"/>
-        <v>48.330000000000041</v>
+        <f t="shared" si="32"/>
+        <v>14.889999999999986</v>
       </c>
       <c r="U59" s="7">
-        <f t="shared" ref="U59:U61" si="28">T59</f>
-        <v>48.330000000000041</v>
+        <f>T59</f>
+        <v>14.889999999999986</v>
       </c>
       <c r="V59" s="21">
-        <f t="shared" ref="V59" si="29">AC59</f>
-        <v>0.76447326795317971</v>
+        <f>AC59</f>
+        <v>0.23552673204682031</v>
       </c>
       <c r="W59" s="21">
         <v>1</v>
       </c>
       <c r="X59" s="21"/>
       <c r="Y59" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z59" s="6">
-        <v>298.77</v>
+        <v>347.1</v>
       </c>
       <c r="AA59" s="6">
         <f>Z58-Z59</f>
-        <v>48.330000000000041</v>
+        <v>14.889999999999986</v>
       </c>
       <c r="AB59" s="6"/>
       <c r="AC59" s="21">
-        <f>AA59/(SUM(AA$57:AA$59))</f>
-        <v>0.76447326795317971</v>
-      </c>
-      <c r="AD59" s="31"/>
-      <c r="AE59" s="31"/>
+        <f>AA59/(SUM(AA$58:AA$60))</f>
+        <v>0.23552673204682031</v>
+      </c>
+      <c r="AD59" s="30"/>
+      <c r="AE59" s="30"/>
       <c r="AF59" s="6"/>
       <c r="AG59" s="6"/>
       <c r="AH59" s="6">
@@ -8700,39 +8633,35 @@
         <v>11</v>
       </c>
       <c r="C60" s="6">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6">
         <v>2</v>
       </c>
-      <c r="D60" s="6">
-        <v>1</v>
-      </c>
       <c r="E60" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" s="7">
+        <v>1120002</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H60" s="7">
         <v>1109501</v>
       </c>
-      <c r="G60" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H60" s="7">
-        <v>1209502</v>
-      </c>
       <c r="I60" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J60" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="M60" s="6" t="s">
-        <v>88</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
       <c r="N60" s="6">
         <v>5</v>
       </c>
@@ -8742,36 +8671,40 @@
       <c r="P60" s="6">
         <v>20</v>
       </c>
-      <c r="Q60" s="31"/>
+      <c r="Q60" s="30"/>
       <c r="T60" s="7">
-        <f t="shared" si="24"/>
-        <v>73.72999999999999</v>
+        <f t="shared" si="32"/>
+        <v>48.330000000000041</v>
       </c>
       <c r="U60" s="7">
-        <f t="shared" si="28"/>
-        <v>73.72999999999999</v>
+        <f t="shared" ref="U60:U62" si="33">T60</f>
+        <v>48.330000000000041</v>
       </c>
       <c r="V60" s="21">
-        <v>1</v>
+        <f t="shared" ref="V60" si="34">AC60</f>
+        <v>0.76447326795317971</v>
       </c>
       <c r="W60" s="21">
         <v>1</v>
       </c>
       <c r="X60" s="21"/>
       <c r="Y60" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z60" s="6">
-        <v>225.04</v>
+        <v>298.77</v>
       </c>
       <c r="AA60" s="6">
         <f>Z59-Z60</f>
-        <v>73.72999999999999</v>
+        <v>48.330000000000041</v>
       </c>
       <c r="AB60" s="6"/>
-      <c r="AC60" s="21"/>
-      <c r="AD60" s="31"/>
-      <c r="AE60" s="31"/>
+      <c r="AC60" s="21">
+        <f>AA60/(SUM(AA$58:AA$60))</f>
+        <v>0.76447326795317971</v>
+      </c>
+      <c r="AD60" s="30"/>
+      <c r="AE60" s="30"/>
       <c r="AF60" s="6"/>
       <c r="AG60" s="6"/>
       <c r="AH60" s="6">
@@ -8821,491 +8754,500 @@
       </c>
       <c r="AW60" s="22"/>
     </row>
-    <row r="61" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+    <row r="61" spans="1:49" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
         <v>2</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="6">
         <v>11</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="6">
+        <v>2</v>
+      </c>
+      <c r="D61" s="6">
+        <v>1</v>
+      </c>
+      <c r="E61" s="6">
         <v>3</v>
       </c>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
-      <c r="E61" s="3">
+      <c r="F61" s="7">
+        <v>1109501</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" s="7">
+        <v>1209502</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J61" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N61" s="6">
+        <v>5</v>
+      </c>
+      <c r="O61" s="6">
+        <v>10</v>
+      </c>
+      <c r="P61" s="6">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="30"/>
+      <c r="T61" s="7">
+        <f t="shared" si="32"/>
+        <v>73.72999999999999</v>
+      </c>
+      <c r="U61" s="7">
+        <f t="shared" si="33"/>
+        <v>73.72999999999999</v>
+      </c>
+      <c r="V61" s="21">
+        <v>1</v>
+      </c>
+      <c r="W61" s="21">
+        <v>1</v>
+      </c>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z61" s="6">
+        <v>225.04</v>
+      </c>
+      <c r="AA61" s="6">
+        <f>Z60-Z61</f>
+        <v>73.72999999999999</v>
+      </c>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="21"/>
+      <c r="AD61" s="30"/>
+      <c r="AE61" s="30"/>
+      <c r="AF61" s="6"/>
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="6">
+        <v>10000</v>
+      </c>
+      <c r="AI61" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="AJ61" s="6">
+        <v>750</v>
+      </c>
+      <c r="AK61" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL61" s="6">
+        <v>32</v>
+      </c>
+      <c r="AM61" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AN61" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO61" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="AP61" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="AQ61" s="7">
+        <v>17</v>
+      </c>
+      <c r="AR61" s="6">
+        <v>50</v>
+      </c>
+      <c r="AS61" s="7">
+        <v>110</v>
+      </c>
+      <c r="AT61" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="AU61" s="6">
+        <v>1.32</v>
+      </c>
+      <c r="AV61" s="21">
+        <v>1.27</v>
+      </c>
+      <c r="AW61" s="22"/>
+    </row>
+    <row r="62" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>2</v>
+      </c>
+      <c r="B62" s="3">
+        <v>11</v>
+      </c>
+      <c r="C62" s="3">
+        <v>3</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
         <v>4</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F62" s="4">
         <v>1209502</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H61" s="4">
+      <c r="G62" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H62" s="4">
         <v>1403526</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I62" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J62" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="K62" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L61" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="M61" s="4" t="s">
+      <c r="L62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M62" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N61" s="4">
+      <c r="N62" s="4">
         <v>5</v>
       </c>
-      <c r="O61" s="4">
+      <c r="O62" s="4">
         <v>10</v>
       </c>
-      <c r="P61" s="4">
+      <c r="P62" s="4">
         <v>20</v>
       </c>
-      <c r="Q61" s="27"/>
-      <c r="T61" s="4">
-        <f t="shared" si="24"/>
+      <c r="Q62" s="26"/>
+      <c r="T62" s="4">
+        <f t="shared" si="32"/>
         <v>21.97</v>
       </c>
-      <c r="U61" s="4">
-        <f t="shared" si="28"/>
+      <c r="U62" s="4">
+        <f t="shared" si="33"/>
         <v>21.97</v>
       </c>
-      <c r="V61" s="5">
-        <v>1</v>
-      </c>
-      <c r="W61" s="5">
-        <v>1</v>
-      </c>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z61" s="3">
+      <c r="V62" s="5">
+        <v>1</v>
+      </c>
+      <c r="W62" s="5">
+        <v>1</v>
+      </c>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z62" s="3">
         <v>203.07</v>
       </c>
-      <c r="AA61" s="3">
-        <f>Z60-Z61</f>
+      <c r="AA62" s="3">
+        <f>Z61-Z62</f>
         <v>21.97</v>
       </c>
-      <c r="AB61" s="3"/>
-      <c r="AC61" s="5"/>
-      <c r="AD61" s="27"/>
-      <c r="AE61" s="27"/>
-      <c r="AF61" s="3"/>
-      <c r="AG61" s="3"/>
-      <c r="AH61" s="3">
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="26"/>
+      <c r="AE62" s="26"/>
+      <c r="AF62" s="3"/>
+      <c r="AG62" s="3"/>
+      <c r="AH62" s="3">
         <v>10000</v>
       </c>
-      <c r="AI61" s="3">
+      <c r="AI62" s="3">
         <v>0.15</v>
       </c>
-      <c r="AJ61" s="3">
+      <c r="AJ62" s="3">
         <v>750</v>
       </c>
-      <c r="AK61" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL61" s="3">
+      <c r="AK62" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL62" s="3">
         <v>32</v>
       </c>
-      <c r="AM61" s="3">
+      <c r="AM62" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AN61" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO61" s="3">
+      <c r="AN62" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO62" s="3">
         <v>0.83</v>
       </c>
-      <c r="AP61" s="3">
+      <c r="AP62" s="3">
         <v>0.21</v>
       </c>
-      <c r="AQ61" s="4">
+      <c r="AQ62" s="4">
         <v>17</v>
       </c>
-      <c r="AR61" s="3">
+      <c r="AR62" s="3">
         <v>50</v>
       </c>
-      <c r="AS61" s="4">
+      <c r="AS62" s="4">
         <v>110</v>
       </c>
-      <c r="AT61" s="3">
+      <c r="AT62" s="3">
         <v>0.31</v>
       </c>
-      <c r="AU61" s="3">
+      <c r="AU62" s="3">
         <v>1.32</v>
       </c>
-      <c r="AV61" s="5">
+      <c r="AV62" s="5">
         <v>1.27</v>
       </c>
-      <c r="AW61" s="13"/>
-    </row>
-    <row r="63" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="AW62" s="13"/>
+    </row>
+    <row r="64" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>2</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>67</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
         <v>6703512</v>
       </c>
-      <c r="G63" t="s">
-        <v>170</v>
-      </c>
-      <c r="H63" s="2">
+      <c r="G64" t="s">
+        <v>166</v>
+      </c>
+      <c r="H64" s="2">
         <v>6709501</v>
       </c>
-      <c r="I63" t="s">
-        <v>169</v>
-      </c>
-      <c r="J63" s="7">
-        <f t="shared" ref="J63:J77" si="30">IF(K63="Inflow",1,IF(K63="Outflow",-1,IF(K63="Gage",0,"")))</f>
+      <c r="I64" t="s">
+        <v>165</v>
+      </c>
+      <c r="J64" s="7">
+        <f t="shared" ref="J64:J78" si="35">IF(K64="Inflow",1,IF(K64="Outflow",-1,IF(K64="Gage",0,"")))</f>
         <v>-1</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K64" t="s">
         <v>33</v>
       </c>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="30">
-        <v>1</v>
-      </c>
-      <c r="T63" s="14">
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="29">
+        <v>1</v>
+      </c>
+      <c r="T64" s="14">
         <v>0.1</v>
       </c>
-      <c r="U63" s="14">
+      <c r="U64" s="14">
         <v>0.1</v>
       </c>
-      <c r="V63" s="1">
-        <v>1</v>
-      </c>
-      <c r="W63" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z63"/>
-      <c r="AA63"/>
-      <c r="AB63"/>
-      <c r="AC63" s="1"/>
-      <c r="AD63" s="30"/>
-      <c r="AE63" s="30"/>
-      <c r="AF63"/>
-      <c r="AG63"/>
-      <c r="AH63">
+      <c r="V64" s="1">
+        <v>1</v>
+      </c>
+      <c r="W64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="29"/>
+      <c r="AE64" s="29"/>
+      <c r="AF64"/>
+      <c r="AG64"/>
+      <c r="AH64">
         <v>9000</v>
       </c>
-      <c r="AI63">
+      <c r="AI64">
         <v>0.18</v>
       </c>
-      <c r="AJ63">
+      <c r="AJ64">
         <v>800</v>
       </c>
-      <c r="AK63">
-        <v>1</v>
-      </c>
-      <c r="AL63">
+      <c r="AK64">
+        <v>1</v>
+      </c>
+      <c r="AL64">
         <v>32</v>
       </c>
-      <c r="AM63">
+      <c r="AM64">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AN63">
-        <v>1</v>
-      </c>
-      <c r="AO63">
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>0.83</v>
       </c>
-      <c r="AP63">
+      <c r="AP64">
         <v>0.21</v>
       </c>
-      <c r="AQ63">
+      <c r="AQ64">
         <v>671</v>
       </c>
-      <c r="AR63">
+      <c r="AR64">
         <v>20</v>
       </c>
-      <c r="AS63" s="2">
+      <c r="AS64" s="2">
         <v>-999</v>
       </c>
-      <c r="AT63">
+      <c r="AT64">
         <v>0.38</v>
       </c>
-      <c r="AU63">
+      <c r="AU64">
         <v>0.99</v>
       </c>
-      <c r="AV63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW63" s="14"/>
-    </row>
-    <row r="64" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15">
+      <c r="AV64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW64" s="14"/>
+    </row>
+    <row r="65" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="15">
         <v>2</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B65" s="15">
         <v>67</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C65" s="15">
         <v>2</v>
       </c>
-      <c r="D64" s="15">
-        <v>1</v>
-      </c>
-      <c r="E64" s="15">
+      <c r="D65" s="15">
+        <v>1</v>
+      </c>
+      <c r="E65" s="15">
         <v>2</v>
       </c>
-      <c r="F64" s="16">
-        <f>H63</f>
+      <c r="F65" s="16">
+        <f>H64</f>
         <v>6709501</v>
       </c>
-      <c r="G64" s="16" t="str">
-        <f t="shared" ref="G64" si="31">I63</f>
+      <c r="G65" s="16" t="str">
+        <f t="shared" ref="G65" si="36">I64</f>
         <v>Arkansas River below John Martin Reservoir</v>
       </c>
-      <c r="H64" s="16">
+      <c r="H65" s="16">
         <v>6700610</v>
       </c>
-      <c r="I64" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="J64" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="15" t="s">
+      <c r="I65" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J65" s="16">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="L64" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="M64" s="15" t="s">
+      <c r="L65" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M65" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="N64" s="15">
+      <c r="N65" s="15">
         <v>150</v>
       </c>
-      <c r="O64" s="15">
+      <c r="O65" s="15">
         <v>542</v>
       </c>
-      <c r="P64" s="15">
+      <c r="P65" s="15">
         <v>831</v>
       </c>
-      <c r="Q64" s="29"/>
-      <c r="T64" s="16">
+      <c r="Q65" s="28"/>
+      <c r="T65" s="16">
         <v>5.9</v>
       </c>
-      <c r="U64" s="15">
+      <c r="U65" s="15">
         <v>4.5999999999999996</v>
       </c>
-      <c r="V64" s="15">
+      <c r="V65" s="15">
         <v>0.26</v>
       </c>
-      <c r="W64" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y64" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC64" s="17"/>
-      <c r="AD64" s="17"/>
-      <c r="AE64" s="29"/>
-      <c r="AH64" s="15">
+      <c r="W65" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC65" s="17"/>
+      <c r="AD65" s="17"/>
+      <c r="AE65" s="28"/>
+      <c r="AH65" s="15">
         <v>9000</v>
       </c>
-      <c r="AI64" s="15">
+      <c r="AI65" s="15">
         <v>0.18</v>
       </c>
-      <c r="AJ64" s="15">
+      <c r="AJ65" s="15">
         <v>800</v>
       </c>
-      <c r="AK64" s="15">
-        <v>1</v>
-      </c>
-      <c r="AL64" s="15">
+      <c r="AK65" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL65" s="15">
         <v>32</v>
       </c>
-      <c r="AM64" s="15">
+      <c r="AM65" s="15">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AN64" s="15">
-        <v>1</v>
-      </c>
-      <c r="AO64" s="15">
+      <c r="AN65" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO65" s="15">
         <v>0.83</v>
       </c>
-      <c r="AP64" s="15">
+      <c r="AP65" s="15">
         <v>0.21</v>
       </c>
-      <c r="AQ64" s="15">
+      <c r="AQ65" s="15">
         <v>671</v>
       </c>
-      <c r="AR64" s="15">
+      <c r="AR65" s="15">
         <v>50</v>
       </c>
-      <c r="AS64" s="18">
+      <c r="AS65" s="18">
         <v>10.7</v>
       </c>
-      <c r="AT64" s="15">
+      <c r="AT65" s="15">
         <v>0.38</v>
       </c>
-      <c r="AU64" s="15">
+      <c r="AU65" s="15">
         <v>0.99</v>
       </c>
-      <c r="AV64" s="17">
-        <v>1</v>
-      </c>
-      <c r="AW64" s="18"/>
-    </row>
-    <row r="65" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
-        <v>2</v>
-      </c>
-      <c r="B65" s="6">
-        <v>67</v>
-      </c>
-      <c r="C65" s="6">
-        <v>2</v>
-      </c>
-      <c r="D65" s="6">
-        <f>D64+1</f>
-        <v>2</v>
-      </c>
-      <c r="E65" s="6">
-        <f t="shared" ref="E65:E77" si="32">E64+1</f>
-        <v>3</v>
-      </c>
-      <c r="F65" s="7">
-        <f>H64</f>
-        <v>6700610</v>
-      </c>
-      <c r="G65" s="7" t="str">
-        <f t="shared" ref="G65:G76" si="33">I64</f>
-        <v>Fort Bent Canal</v>
-      </c>
-      <c r="H65" s="7">
-        <v>6700613</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="J65" s="7">
-        <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="M65" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="N65" s="6">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="O65" s="6">
-        <v>49.3</v>
-      </c>
-      <c r="P65" s="6">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="Q65" s="31"/>
-      <c r="T65" s="6">
-        <v>7.4</v>
-      </c>
-      <c r="U65" s="6">
-        <v>5.6</v>
-      </c>
-      <c r="V65" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="W65" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y65" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC65" s="21"/>
-      <c r="AD65" s="21"/>
-      <c r="AE65" s="31"/>
-      <c r="AH65" s="6">
-        <v>9000</v>
-      </c>
-      <c r="AI65" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="AJ65" s="6">
-        <v>800</v>
-      </c>
-      <c r="AK65" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL65" s="6">
-        <v>32</v>
-      </c>
-      <c r="AM65" s="6">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AN65" s="6">
-        <v>1</v>
-      </c>
-      <c r="AO65" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="AP65" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="AQ65" s="6">
-        <v>671</v>
-      </c>
-      <c r="AR65" s="6">
-        <v>50</v>
-      </c>
-      <c r="AS65" s="22">
-        <v>10.7</v>
-      </c>
-      <c r="AT65" s="6">
-        <v>0.38</v>
-      </c>
-      <c r="AU65" s="6">
-        <v>0.99</v>
-      </c>
-      <c r="AV65" s="21">
-        <v>1</v>
-      </c>
-      <c r="AW65" s="22"/>
+      <c r="AV65" s="17">
+        <v>1</v>
+      </c>
+      <c r="AW65" s="18"/>
     </row>
     <row r="66" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
@@ -9318,62 +9260,68 @@
         <v>2</v>
       </c>
       <c r="D66" s="6">
-        <f t="shared" ref="D66:D76" si="34">D65+1</f>
+        <f>D65+1</f>
+        <v>2</v>
+      </c>
+      <c r="E66" s="6">
+        <f t="shared" ref="E66:E78" si="37">E65+1</f>
         <v>3</v>
       </c>
-      <c r="E66" s="6">
-        <f t="shared" si="32"/>
-        <v>4</v>
-      </c>
       <c r="F66" s="7">
-        <f t="shared" ref="F66:F76" si="35">H65</f>
+        <f>H65</f>
+        <v>6700610</v>
+      </c>
+      <c r="G66" s="7" t="str">
+        <f t="shared" ref="G66:G77" si="38">I65</f>
+        <v>Fort Bent Canal</v>
+      </c>
+      <c r="H66" s="7">
         <v>6700613</v>
       </c>
-      <c r="G66" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v>Keesee Ditch</v>
-      </c>
-      <c r="H66" s="31">
-        <v>6700607</v>
-      </c>
       <c r="I66" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J66" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>-1</v>
       </c>
       <c r="K66" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="L66" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="N66" s="6">
-        <v>15.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="O66" s="6">
-        <v>14</v>
+        <v>49.3</v>
       </c>
       <c r="P66" s="6">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="Q66" s="31"/>
+        <v>70.599999999999994</v>
+      </c>
+      <c r="Q66" s="30"/>
       <c r="T66" s="6">
-        <v>8.3000000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="U66" s="6">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="V66" s="6">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="W66" s="6">
         <v>1</v>
       </c>
       <c r="Y66" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AC66" s="21"/>
       <c r="AD66" s="21"/>
-      <c r="AE66" s="31"/>
+      <c r="AE66" s="30"/>
       <c r="AH66" s="6">
         <v>9000</v>
       </c>
@@ -9432,92 +9380,62 @@
         <v>2</v>
       </c>
       <c r="D67" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="D67:D77" si="39">D66+1</f>
+        <v>3</v>
+      </c>
+      <c r="E67" s="6">
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
-      <c r="E67" s="6">
-        <f t="shared" si="32"/>
-        <v>5</v>
-      </c>
       <c r="F67" s="7">
+        <f t="shared" ref="F67:F77" si="40">H66</f>
+        <v>6700613</v>
+      </c>
+      <c r="G67" s="7" t="str">
+        <f t="shared" si="38"/>
+        <v>Keesee Ditch</v>
+      </c>
+      <c r="H67" s="30">
+        <v>6700607</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="J67" s="7">
         <f t="shared" si="35"/>
-        <v>6700607</v>
-      </c>
-      <c r="G67" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v>Amity Canal</v>
-      </c>
-      <c r="H67" s="31">
-        <v>6700614</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="J67" s="7">
-        <f t="shared" si="30"/>
         <v>-1</v>
       </c>
       <c r="K67" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L67" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="M67" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="N67" s="6">
-        <v>69</v>
+        <v>15.6</v>
       </c>
       <c r="O67" s="6">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="P67" s="6">
-        <v>333</v>
-      </c>
-      <c r="Q67" s="31"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="Q67" s="30"/>
       <c r="T67" s="6">
-        <f>ROUND(AA67,1)</f>
-        <v>1.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="U67" s="6">
-        <f t="shared" ref="U67:U68" si="36">ROUND(AB67,1)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V67" s="20">
-        <f>ROUND(AC67,2)</f>
-        <v>0.06</v>
+        <v>6.2</v>
+      </c>
+      <c r="V67" s="6">
+        <v>0.35</v>
       </c>
       <c r="W67" s="6">
         <v>1</v>
       </c>
       <c r="Y67" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z67" s="6">
-        <v>48.6</v>
-      </c>
-      <c r="AA67" s="6">
-        <f>($Z67-$Z68)/($Z$67-$Z$69)*AD$67</f>
-        <v>1.4412665985699702</v>
-      </c>
-      <c r="AB67" s="6">
-        <f t="shared" ref="AB67:AB68" si="37">($Z67-$Z68)/($Z$67-$Z$69)*AE$67</f>
-        <v>1.1021450459652715</v>
-      </c>
-      <c r="AC67" s="21">
-        <f t="shared" ref="AC67:AC68" si="38">($Z67-$Z68)/($Z$67-$Z$69)*AF$67</f>
-        <v>5.9346271705822309E-2</v>
-      </c>
-      <c r="AD67" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="AE67" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="AF67" s="19">
-        <v>7.0000000000000007E-2</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="AC67" s="21"/>
+      <c r="AD67" s="21"/>
+      <c r="AE67" s="30"/>
       <c r="AH67" s="6">
         <v>9000</v>
       </c>
@@ -9565,261 +9483,286 @@
       </c>
       <c r="AW67" s="22"/>
     </row>
-    <row r="68" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="68" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
         <v>2</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="6">
         <v>67</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="6">
         <v>2</v>
       </c>
-      <c r="D68" s="3">
-        <f t="shared" si="34"/>
+      <c r="D68" s="6">
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
+      <c r="E68" s="6">
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
-      <c r="E68" s="3">
-        <f t="shared" si="32"/>
+      <c r="F68" s="7">
+        <f t="shared" si="40"/>
+        <v>6700607</v>
+      </c>
+      <c r="G68" s="7" t="str">
+        <f t="shared" si="38"/>
+        <v>Amity Canal</v>
+      </c>
+      <c r="H68" s="30">
+        <v>6700614</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J68" s="7">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N68" s="6">
+        <v>69</v>
+      </c>
+      <c r="O68" s="6">
+        <v>271</v>
+      </c>
+      <c r="P68" s="6">
+        <v>333</v>
+      </c>
+      <c r="Q68" s="30"/>
+      <c r="T68" s="6">
+        <f>ROUND(AA68,1)</f>
+        <v>1.4</v>
+      </c>
+      <c r="U68" s="6">
+        <f t="shared" ref="U68:U69" si="41">ROUND(AB68,1)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V68" s="20">
+        <f>ROUND(AC68,2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="W68" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z68" s="6">
+        <v>48.6</v>
+      </c>
+      <c r="AA68" s="6">
+        <f>($Z68-$Z69)/($Z$68-$Z$70)*AD$68</f>
+        <v>1.4412665985699702</v>
+      </c>
+      <c r="AB68" s="6">
+        <f t="shared" ref="AB68:AB69" si="42">($Z68-$Z69)/($Z$68-$Z$70)*AE$68</f>
+        <v>1.1021450459652715</v>
+      </c>
+      <c r="AC68" s="21">
+        <f t="shared" ref="AC68:AC69" si="43">($Z68-$Z69)/($Z$68-$Z$70)*AF$68</f>
+        <v>5.9346271705822309E-2</v>
+      </c>
+      <c r="AD68" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="AE68" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="AF68" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AH68" s="6">
+        <v>9000</v>
+      </c>
+      <c r="AI68" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="AJ68" s="6">
+        <v>800</v>
+      </c>
+      <c r="AK68" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL68" s="6">
+        <v>32</v>
+      </c>
+      <c r="AM68" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AN68" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO68" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="AP68" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="AQ68" s="6">
+        <v>671</v>
+      </c>
+      <c r="AR68" s="6">
+        <v>50</v>
+      </c>
+      <c r="AS68" s="22">
+        <v>10.7</v>
+      </c>
+      <c r="AT68" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="AU68" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="AV68" s="21">
+        <v>1</v>
+      </c>
+      <c r="AW68" s="22"/>
+    </row>
+    <row r="69" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>2</v>
+      </c>
+      <c r="B69" s="3">
+        <v>67</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" si="39"/>
+        <v>5</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F69" s="4">
+        <f t="shared" si="40"/>
+        <v>6700614</v>
+      </c>
+      <c r="G69" s="4" t="str">
+        <f t="shared" si="38"/>
+        <v>Lamar Ditch</v>
+      </c>
+      <c r="H69" s="26">
+        <v>6709500</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J69" s="4">
         <f t="shared" si="35"/>
-        <v>6700614</v>
-      </c>
-      <c r="G68" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>Lamar Ditch</v>
-      </c>
-      <c r="H68" s="27">
-        <v>6709500</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J68" s="4">
-        <f t="shared" si="30"/>
         <v>-1</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K69" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L68" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="M68" s="3" t="s">
+      <c r="L69" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M69" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N68" s="3">
+      <c r="N69" s="3">
         <v>33.9</v>
       </c>
-      <c r="O68" s="3">
+      <c r="O69" s="3">
         <v>161</v>
       </c>
-      <c r="P68" s="3">
+      <c r="P69" s="3">
         <v>189</v>
       </c>
-      <c r="Q68" s="27"/>
-      <c r="T68" s="3">
-        <f t="shared" ref="T68" si="39">ROUND(AA68,1)</f>
+      <c r="Q69" s="26"/>
+      <c r="T69" s="3">
+        <f t="shared" ref="T69" si="44">ROUND(AA69,1)</f>
         <v>0.3</v>
       </c>
-      <c r="U68" s="3">
-        <f t="shared" si="36"/>
+      <c r="U69" s="3">
+        <f t="shared" si="41"/>
         <v>0.2</v>
       </c>
-      <c r="V68" s="5">
-        <f>ROUND(AC68,2)</f>
+      <c r="V69" s="5">
+        <f>ROUND(AC69,2)</f>
         <v>0.01</v>
       </c>
-      <c r="W68" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y68" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z68" s="3">
+      <c r="W69" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z69" s="3">
         <v>40.299999999999997</v>
       </c>
-      <c r="AA68" s="3">
-        <f t="shared" ref="AA68" si="40">($Z68-$Z69)/($Z$67-$Z$69)*AD$67</f>
+      <c r="AA69" s="3">
+        <f t="shared" ref="AA69" si="45">($Z69-$Z70)/($Z$68-$Z$70)*AD$68</f>
         <v>0.25873340143002976</v>
       </c>
-      <c r="AB68" s="3">
-        <f t="shared" si="37"/>
+      <c r="AB69" s="3">
+        <f t="shared" si="42"/>
         <v>0.19785495403472866</v>
       </c>
-      <c r="AC68" s="5">
-        <f t="shared" si="38"/>
+      <c r="AC69" s="5">
+        <f t="shared" si="43"/>
         <v>1.0653728294177699E-2</v>
       </c>
-      <c r="AD68" s="5"/>
-      <c r="AE68" s="27"/>
-      <c r="AH68" s="3">
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="26"/>
+      <c r="AH69" s="3">
         <v>9000</v>
       </c>
-      <c r="AI68" s="3">
+      <c r="AI69" s="3">
         <v>0.18</v>
       </c>
-      <c r="AJ68" s="3">
+      <c r="AJ69" s="3">
         <v>800</v>
       </c>
-      <c r="AK68" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL68" s="3">
+      <c r="AK69" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL69" s="3">
         <v>32</v>
       </c>
-      <c r="AM68" s="3">
+      <c r="AM69" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AN68" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO68" s="3">
+      <c r="AN69" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO69" s="3">
         <v>0.83</v>
       </c>
-      <c r="AP68" s="3">
+      <c r="AP69" s="3">
         <v>0.21</v>
       </c>
-      <c r="AQ68" s="3">
+      <c r="AQ69" s="3">
         <v>671</v>
       </c>
-      <c r="AR68" s="3">
+      <c r="AR69" s="3">
         <v>50</v>
       </c>
-      <c r="AS68" s="13">
+      <c r="AS69" s="13">
         <v>10.7</v>
       </c>
-      <c r="AT68" s="3">
+      <c r="AT69" s="3">
         <v>0.38</v>
       </c>
-      <c r="AU68" s="3">
+      <c r="AU69" s="3">
         <v>0.99</v>
       </c>
-      <c r="AV68" s="5">
-        <v>1</v>
-      </c>
-      <c r="AW68" s="13"/>
-    </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>2</v>
-      </c>
-      <c r="B69">
-        <v>67</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="32"/>
-        <v>7</v>
-      </c>
-      <c r="F69" s="2">
-        <f t="shared" si="35"/>
-        <v>6709500</v>
-      </c>
-      <c r="G69" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>Arkansas River at Lamar</v>
-      </c>
-      <c r="H69" s="30">
-        <v>6700612</v>
-      </c>
-      <c r="I69" t="s">
-        <v>162</v>
-      </c>
-      <c r="J69" s="7">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K69" t="s">
-        <v>34</v>
-      </c>
-      <c r="L69" t="s">
-        <v>148</v>
-      </c>
-      <c r="M69" t="s">
-        <v>88</v>
-      </c>
-      <c r="N69">
-        <v>16.8</v>
-      </c>
-      <c r="O69">
-        <v>69</v>
-      </c>
-      <c r="P69">
-        <v>307</v>
-      </c>
-      <c r="T69">
-        <v>3.1</v>
-      </c>
-      <c r="U69">
-        <v>2</v>
-      </c>
-      <c r="V69" s="19">
-        <v>0.13</v>
-      </c>
-      <c r="W69">
-        <v>1</v>
-      </c>
-      <c r="X69"/>
-      <c r="Y69" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z69">
-        <v>38.81</v>
-      </c>
-      <c r="AD69" s="1"/>
-      <c r="AH69">
-        <v>17500</v>
-      </c>
-      <c r="AI69">
-        <v>0.18</v>
-      </c>
-      <c r="AJ69">
-        <v>1000</v>
-      </c>
-      <c r="AK69">
-        <v>1</v>
-      </c>
-      <c r="AL69">
-        <v>32</v>
-      </c>
-      <c r="AM69">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AN69">
-        <v>1</v>
-      </c>
-      <c r="AO69">
-        <v>0.83</v>
-      </c>
-      <c r="AP69">
-        <v>0.21</v>
-      </c>
-      <c r="AQ69">
-        <v>673</v>
-      </c>
-      <c r="AR69">
-        <v>50</v>
-      </c>
-      <c r="AS69" s="18">
-        <v>29.7</v>
-      </c>
-      <c r="AT69">
-        <v>0.38</v>
-      </c>
-      <c r="AU69">
-        <v>0.99</v>
-      </c>
-      <c r="AV69" s="1">
-        <v>1</v>
-      </c>
+      <c r="AV69" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW69" s="13"/>
     </row>
     <row r="70" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -9832,64 +9775,66 @@
         <v>3</v>
       </c>
       <c r="D70">
-        <f t="shared" si="34"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <f t="shared" si="32"/>
-        <v>8</v>
+        <f t="shared" si="37"/>
+        <v>7</v>
       </c>
       <c r="F70" s="2">
+        <f t="shared" si="40"/>
+        <v>6709500</v>
+      </c>
+      <c r="G70" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>Arkansas River at Lamar</v>
+      </c>
+      <c r="H70" s="29">
+        <v>6700612</v>
+      </c>
+      <c r="I70" t="s">
+        <v>158</v>
+      </c>
+      <c r="J70" s="7">
         <f t="shared" si="35"/>
-        <v>6700612</v>
-      </c>
-      <c r="G70" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>Hyde Ditch</v>
-      </c>
-      <c r="H70" s="30">
-        <v>6709502</v>
-      </c>
-      <c r="I70" t="s">
-        <v>155</v>
-      </c>
-      <c r="J70" s="7">
-        <f t="shared" si="30"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L70" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M70" t="s">
         <v>88</v>
       </c>
       <c r="N70">
-        <v>2.2999999999999998</v>
+        <v>16.8</v>
       </c>
       <c r="O70">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="P70">
-        <v>11.3</v>
+        <v>307</v>
       </c>
       <c r="T70">
-        <v>9.6</v>
+        <v>3.1</v>
       </c>
       <c r="U70">
-        <v>6.2</v>
+        <v>2</v>
       </c>
       <c r="V70" s="19">
-        <v>0.39</v>
+        <v>0.13</v>
       </c>
       <c r="W70">
         <v>1</v>
       </c>
       <c r="X70"/>
       <c r="Y70" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="Z70">
+        <v>38.81</v>
       </c>
       <c r="AD70" s="1"/>
       <c r="AH70">
@@ -9925,7 +9870,7 @@
       <c r="AR70">
         <v>50</v>
       </c>
-      <c r="AS70" s="14">
+      <c r="AS70" s="18">
         <v>29.7</v>
       </c>
       <c r="AT70">
@@ -9949,64 +9894,64 @@
         <v>3</v>
       </c>
       <c r="D71">
-        <f t="shared" si="34"/>
-        <v>3</v>
+        <f t="shared" si="39"/>
+        <v>2</v>
       </c>
       <c r="E71">
-        <f t="shared" si="32"/>
-        <v>9</v>
+        <f t="shared" si="37"/>
+        <v>8</v>
       </c>
       <c r="F71" s="2">
+        <f t="shared" si="40"/>
+        <v>6700612</v>
+      </c>
+      <c r="G71" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>Hyde Ditch</v>
+      </c>
+      <c r="H71" s="29">
+        <v>6709502</v>
+      </c>
+      <c r="I71" t="s">
+        <v>151</v>
+      </c>
+      <c r="J71" s="7">
         <f t="shared" si="35"/>
-        <v>6709502</v>
-      </c>
-      <c r="G71" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>Big Sandy Creek</v>
-      </c>
-      <c r="H71" s="30">
-        <v>6700617</v>
-      </c>
-      <c r="I71" t="s">
-        <v>163</v>
-      </c>
-      <c r="J71" s="7">
-        <f t="shared" si="30"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L71" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="M71" t="s">
         <v>88</v>
       </c>
       <c r="N71">
-        <v>29.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="O71">
-        <v>23.8</v>
+        <v>9</v>
       </c>
       <c r="P71">
-        <v>15.5</v>
+        <v>11.3</v>
       </c>
       <c r="T71">
-        <v>3.7</v>
+        <v>9.6</v>
       </c>
       <c r="U71">
-        <v>2.4</v>
+        <v>6.2</v>
       </c>
       <c r="V71" s="19">
-        <v>0.16</v>
+        <v>0.39</v>
       </c>
       <c r="W71">
         <v>1</v>
       </c>
       <c r="X71"/>
       <c r="Y71" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AD71" s="1"/>
       <c r="AH71">
@@ -10066,58 +10011,64 @@
         <v>3</v>
       </c>
       <c r="D72">
-        <f t="shared" si="34"/>
-        <v>4</v>
+        <f t="shared" si="39"/>
+        <v>3</v>
       </c>
       <c r="E72">
-        <f t="shared" si="32"/>
-        <v>10</v>
+        <f t="shared" si="37"/>
+        <v>9</v>
       </c>
       <c r="F72" s="2">
+        <f t="shared" si="40"/>
+        <v>6709502</v>
+      </c>
+      <c r="G72" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>Big Sandy Creek</v>
+      </c>
+      <c r="H72" s="29">
+        <v>6700617</v>
+      </c>
+      <c r="I72" t="s">
+        <v>159</v>
+      </c>
+      <c r="J72" s="7">
         <f t="shared" si="35"/>
-        <v>6700617</v>
-      </c>
-      <c r="G72" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>XY Canal</v>
-      </c>
-      <c r="H72" s="30">
-        <v>6700608</v>
-      </c>
-      <c r="I72" t="s">
-        <v>164</v>
-      </c>
-      <c r="J72" s="7">
-        <f t="shared" si="30"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="L72" t="s">
+        <v>163</v>
+      </c>
+      <c r="M72" t="s">
+        <v>88</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="T72">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
       <c r="U72">
-        <v>4.4000000000000004</v>
+        <v>2.4</v>
       </c>
       <c r="V72" s="19">
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
       <c r="W72">
         <v>1</v>
       </c>
       <c r="X72"/>
       <c r="Y72" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AD72" s="1"/>
       <c r="AH72">
@@ -10177,64 +10128,58 @@
         <v>3</v>
       </c>
       <c r="D73">
-        <f t="shared" si="34"/>
-        <v>5</v>
+        <f t="shared" si="39"/>
+        <v>4</v>
       </c>
       <c r="E73">
-        <f t="shared" si="32"/>
-        <v>11</v>
+        <f t="shared" si="37"/>
+        <v>10</v>
       </c>
       <c r="F73" s="2">
+        <f t="shared" si="40"/>
+        <v>6700617</v>
+      </c>
+      <c r="G73" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>XY Canal</v>
+      </c>
+      <c r="H73" s="29">
+        <v>6700608</v>
+      </c>
+      <c r="I73" t="s">
+        <v>160</v>
+      </c>
+      <c r="J73" s="7">
         <f t="shared" si="35"/>
-        <v>6700608</v>
-      </c>
-      <c r="G73" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>Buffalo Canal</v>
-      </c>
-      <c r="H73" s="30">
-        <v>6700904</v>
-      </c>
-      <c r="I73" t="s">
-        <v>156</v>
-      </c>
-      <c r="J73" s="7">
-        <f t="shared" si="30"/>
         <v>-1</v>
       </c>
       <c r="K73" t="s">
         <v>33</v>
       </c>
-      <c r="L73" t="s">
-        <v>150</v>
-      </c>
-      <c r="M73" t="s">
-        <v>88</v>
-      </c>
       <c r="N73">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="O73">
-        <v>27.6</v>
+        <v>0</v>
       </c>
       <c r="P73">
-        <v>56.7</v>
+        <v>0</v>
       </c>
       <c r="T73">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="U73">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="V73" s="19">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="W73">
         <v>1</v>
       </c>
       <c r="X73"/>
       <c r="Y73" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AD73" s="1"/>
       <c r="AH73">
@@ -10283,517 +10228,589 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="15">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>2</v>
       </c>
-      <c r="B74" s="15">
+      <c r="B74">
         <v>67</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="39"/>
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="37"/>
+        <v>11</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="40"/>
+        <v>6700608</v>
+      </c>
+      <c r="G74" s="2" t="str">
+        <f t="shared" si="38"/>
+        <v>Buffalo Canal</v>
+      </c>
+      <c r="H74" s="29">
+        <v>6700904</v>
+      </c>
+      <c r="I74" t="s">
+        <v>152</v>
+      </c>
+      <c r="J74" s="7">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>33</v>
+      </c>
+      <c r="L74" t="s">
+        <v>146</v>
+      </c>
+      <c r="M74" t="s">
+        <v>88</v>
+      </c>
+      <c r="N74">
+        <v>21.4</v>
+      </c>
+      <c r="O74">
+        <v>27.6</v>
+      </c>
+      <c r="P74">
+        <v>56.7</v>
+      </c>
+      <c r="T74">
+        <v>1.5</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+      <c r="V74" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="X74"/>
+      <c r="Y74" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD74" s="1"/>
+      <c r="AH74">
+        <v>17500</v>
+      </c>
+      <c r="AI74">
+        <v>0.18</v>
+      </c>
+      <c r="AJ74">
+        <v>1000</v>
+      </c>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AL74">
+        <v>32</v>
+      </c>
+      <c r="AM74">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
+        <v>0.83</v>
+      </c>
+      <c r="AP74">
+        <v>0.21</v>
+      </c>
+      <c r="AQ74">
+        <v>673</v>
+      </c>
+      <c r="AR74">
+        <v>50</v>
+      </c>
+      <c r="AS74" s="14">
+        <v>29.7</v>
+      </c>
+      <c r="AT74">
+        <v>0.38</v>
+      </c>
+      <c r="AU74">
+        <v>0.99</v>
+      </c>
+      <c r="AV74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15">
+        <v>2</v>
+      </c>
+      <c r="B75" s="15">
+        <v>67</v>
+      </c>
+      <c r="C75" s="15">
         <v>4</v>
       </c>
-      <c r="D74" s="15">
-        <v>1</v>
-      </c>
-      <c r="E74" s="15">
-        <f t="shared" si="32"/>
+      <c r="D75" s="15">
+        <v>1</v>
+      </c>
+      <c r="E75" s="15">
+        <f t="shared" si="37"/>
         <v>12</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F75" s="16">
+        <f t="shared" si="40"/>
+        <v>6700904</v>
+      </c>
+      <c r="G75" s="16" t="str">
+        <f t="shared" si="38"/>
+        <v>Arkansas River at Granada</v>
+      </c>
+      <c r="H75" s="28">
+        <v>6700616</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J75" s="16">
         <f t="shared" si="35"/>
-        <v>6700904</v>
-      </c>
-      <c r="G74" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>Arkansas River at Granada</v>
-      </c>
-      <c r="H74" s="29">
+        <v>0</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L75" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M75" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N75" s="15">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="O75" s="15">
+        <v>148</v>
+      </c>
+      <c r="P75" s="15">
+        <v>329</v>
+      </c>
+      <c r="Q75" s="28"/>
+      <c r="T75" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="U75" s="15">
+        <v>6</v>
+      </c>
+      <c r="V75" s="15">
+        <v>0.36</v>
+      </c>
+      <c r="W75" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC75" s="17"/>
+      <c r="AD75" s="17"/>
+      <c r="AE75" s="28"/>
+      <c r="AH75" s="15">
+        <v>17500</v>
+      </c>
+      <c r="AI75" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="AJ75" s="15">
+        <v>1000</v>
+      </c>
+      <c r="AK75" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL75" s="15">
+        <v>32</v>
+      </c>
+      <c r="AM75" s="15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AN75" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO75" s="15">
+        <v>0.83</v>
+      </c>
+      <c r="AP75" s="15">
+        <v>0.21</v>
+      </c>
+      <c r="AQ75" s="15">
+        <v>674</v>
+      </c>
+      <c r="AR75" s="15">
+        <v>50</v>
+      </c>
+      <c r="AS75" s="18">
+        <v>12.4</v>
+      </c>
+      <c r="AT75" s="15">
+        <v>0.38</v>
+      </c>
+      <c r="AU75" s="15">
+        <v>0.99</v>
+      </c>
+      <c r="AV75" s="17">
+        <v>1</v>
+      </c>
+      <c r="AW75" s="18"/>
+    </row>
+    <row r="76" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>2</v>
+      </c>
+      <c r="B76" s="6">
+        <v>67</v>
+      </c>
+      <c r="C76" s="6">
+        <v>4</v>
+      </c>
+      <c r="D76" s="6">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+      <c r="E76" s="6">
+        <f t="shared" si="37"/>
+        <v>13</v>
+      </c>
+      <c r="F76" s="7">
+        <f t="shared" si="40"/>
         <v>6700616</v>
       </c>
-      <c r="I74" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="J74" s="16">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="15" t="s">
+      <c r="G76" s="7" t="str">
+        <f t="shared" si="38"/>
+        <v>Sisson Canal</v>
+      </c>
+      <c r="H76" s="7">
+        <v>6709511</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J76" s="7">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N76" s="6">
+        <v>0</v>
+      </c>
+      <c r="O76" s="6">
+        <v>0</v>
+      </c>
+      <c r="P76" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="30"/>
+      <c r="T76" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="U76" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="V76" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="W76" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC76" s="21"/>
+      <c r="AD76" s="21"/>
+      <c r="AE76" s="30"/>
+      <c r="AH76" s="6">
+        <v>17500</v>
+      </c>
+      <c r="AI76" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="AJ76" s="6">
+        <v>1000</v>
+      </c>
+      <c r="AK76" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL76" s="6">
+        <v>32</v>
+      </c>
+      <c r="AM76" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AN76" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO76" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="AP76" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="AQ76" s="6">
+        <v>674</v>
+      </c>
+      <c r="AR76" s="6">
+        <v>50</v>
+      </c>
+      <c r="AS76" s="22">
+        <v>12.4</v>
+      </c>
+      <c r="AT76" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="AU76" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="AV76" s="21">
+        <v>1</v>
+      </c>
+      <c r="AW76" s="22"/>
+    </row>
+    <row r="77" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>2</v>
+      </c>
+      <c r="B77" s="3">
+        <v>67</v>
+      </c>
+      <c r="C77" s="3">
+        <v>4</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="E77" s="3">
+        <f t="shared" si="37"/>
+        <v>14</v>
+      </c>
+      <c r="F77" s="4">
+        <f t="shared" si="40"/>
+        <v>6709511</v>
+      </c>
+      <c r="G77" s="4" t="str">
+        <f t="shared" si="38"/>
+        <v>Frontier Ditch, KS</v>
+      </c>
+      <c r="H77" s="4">
+        <v>6709510</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J77" s="4">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="P77" s="3">
+        <v>35.4</v>
+      </c>
+      <c r="Q77" s="26"/>
+      <c r="T77" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="U77" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="W77" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="26"/>
+      <c r="AH77" s="3">
+        <v>17500</v>
+      </c>
+      <c r="AI77" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="AJ77" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AK77" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL77" s="3">
+        <v>32</v>
+      </c>
+      <c r="AM77" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AN77" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO77" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="AP77" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="AQ77" s="3">
+        <v>674</v>
+      </c>
+      <c r="AR77" s="3">
+        <v>50</v>
+      </c>
+      <c r="AS77" s="13">
+        <v>12.4</v>
+      </c>
+      <c r="AT77" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="AU77" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="AV77" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW77" s="13"/>
+    </row>
+    <row r="78" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>67</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="37"/>
+        <v>15</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" ref="F78" si="46">H77</f>
+        <v>6709510</v>
+      </c>
+      <c r="G78" s="2" t="str">
+        <f t="shared" ref="G78" si="47">I77</f>
+        <v>Arkansas River at Coolidge</v>
+      </c>
+      <c r="H78" s="2">
+        <v>6709999</v>
+      </c>
+      <c r="I78" t="s">
+        <v>164</v>
+      </c>
+      <c r="J78" s="7">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
         <v>34</v>
       </c>
-      <c r="L74" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="M74" s="15" t="s">
+      <c r="L78" t="s">
+        <v>149</v>
+      </c>
+      <c r="M78" t="s">
         <v>88</v>
       </c>
-      <c r="N74" s="15">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="O74" s="15">
-        <v>148</v>
-      </c>
-      <c r="P74" s="15">
-        <v>329</v>
-      </c>
-      <c r="Q74" s="29"/>
-      <c r="T74" s="15">
-        <v>7.5</v>
-      </c>
-      <c r="U74" s="15">
-        <v>6</v>
-      </c>
-      <c r="V74" s="15">
-        <v>0.36</v>
-      </c>
-      <c r="W74" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y74" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC74" s="17"/>
-      <c r="AD74" s="17"/>
-      <c r="AE74" s="29"/>
-      <c r="AH74" s="15">
+      <c r="N78">
+        <v>157</v>
+      </c>
+      <c r="O78">
+        <v>313</v>
+      </c>
+      <c r="P78">
+        <v>451</v>
+      </c>
+      <c r="T78" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="U78" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="V78" s="1">
+        <v>1</v>
+      </c>
+      <c r="W78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH78">
         <v>17500</v>
       </c>
-      <c r="AI74" s="15">
+      <c r="AI78">
         <v>0.18</v>
       </c>
-      <c r="AJ74" s="15">
+      <c r="AJ78">
         <v>1000</v>
       </c>
-      <c r="AK74" s="15">
-        <v>1</v>
-      </c>
-      <c r="AL74" s="15">
+      <c r="AK78">
+        <v>1</v>
+      </c>
+      <c r="AL78">
         <v>32</v>
       </c>
-      <c r="AM74" s="15">
+      <c r="AM78">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AN74" s="15">
-        <v>1</v>
-      </c>
-      <c r="AO74" s="15">
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>0.83</v>
       </c>
-      <c r="AP74" s="15">
+      <c r="AP78">
         <v>0.21</v>
       </c>
-      <c r="AQ74" s="15">
+      <c r="AQ78">
         <v>674</v>
       </c>
-      <c r="AR74" s="15">
+      <c r="AR78">
         <v>50</v>
       </c>
-      <c r="AS74" s="18">
-        <v>12.4</v>
-      </c>
-      <c r="AT74" s="15">
+      <c r="AS78" s="16">
+        <v>-999</v>
+      </c>
+      <c r="AT78">
         <v>0.38</v>
       </c>
-      <c r="AU74" s="15">
+      <c r="AU78">
         <v>0.99</v>
       </c>
-      <c r="AV74" s="17">
-        <v>1</v>
-      </c>
-      <c r="AW74" s="18"/>
-    </row>
-    <row r="75" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
-        <v>2</v>
-      </c>
-      <c r="B75" s="6">
-        <v>67</v>
-      </c>
-      <c r="C75" s="6">
-        <v>4</v>
-      </c>
-      <c r="D75" s="6">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="E75" s="6">
-        <f t="shared" si="32"/>
-        <v>13</v>
-      </c>
-      <c r="F75" s="7">
-        <f t="shared" si="35"/>
-        <v>6700616</v>
-      </c>
-      <c r="G75" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v>Sisson Canal</v>
-      </c>
-      <c r="H75" s="7">
-        <v>6709511</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J75" s="7">
-        <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N75" s="6">
-        <v>0</v>
-      </c>
-      <c r="O75" s="6">
-        <v>0</v>
-      </c>
-      <c r="P75" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="31"/>
-      <c r="T75" s="6">
-        <v>9.1</v>
-      </c>
-      <c r="U75" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="V75" s="19">
-        <v>0.43</v>
-      </c>
-      <c r="W75" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y75" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC75" s="21"/>
-      <c r="AD75" s="21"/>
-      <c r="AE75" s="31"/>
-      <c r="AH75" s="6">
-        <v>17500</v>
-      </c>
-      <c r="AI75" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="AJ75" s="6">
-        <v>1000</v>
-      </c>
-      <c r="AK75" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL75" s="6">
-        <v>32</v>
-      </c>
-      <c r="AM75" s="6">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AN75" s="6">
-        <v>1</v>
-      </c>
-      <c r="AO75" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="AP75" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="AQ75" s="6">
-        <v>674</v>
-      </c>
-      <c r="AR75" s="6">
-        <v>50</v>
-      </c>
-      <c r="AS75" s="22">
-        <v>12.4</v>
-      </c>
-      <c r="AT75" s="6">
-        <v>0.38</v>
-      </c>
-      <c r="AU75" s="6">
-        <v>0.99</v>
-      </c>
-      <c r="AV75" s="21">
-        <v>1</v>
-      </c>
-      <c r="AW75" s="22"/>
-    </row>
-    <row r="76" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>2</v>
-      </c>
-      <c r="B76" s="3">
-        <v>67</v>
-      </c>
-      <c r="C76" s="3">
-        <v>4</v>
-      </c>
-      <c r="D76" s="3">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-      <c r="E76" s="3">
-        <f t="shared" si="32"/>
-        <v>14</v>
-      </c>
-      <c r="F76" s="4">
-        <f t="shared" si="35"/>
-        <v>6709511</v>
-      </c>
-      <c r="G76" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>Frontier Ditch, KS</v>
-      </c>
-      <c r="H76" s="4">
-        <v>6709510</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J76" s="4">
-        <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="P76" s="3">
-        <v>35.4</v>
-      </c>
-      <c r="Q76" s="27"/>
-      <c r="T76" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="U76" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="V76" s="3">
-        <v>0.21</v>
-      </c>
-      <c r="W76" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y76" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC76" s="5"/>
-      <c r="AD76" s="5"/>
-      <c r="AE76" s="27"/>
-      <c r="AH76" s="3">
-        <v>17500</v>
-      </c>
-      <c r="AI76" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="AJ76" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AK76" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL76" s="3">
-        <v>32</v>
-      </c>
-      <c r="AM76" s="3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AN76" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO76" s="3">
-        <v>0.83</v>
-      </c>
-      <c r="AP76" s="3">
-        <v>0.21</v>
-      </c>
-      <c r="AQ76" s="3">
-        <v>674</v>
-      </c>
-      <c r="AR76" s="3">
-        <v>50</v>
-      </c>
-      <c r="AS76" s="13">
-        <v>12.4</v>
-      </c>
-      <c r="AT76" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="AU76" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="AV76" s="5">
-        <v>1</v>
-      </c>
-      <c r="AW76" s="13"/>
-    </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>2</v>
-      </c>
-      <c r="B77">
-        <v>67</v>
-      </c>
-      <c r="C77">
-        <v>5</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="32"/>
-        <v>15</v>
-      </c>
-      <c r="F77" s="2">
-        <f t="shared" ref="F77" si="41">H76</f>
-        <v>6709510</v>
-      </c>
-      <c r="G77" s="2" t="str">
-        <f t="shared" ref="G77" si="42">I76</f>
-        <v>Arkansas River at Coolidge</v>
-      </c>
-      <c r="H77" s="2">
-        <v>6709999</v>
-      </c>
-      <c r="I77" t="s">
-        <v>168</v>
-      </c>
-      <c r="J77" s="7">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K77" t="s">
-        <v>34</v>
-      </c>
-      <c r="L77" t="s">
-        <v>153</v>
-      </c>
-      <c r="M77" t="s">
-        <v>88</v>
-      </c>
-      <c r="N77">
-        <v>157</v>
-      </c>
-      <c r="O77">
-        <v>313</v>
-      </c>
-      <c r="P77">
-        <v>451</v>
-      </c>
-      <c r="T77" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="U77" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="V77" s="1">
-        <v>1</v>
-      </c>
-      <c r="W77" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH77">
-        <v>17500</v>
-      </c>
-      <c r="AI77">
-        <v>0.18</v>
-      </c>
-      <c r="AJ77">
-        <v>1000</v>
-      </c>
-      <c r="AK77">
-        <v>1</v>
-      </c>
-      <c r="AL77">
-        <v>32</v>
-      </c>
-      <c r="AM77">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AN77">
-        <v>1</v>
-      </c>
-      <c r="AO77">
-        <v>0.83</v>
-      </c>
-      <c r="AP77">
-        <v>0.21</v>
-      </c>
-      <c r="AQ77">
-        <v>674</v>
-      </c>
-      <c r="AR77">
-        <v>50</v>
-      </c>
-      <c r="AS77" s="16">
-        <v>-999</v>
-      </c>
-      <c r="AT77">
-        <v>0.38</v>
-      </c>
-      <c r="AU77">
-        <v>0.99</v>
-      </c>
-      <c r="AV77" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="I79" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
-      <c r="O79"/>
-      <c r="P79"/>
-      <c r="Q79" s="28"/>
-      <c r="V79"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79"/>
-      <c r="Z79"/>
-      <c r="AA79"/>
-      <c r="AB79"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="30"/>
-      <c r="AE79" s="30"/>
-      <c r="AF79"/>
-      <c r="AG79"/>
-      <c r="AH79"/>
-      <c r="AI79"/>
-      <c r="AJ79"/>
-      <c r="AK79"/>
-      <c r="AL79"/>
-      <c r="AM79"/>
-      <c r="AN79"/>
-      <c r="AO79"/>
-      <c r="AP79"/>
-      <c r="AQ79"/>
-      <c r="AR79"/>
-      <c r="AT79"/>
-      <c r="AU79"/>
-      <c r="AV79" s="1"/>
-      <c r="AW79" s="14"/>
+      <c r="AV78" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11706,7 +11723,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11726,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11740,7 +11757,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11754,7 +11771,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -11768,7 +11785,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11782,7 +11799,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11796,7 +11813,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -11810,7 +11827,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -11824,7 +11841,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -11838,7 +11855,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -11846,13 +11863,13 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -11863,10 +11880,10 @@
         <v>172</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -11880,7 +11897,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -11894,7 +11911,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -11908,7 +11925,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -11922,7 +11939,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -11936,7 +11953,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -11950,7 +11967,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -11964,7 +11981,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -11978,7 +11995,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -11992,7 +12009,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -12006,7 +12023,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -12033,21 +12050,21 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>195</v>
+        <v>173</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C2">
         <v>29</v>
@@ -12058,7 +12075,7 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -12069,7 +12086,7 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -12080,7 +12097,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C5">
         <v>27</v>
@@ -12089,33 +12106,33 @@
         <v>1.7</v>
       </c>
       <c r="I5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>194</v>
+        <v>188</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>190</v>
       </c>
       <c r="I6" t="s">
         <v>95</v>
       </c>
       <c r="J6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -12128,7 +12145,7 @@
       <c r="K7">
         <v>1.9400000000000001E-3</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="29">
         <f>K7*5280</f>
         <v>10.2432</v>
       </c>
@@ -12139,10 +12156,10 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" t="s">
         <v>179</v>
-      </c>
-      <c r="D8" t="s">
-        <v>183</v>
       </c>
       <c r="E8">
         <f>C4*D13+E13</f>
@@ -12157,7 +12174,7 @@
       <c r="K8">
         <v>1.9400000000000001E-3</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="29">
         <f t="shared" ref="L8:L14" si="1">K8*5280</f>
         <v>10.2432</v>
       </c>
@@ -12168,10 +12185,10 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" t="s">
         <v>180</v>
-      </c>
-      <c r="D9" t="s">
-        <v>184</v>
       </c>
       <c r="E9">
         <f>C5*D13+E13</f>
@@ -12186,7 +12203,7 @@
       <c r="K9">
         <v>1.2600000000000001E-3</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="29">
         <f t="shared" si="1"/>
         <v>6.6528</v>
       </c>
@@ -12197,13 +12214,13 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
         <v>181</v>
       </c>
-      <c r="D10" t="s">
-        <v>185</v>
-      </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I10">
         <v>17</v>
@@ -12214,7 +12231,7 @@
       <c r="K10">
         <v>1.24E-3</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="29">
         <f t="shared" si="1"/>
         <v>6.5472000000000001</v>
       </c>
@@ -12225,7 +12242,7 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I11">
         <v>17</v>
@@ -12236,7 +12253,7 @@
       <c r="K11">
         <v>1.2600000000000001E-3</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="29">
         <f t="shared" si="1"/>
         <v>6.6528</v>
       </c>
@@ -12247,10 +12264,10 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I12">
         <v>17</v>
@@ -12261,7 +12278,7 @@
       <c r="K12">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="29">
         <f t="shared" si="1"/>
         <v>6.3359999999999994</v>
       </c>
@@ -12288,7 +12305,7 @@
       <c r="K13">
         <v>1.0499999999999999E-3</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="29">
         <f t="shared" si="1"/>
         <v>5.5439999999999996</v>
       </c>
@@ -12307,7 +12324,7 @@
       <c r="K14">
         <v>9.8999999999999999E-4</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="29">
         <f t="shared" si="1"/>
         <v>5.2271999999999998</v>
       </c>
@@ -12318,7 +12335,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -12345,7 +12362,7 @@
         <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/matlab/StateTL_inputdata.xlsx
+++ b/matlab/StateTL_inputdata.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="211">
   <si>
     <t>Reach</t>
   </si>
@@ -664,6 +664,9 @@
   </si>
   <si>
     <t>should probably stub out</t>
+  </si>
+  <si>
+    <t>URFThreshold</t>
   </si>
 </sst>
 </file>
@@ -1105,13 +1108,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW78"/>
+  <dimension ref="A1:AX78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AQ1" sqref="AQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,15 +1152,16 @@
     <col min="38" max="39" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="5.5703125" customWidth="1"/>
     <col min="41" max="42" width="9" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4.7109375" customWidth="1"/>
-    <col min="44" max="44" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="6.28515625" customWidth="1"/>
-    <col min="48" max="48" width="6.28515625" style="1" customWidth="1"/>
-    <col min="49" max="49" width="6.28515625" style="14" customWidth="1"/>
+    <col min="43" max="43" width="9" style="2" customWidth="1"/>
+    <col min="44" max="44" width="4.7109375" customWidth="1"/>
+    <col min="45" max="45" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="6.28515625" customWidth="1"/>
+    <col min="49" max="49" width="6.28515625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="6.28515625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1266,29 +1270,32 @@
       <c r="AP1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AQ1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AW1" s="13" t="s">
+      <c r="AX1" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1322,15 +1329,16 @@
       <c r="AN2" s="19"/>
       <c r="AO2" s="19"/>
       <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
+      <c r="AQ2" s="25"/>
       <c r="AR2" s="19"/>
       <c r="AS2" s="19"/>
       <c r="AT2" s="19"/>
       <c r="AU2" s="19"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="19"/>
-    </row>
-    <row r="3" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="19"/>
+    </row>
+    <row r="3" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1442,27 +1450,30 @@
         <v>0.21</v>
       </c>
       <c r="AQ3" s="16">
+        <v>500</v>
+      </c>
+      <c r="AR3" s="16">
         <v>17</v>
       </c>
-      <c r="AR3" s="15">
+      <c r="AS3" s="15">
         <v>10</v>
       </c>
-      <c r="AS3" s="16">
-        <f>AS4</f>
+      <c r="AT3" s="16">
+        <f>AT4</f>
         <v>-999</v>
       </c>
-      <c r="AT3" s="17">
+      <c r="AU3" s="17">
         <v>0.31</v>
       </c>
-      <c r="AU3" s="17">
+      <c r="AV3" s="17">
         <v>1.32</v>
       </c>
-      <c r="AV3" s="17">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="18"/>
-    </row>
-    <row r="4" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="18"/>
+    </row>
+    <row r="4" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1575,26 +1586,29 @@
         <v>0.21</v>
       </c>
       <c r="AQ4" s="4">
+        <v>500</v>
+      </c>
+      <c r="AR4" s="4">
         <v>17</v>
       </c>
-      <c r="AR4" s="3">
+      <c r="AS4" s="3">
         <v>10</v>
       </c>
-      <c r="AS4" s="4">
+      <c r="AT4" s="4">
         <v>-999</v>
       </c>
-      <c r="AT4" s="5">
+      <c r="AU4" s="5">
         <v>0.31</v>
       </c>
-      <c r="AU4" s="5">
+      <c r="AV4" s="5">
         <v>1.32</v>
       </c>
-      <c r="AV4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="13"/>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="13"/>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1715,25 +1729,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ5" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR5" s="2">
         <v>17</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>10</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AT5" s="2">
         <v>110</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AU5" s="1">
         <v>0.31</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AV5" s="1">
         <v>1.32</v>
       </c>
-      <c r="AV5" s="1">
+      <c r="AW5" s="1">
         <v>1.17</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>A5</f>
         <v>2</v>
@@ -1854,25 +1871,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ6" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR6" s="2">
         <v>17</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>20</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AT6" s="2">
         <v>110</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AU6" s="1">
         <v>0.31</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AV6" s="1">
         <v>1.32</v>
       </c>
-      <c r="AV6" s="1">
+      <c r="AW6" s="1">
         <v>1.17</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ref="A7:C22" si="9">A6</f>
         <v>2</v>
@@ -1987,25 +2007,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ7" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR7" s="2">
         <v>17</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>20</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AT7" s="2">
         <v>110</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AU7" s="1">
         <v>0.31</v>
       </c>
-      <c r="AU7" s="1">
+      <c r="AV7" s="1">
         <v>1.32</v>
       </c>
-      <c r="AV7" s="1">
+      <c r="AW7" s="1">
         <v>1.17</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -2128,25 +2151,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ8" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR8" s="2">
         <v>17</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>20</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="AT8" s="2">
         <v>110</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AU8" s="1">
         <v>0.31</v>
       </c>
-      <c r="AU8" s="1">
+      <c r="AV8" s="1">
         <v>1.32</v>
       </c>
-      <c r="AV8" s="1">
+      <c r="AW8" s="1">
         <v>1.17</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -2260,25 +2286,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ9" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR9" s="2">
         <v>17</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>20</v>
       </c>
-      <c r="AS9" s="2">
+      <c r="AT9" s="2">
         <v>110</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="AU9" s="1">
         <v>0.31</v>
       </c>
-      <c r="AU9" s="1">
+      <c r="AV9" s="1">
         <v>1.32</v>
       </c>
-      <c r="AV9" s="1">
+      <c r="AW9" s="1">
         <v>1.17</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -2406,25 +2435,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ10" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR10" s="2">
         <v>17</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <v>20</v>
       </c>
-      <c r="AS10" s="2">
+      <c r="AT10" s="2">
         <v>110</v>
       </c>
-      <c r="AT10" s="1">
+      <c r="AU10" s="1">
         <v>0.31</v>
       </c>
-      <c r="AU10" s="1">
+      <c r="AV10" s="1">
         <v>1.32</v>
       </c>
-      <c r="AV10" s="1">
+      <c r="AW10" s="1">
         <v>1.17</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -2536,25 +2568,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ11" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR11" s="2">
         <v>17</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <v>20</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="AT11" s="2">
         <v>110</v>
       </c>
-      <c r="AT11" s="1">
+      <c r="AU11" s="1">
         <v>0.31</v>
       </c>
-      <c r="AU11" s="1">
+      <c r="AV11" s="1">
         <v>1.32</v>
       </c>
-      <c r="AV11" s="1">
+      <c r="AW11" s="1">
         <v>1.17</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -2678,25 +2713,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ12" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR12" s="2">
         <v>17</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <v>20</v>
       </c>
-      <c r="AS12" s="2">
+      <c r="AT12" s="2">
         <v>110</v>
       </c>
-      <c r="AT12" s="1">
+      <c r="AU12" s="1">
         <v>0.31</v>
       </c>
-      <c r="AU12" s="1">
+      <c r="AV12" s="1">
         <v>1.32</v>
       </c>
-      <c r="AV12" s="1">
+      <c r="AW12" s="1">
         <v>1.17</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -2821,25 +2859,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ13" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR13" s="2">
         <v>17</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <v>20</v>
       </c>
-      <c r="AS13" s="2">
+      <c r="AT13" s="2">
         <v>110</v>
       </c>
-      <c r="AT13" s="1">
+      <c r="AU13" s="1">
         <v>0.31</v>
       </c>
-      <c r="AU13" s="1">
+      <c r="AV13" s="1">
         <v>1.32</v>
       </c>
-      <c r="AV13" s="1">
+      <c r="AW13" s="1">
         <v>1.17</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -2958,25 +2999,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ14" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR14" s="2">
         <v>17</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <v>20</v>
       </c>
-      <c r="AS14" s="2">
+      <c r="AT14" s="2">
         <v>110</v>
       </c>
-      <c r="AT14" s="1">
+      <c r="AU14" s="1">
         <v>0.31</v>
       </c>
-      <c r="AU14" s="1">
+      <c r="AV14" s="1">
         <v>1.32</v>
       </c>
-      <c r="AV14" s="1">
+      <c r="AW14" s="1">
         <v>1.17</v>
       </c>
     </row>
-    <row r="15" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -3100,26 +3144,29 @@
         <v>0.21</v>
       </c>
       <c r="AQ15" s="4">
+        <v>500</v>
+      </c>
+      <c r="AR15" s="4">
         <v>17</v>
       </c>
-      <c r="AR15" s="3">
+      <c r="AS15" s="3">
         <v>20</v>
       </c>
-      <c r="AS15" s="4">
+      <c r="AT15" s="4">
         <v>110</v>
       </c>
-      <c r="AT15" s="5">
+      <c r="AU15" s="5">
         <v>0.31</v>
       </c>
-      <c r="AU15" s="5">
+      <c r="AV15" s="5">
         <v>1.32</v>
       </c>
-      <c r="AV15" s="5">
+      <c r="AW15" s="5">
         <v>1.17</v>
       </c>
-      <c r="AW15" s="13"/>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX15" s="13"/>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -3240,25 +3287,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ16" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR16" s="2">
         <v>17</v>
       </c>
-      <c r="AR16">
+      <c r="AS16">
         <v>20</v>
       </c>
-      <c r="AS16" s="2">
+      <c r="AT16" s="2">
         <v>203</v>
       </c>
-      <c r="AT16" s="1">
+      <c r="AU16" s="1">
         <v>0.31</v>
       </c>
-      <c r="AU16" s="1">
+      <c r="AV16" s="1">
         <v>1.5</v>
       </c>
-      <c r="AV16" s="1">
+      <c r="AW16" s="1">
         <v>1.05</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -3375,25 +3425,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ17" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR17" s="2">
         <v>17</v>
       </c>
-      <c r="AR17">
+      <c r="AS17">
         <v>20</v>
       </c>
-      <c r="AS17" s="2">
+      <c r="AT17" s="2">
         <v>203</v>
       </c>
-      <c r="AT17" s="1">
+      <c r="AU17" s="1">
         <v>0.31</v>
       </c>
-      <c r="AU17" s="1">
+      <c r="AV17" s="1">
         <v>1.5</v>
       </c>
-      <c r="AV17" s="1">
+      <c r="AW17" s="1">
         <v>1.05</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -3510,25 +3563,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ18" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR18" s="2">
         <v>17</v>
       </c>
-      <c r="AR18">
+      <c r="AS18">
         <v>20</v>
       </c>
-      <c r="AS18" s="2">
+      <c r="AT18" s="2">
         <v>203</v>
       </c>
-      <c r="AT18" s="1">
+      <c r="AU18" s="1">
         <v>0.31</v>
       </c>
-      <c r="AU18" s="1">
+      <c r="AV18" s="1">
         <v>1.5</v>
       </c>
-      <c r="AV18" s="1">
+      <c r="AW18" s="1">
         <v>1.05</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -3649,25 +3705,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ19" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR19" s="2">
         <v>17</v>
       </c>
-      <c r="AR19">
+      <c r="AS19">
         <v>20</v>
       </c>
-      <c r="AS19" s="2">
+      <c r="AT19" s="2">
         <v>203</v>
       </c>
-      <c r="AT19" s="1">
+      <c r="AU19" s="1">
         <v>0.31</v>
       </c>
-      <c r="AU19" s="1">
+      <c r="AV19" s="1">
         <v>1.5</v>
       </c>
-      <c r="AV19" s="1">
+      <c r="AW19" s="1">
         <v>1.05</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -3788,25 +3847,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ20" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR20" s="2">
         <v>17</v>
       </c>
-      <c r="AR20">
+      <c r="AS20">
         <v>20</v>
       </c>
-      <c r="AS20" s="2">
+      <c r="AT20" s="2">
         <v>203</v>
       </c>
-      <c r="AT20" s="1">
+      <c r="AU20" s="1">
         <v>0.31</v>
       </c>
-      <c r="AU20" s="1">
+      <c r="AV20" s="1">
         <v>1.5</v>
       </c>
-      <c r="AV20" s="1">
+      <c r="AW20" s="1">
         <v>1.05</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -3927,25 +3989,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ21" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR21" s="2">
         <v>17</v>
       </c>
-      <c r="AR21">
+      <c r="AS21">
         <v>20</v>
       </c>
-      <c r="AS21" s="2">
+      <c r="AT21" s="2">
         <v>203</v>
       </c>
-      <c r="AT21" s="1">
+      <c r="AU21" s="1">
         <v>0.31</v>
       </c>
-      <c r="AU21" s="1">
+      <c r="AV21" s="1">
         <v>1.5</v>
       </c>
-      <c r="AV21" s="1">
+      <c r="AW21" s="1">
         <v>1.05</v>
       </c>
     </row>
-    <row r="22" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -4068,26 +4133,29 @@
         <v>0.21</v>
       </c>
       <c r="AQ22" s="4">
+        <v>500</v>
+      </c>
+      <c r="AR22" s="4">
         <v>17</v>
       </c>
-      <c r="AR22" s="3">
+      <c r="AS22" s="3">
         <v>20</v>
       </c>
-      <c r="AS22" s="4">
+      <c r="AT22" s="4">
         <v>203</v>
       </c>
-      <c r="AT22" s="5">
+      <c r="AU22" s="5">
         <v>0.31</v>
       </c>
-      <c r="AU22" s="5">
+      <c r="AV22" s="5">
         <v>1.5</v>
       </c>
-      <c r="AV22" s="5">
+      <c r="AW22" s="5">
         <v>1.05</v>
       </c>
-      <c r="AW22" s="13"/>
-    </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX22" s="13"/>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ref="A23:C38" si="14">A22</f>
         <v>2</v>
@@ -4208,25 +4276,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ23" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR23" s="2">
         <v>17</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <v>20</v>
       </c>
-      <c r="AS23" s="2">
+      <c r="AT23" s="2">
         <v>85</v>
       </c>
-      <c r="AT23" s="1">
+      <c r="AU23" s="1">
         <v>0.37</v>
       </c>
-      <c r="AU23" s="1">
+      <c r="AV23" s="1">
         <v>1.38</v>
       </c>
-      <c r="AV23" s="1">
+      <c r="AW23" s="1">
         <v>1.05</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -4347,25 +4418,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ24" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR24" s="2">
         <v>17</v>
       </c>
-      <c r="AR24">
+      <c r="AS24">
         <v>20</v>
       </c>
-      <c r="AS24" s="2">
+      <c r="AT24" s="2">
         <v>85</v>
       </c>
-      <c r="AT24" s="1">
+      <c r="AU24" s="1">
         <v>0.37</v>
       </c>
-      <c r="AU24" s="1">
+      <c r="AV24" s="1">
         <v>1.38</v>
       </c>
-      <c r="AV24" s="1">
+      <c r="AW24" s="1">
         <v>1.05</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -4479,28 +4553,31 @@
         <v>0.21</v>
       </c>
       <c r="AQ25" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR25" s="2">
         <v>17</v>
       </c>
-      <c r="AR25">
+      <c r="AS25">
         <v>20</v>
       </c>
-      <c r="AS25" s="2">
+      <c r="AT25" s="2">
         <v>85</v>
       </c>
-      <c r="AT25" s="1">
+      <c r="AU25" s="1">
         <v>0.37</v>
       </c>
-      <c r="AU25" s="1">
+      <c r="AV25" s="1">
         <v>1.38</v>
       </c>
-      <c r="AV25" s="1">
+      <c r="AW25" s="1">
         <v>1.05</v>
       </c>
-      <c r="AW25" s="14" t="s">
+      <c r="AX25" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -4627,26 +4704,29 @@
         <v>0.21</v>
       </c>
       <c r="AQ26" s="4">
+        <v>500</v>
+      </c>
+      <c r="AR26" s="4">
         <v>17</v>
       </c>
-      <c r="AR26" s="3">
+      <c r="AS26" s="3">
         <v>20</v>
       </c>
-      <c r="AS26" s="4">
+      <c r="AT26" s="4">
         <v>85</v>
       </c>
-      <c r="AT26" s="5">
+      <c r="AU26" s="5">
         <v>0.37</v>
       </c>
-      <c r="AU26" s="5">
+      <c r="AV26" s="5">
         <v>1.38</v>
       </c>
-      <c r="AV26" s="5">
+      <c r="AW26" s="5">
         <v>1.05</v>
       </c>
-      <c r="AW26" s="13"/>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX26" s="13"/>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -4768,25 +4848,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ27" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR27" s="2">
         <v>17</v>
       </c>
-      <c r="AR27">
+      <c r="AS27">
         <v>20</v>
       </c>
-      <c r="AS27" s="2">
+      <c r="AT27" s="2">
         <v>17</v>
       </c>
-      <c r="AT27" s="1">
+      <c r="AU27" s="1">
         <v>0.44</v>
       </c>
-      <c r="AU27" s="1">
+      <c r="AV27" s="1">
         <v>1.18</v>
       </c>
-      <c r="AV27" s="1">
+      <c r="AW27" s="1">
         <v>1.05</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -4908,25 +4991,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ28" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR28" s="2">
         <v>17</v>
       </c>
-      <c r="AR28">
+      <c r="AS28">
         <v>20</v>
       </c>
-      <c r="AS28" s="2">
+      <c r="AT28" s="2">
         <v>17</v>
       </c>
-      <c r="AT28" s="1">
+      <c r="AU28" s="1">
         <v>0.44</v>
       </c>
-      <c r="AU28" s="1">
+      <c r="AV28" s="1">
         <v>1.18</v>
       </c>
-      <c r="AV28" s="1">
+      <c r="AW28" s="1">
         <v>1.05</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -5051,25 +5137,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ29" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR29" s="2">
         <v>17</v>
       </c>
-      <c r="AR29">
+      <c r="AS29">
         <v>20</v>
       </c>
-      <c r="AS29" s="2">
+      <c r="AT29" s="2">
         <v>17</v>
       </c>
-      <c r="AT29" s="1">
+      <c r="AU29" s="1">
         <v>0.44</v>
       </c>
-      <c r="AU29" s="1">
+      <c r="AV29" s="1">
         <v>1.18</v>
       </c>
-      <c r="AV29" s="1">
+      <c r="AW29" s="1">
         <v>1.05</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -5189,25 +5278,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ30" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR30" s="2">
         <v>17</v>
       </c>
-      <c r="AR30">
+      <c r="AS30">
         <v>20</v>
       </c>
-      <c r="AS30" s="2">
+      <c r="AT30" s="2">
         <v>17</v>
       </c>
-      <c r="AT30" s="1">
+      <c r="AU30" s="1">
         <v>0.44</v>
       </c>
-      <c r="AU30" s="1">
+      <c r="AV30" s="1">
         <v>1.18</v>
       </c>
-      <c r="AV30" s="1">
+      <c r="AW30" s="1">
         <v>1.05</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -5327,25 +5419,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ31" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR31" s="2">
         <v>17</v>
       </c>
-      <c r="AR31">
+      <c r="AS31">
         <v>20</v>
       </c>
-      <c r="AS31" s="2">
+      <c r="AT31" s="2">
         <v>17</v>
       </c>
-      <c r="AT31" s="1">
+      <c r="AU31" s="1">
         <v>0.44</v>
       </c>
-      <c r="AU31" s="1">
+      <c r="AV31" s="1">
         <v>1.18</v>
       </c>
-      <c r="AV31" s="1">
+      <c r="AW31" s="1">
         <v>1.05</v>
       </c>
     </row>
-    <row r="32" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -5476,26 +5571,29 @@
         <v>0.21</v>
       </c>
       <c r="AQ32" s="4">
+        <v>500</v>
+      </c>
+      <c r="AR32" s="4">
         <v>17</v>
       </c>
-      <c r="AR32" s="3">
+      <c r="AS32" s="3">
         <v>20</v>
       </c>
-      <c r="AS32" s="4">
+      <c r="AT32" s="4">
         <v>17</v>
       </c>
-      <c r="AT32" s="5">
+      <c r="AU32" s="5">
         <v>0.44</v>
       </c>
-      <c r="AU32" s="5">
+      <c r="AV32" s="5">
         <v>1.18</v>
       </c>
-      <c r="AV32" s="5">
+      <c r="AW32" s="5">
         <v>1.05</v>
       </c>
-      <c r="AW32" s="13"/>
-    </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX32" s="13"/>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -5621,25 +5719,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ33" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR33" s="2">
         <v>17</v>
       </c>
-      <c r="AR33">
+      <c r="AS33">
         <v>20</v>
       </c>
-      <c r="AS33" s="2">
+      <c r="AT33" s="2">
         <v>56</v>
       </c>
-      <c r="AT33" s="1">
+      <c r="AU33" s="1">
         <v>0.49</v>
       </c>
-      <c r="AU33" s="1">
+      <c r="AV33" s="1">
         <v>0.96</v>
       </c>
-      <c r="AV33" s="1">
+      <c r="AW33" s="1">
         <v>1.04</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -5755,28 +5856,31 @@
         <v>0.21</v>
       </c>
       <c r="AQ34" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR34" s="2">
         <v>17</v>
       </c>
-      <c r="AR34">
+      <c r="AS34">
         <v>20</v>
       </c>
-      <c r="AS34" s="2">
+      <c r="AT34" s="2">
         <v>56</v>
       </c>
-      <c r="AT34" s="1">
+      <c r="AU34" s="1">
         <v>0.49</v>
       </c>
-      <c r="AU34" s="1">
+      <c r="AV34" s="1">
         <v>0.96</v>
       </c>
-      <c r="AV34" s="1">
+      <c r="AW34" s="1">
         <v>1.04</v>
       </c>
-      <c r="AW34" s="14" t="s">
+      <c r="AX34" s="14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -5907,25 +6011,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ35" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR35" s="2">
         <v>17</v>
       </c>
-      <c r="AR35">
+      <c r="AS35">
         <v>20</v>
       </c>
-      <c r="AS35" s="2">
+      <c r="AT35" s="2">
         <v>56</v>
       </c>
-      <c r="AT35" s="1">
+      <c r="AU35" s="1">
         <v>0.49</v>
       </c>
-      <c r="AU35" s="1">
+      <c r="AV35" s="1">
         <v>0.96</v>
       </c>
-      <c r="AV35" s="1">
+      <c r="AW35" s="1">
         <v>1.04</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -6047,25 +6154,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ36" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR36" s="2">
         <v>17</v>
       </c>
-      <c r="AR36">
+      <c r="AS36">
         <v>20</v>
       </c>
-      <c r="AS36" s="2">
+      <c r="AT36" s="2">
         <v>56</v>
       </c>
-      <c r="AT36" s="1">
+      <c r="AU36" s="1">
         <v>0.49</v>
       </c>
-      <c r="AU36" s="1">
+      <c r="AV36" s="1">
         <v>0.96</v>
       </c>
-      <c r="AV36" s="1">
+      <c r="AW36" s="1">
         <v>1.04</v>
       </c>
     </row>
-    <row r="37" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -6185,28 +6295,31 @@
         <v>0.21</v>
       </c>
       <c r="AQ37" s="4">
+        <v>500</v>
+      </c>
+      <c r="AR37" s="4">
         <v>17</v>
       </c>
-      <c r="AR37" s="3">
+      <c r="AS37" s="3">
         <v>20</v>
       </c>
-      <c r="AS37" s="4">
+      <c r="AT37" s="4">
         <v>56</v>
       </c>
-      <c r="AT37" s="5">
+      <c r="AU37" s="5">
         <v>0.49</v>
       </c>
-      <c r="AU37" s="5">
+      <c r="AV37" s="5">
         <v>0.96</v>
       </c>
-      <c r="AV37" s="5">
+      <c r="AW37" s="5">
         <v>1.04</v>
       </c>
-      <c r="AW37" s="13" t="s">
+      <c r="AX37" s="13" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -6326,25 +6439,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ38" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR38" s="2">
         <v>17</v>
       </c>
-      <c r="AR38">
+      <c r="AS38">
         <v>30</v>
       </c>
-      <c r="AS38" s="2">
+      <c r="AT38" s="2">
         <v>116</v>
       </c>
-      <c r="AT38" s="1">
+      <c r="AU38" s="1">
         <v>0.41</v>
       </c>
-      <c r="AU38" s="1">
+      <c r="AV38" s="1">
         <v>1.06</v>
       </c>
-      <c r="AV38" s="1">
+      <c r="AW38" s="1">
         <v>1.02</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ref="A39:C43" si="23">A38</f>
         <v>2</v>
@@ -6461,25 +6577,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ39" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR39" s="2">
         <v>17</v>
       </c>
-      <c r="AR39">
+      <c r="AS39">
         <v>40</v>
       </c>
-      <c r="AS39" s="2">
+      <c r="AT39" s="2">
         <v>116</v>
       </c>
-      <c r="AT39" s="1">
+      <c r="AU39" s="1">
         <v>0.41</v>
       </c>
-      <c r="AU39" s="1">
+      <c r="AV39" s="1">
         <v>1.06</v>
       </c>
-      <c r="AV39" s="1">
+      <c r="AW39" s="1">
         <v>1.02</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="23"/>
         <v>2</v>
@@ -6600,25 +6719,28 @@
         <v>0.21</v>
       </c>
       <c r="AQ40" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR40" s="2">
         <v>17</v>
       </c>
-      <c r="AR40">
+      <c r="AS40">
         <v>30</v>
       </c>
-      <c r="AS40" s="2">
+      <c r="AT40" s="2">
         <v>116</v>
       </c>
-      <c r="AT40" s="1">
+      <c r="AU40" s="1">
         <v>0.41</v>
       </c>
-      <c r="AU40" s="1">
+      <c r="AV40" s="1">
         <v>1.06</v>
       </c>
-      <c r="AV40" s="1">
+      <c r="AW40" s="1">
         <v>1.02</v>
       </c>
     </row>
-    <row r="41" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <f t="shared" si="23"/>
         <v>2</v>
@@ -6741,26 +6863,29 @@
         <v>0.21</v>
       </c>
       <c r="AQ41" s="4">
+        <v>500</v>
+      </c>
+      <c r="AR41" s="4">
         <v>17</v>
       </c>
-      <c r="AR41" s="3">
+      <c r="AS41" s="3">
         <v>25</v>
       </c>
-      <c r="AS41" s="4">
+      <c r="AT41" s="4">
         <v>116</v>
       </c>
-      <c r="AT41" s="5">
+      <c r="AU41" s="5">
         <v>0.41</v>
       </c>
-      <c r="AU41" s="5">
+      <c r="AV41" s="5">
         <v>1.06</v>
       </c>
-      <c r="AV41" s="5">
+      <c r="AW41" s="5">
         <v>1.02</v>
       </c>
-      <c r="AW41" s="13"/>
-    </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX41" s="13"/>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="23"/>
         <v>2</v>
@@ -6881,26 +7006,29 @@
         <v>0.21</v>
       </c>
       <c r="AQ42" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR42" s="2">
         <v>17</v>
       </c>
-      <c r="AR42">
+      <c r="AS42">
         <v>25</v>
       </c>
-      <c r="AS42" s="2">
-        <f>ROUND(AS41*SUM(AA42:AA43)/SUM(AA38:AA41),0)</f>
+      <c r="AT42" s="2">
+        <f>ROUND(AT41*SUM(AA42:AA43)/SUM(AA38:AA41),0)</f>
         <v>29</v>
       </c>
-      <c r="AT42" s="1">
+      <c r="AU42" s="1">
         <v>0.41</v>
       </c>
-      <c r="AU42" s="1">
+      <c r="AV42" s="1">
         <v>1.06</v>
       </c>
-      <c r="AV42" s="1">
+      <c r="AW42" s="1">
         <v>1.01</v>
       </c>
     </row>
-    <row r="43" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <f t="shared" si="23"/>
         <v>2</v>
@@ -7023,27 +7151,30 @@
         <v>0.21</v>
       </c>
       <c r="AQ43" s="4">
+        <v>500</v>
+      </c>
+      <c r="AR43" s="4">
         <v>17</v>
       </c>
-      <c r="AR43" s="3">
+      <c r="AS43" s="3">
         <v>25</v>
       </c>
-      <c r="AS43" s="4">
-        <f>AS42</f>
+      <c r="AT43" s="4">
+        <f>AT42</f>
         <v>29</v>
       </c>
-      <c r="AT43" s="5">
+      <c r="AU43" s="5">
         <v>0.41</v>
       </c>
-      <c r="AU43" s="5">
+      <c r="AV43" s="5">
         <v>1.06</v>
       </c>
-      <c r="AV43" s="5">
+      <c r="AW43" s="5">
         <v>1.01</v>
       </c>
-      <c r="AW43" s="13"/>
-    </row>
-    <row r="44" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX43" s="13"/>
+    </row>
+    <row r="44" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -7078,14 +7209,15 @@
       <c r="AO44" s="19"/>
       <c r="AP44" s="19"/>
       <c r="AQ44" s="25"/>
-      <c r="AR44" s="19"/>
+      <c r="AR44" s="25"/>
       <c r="AS44" s="19"/>
       <c r="AT44" s="19"/>
       <c r="AU44" s="19"/>
-      <c r="AV44" s="20"/>
-      <c r="AW44" s="19"/>
-    </row>
-    <row r="45" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AV44" s="19"/>
+      <c r="AW44" s="20"/>
+      <c r="AX44" s="19"/>
+    </row>
+    <row r="45" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>2</v>
       </c>
@@ -7194,28 +7326,31 @@
         <v>0.21</v>
       </c>
       <c r="AQ45" s="16">
+        <v>500</v>
+      </c>
+      <c r="AR45" s="16">
         <v>17</v>
       </c>
-      <c r="AR45" s="15">
+      <c r="AS45" s="15">
         <v>50</v>
       </c>
-      <c r="AS45" s="16">
+      <c r="AT45" s="16">
         <v>10</v>
       </c>
-      <c r="AT45" s="17">
+      <c r="AU45" s="17">
         <v>0.31</v>
       </c>
-      <c r="AU45" s="17">
+      <c r="AV45" s="17">
         <v>1.32</v>
       </c>
-      <c r="AV45" s="17">
-        <v>0</v>
-      </c>
-      <c r="AW45" s="18" t="s">
+      <c r="AW45" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX45" s="18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <f t="shared" ref="A46" si="24">A45</f>
         <v>2</v>
@@ -7324,28 +7459,31 @@
         <v>0.21</v>
       </c>
       <c r="AQ46" s="4">
+        <v>500</v>
+      </c>
+      <c r="AR46" s="4">
         <v>17</v>
       </c>
-      <c r="AR46" s="3">
+      <c r="AS46" s="3">
         <v>50</v>
       </c>
-      <c r="AS46" s="4">
+      <c r="AT46" s="4">
         <v>10</v>
       </c>
-      <c r="AT46" s="5">
+      <c r="AU46" s="5">
         <v>0.31</v>
       </c>
-      <c r="AU46" s="5">
+      <c r="AV46" s="5">
         <v>1.32</v>
       </c>
-      <c r="AV46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW46" s="13" t="s">
+      <c r="AW46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX46" s="13" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="47" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -7373,13 +7511,14 @@
       <c r="AO47" s="21"/>
       <c r="AP47" s="21"/>
       <c r="AQ47" s="7"/>
-      <c r="AS47" s="7"/>
-      <c r="AT47" s="21"/>
+      <c r="AR47" s="7"/>
+      <c r="AT47" s="7"/>
       <c r="AU47" s="21"/>
       <c r="AV47" s="21"/>
-      <c r="AW47" s="22"/>
-    </row>
-    <row r="48" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW47" s="21"/>
+      <c r="AX47" s="22"/>
+    </row>
+    <row r="48" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>2</v>
       </c>
@@ -7499,28 +7638,31 @@
         <v>0.21</v>
       </c>
       <c r="AQ48" s="16">
+        <v>500</v>
+      </c>
+      <c r="AR48" s="16">
         <v>17</v>
       </c>
-      <c r="AR48" s="15">
+      <c r="AS48" s="15">
         <v>50</v>
       </c>
-      <c r="AS48" s="16">
+      <c r="AT48" s="16">
         <v>10</v>
       </c>
-      <c r="AT48" s="17">
+      <c r="AU48" s="17">
         <v>0.31</v>
       </c>
-      <c r="AU48" s="17">
+      <c r="AV48" s="17">
         <v>1.32</v>
       </c>
-      <c r="AV48" s="17">
-        <v>0</v>
-      </c>
-      <c r="AW48" s="18" t="s">
+      <c r="AW48" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX48" s="18" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -7634,28 +7776,31 @@
         <v>0.21</v>
       </c>
       <c r="AQ49" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR49" s="2">
         <v>17</v>
       </c>
-      <c r="AR49">
+      <c r="AS49">
         <v>50</v>
       </c>
-      <c r="AS49" s="2">
+      <c r="AT49" s="2">
         <v>10</v>
       </c>
-      <c r="AT49" s="1">
+      <c r="AU49" s="1">
         <v>0.31</v>
       </c>
-      <c r="AU49" s="1">
+      <c r="AV49" s="1">
         <v>1.32</v>
       </c>
-      <c r="AV49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW49" s="14" t="s">
+      <c r="AW49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX49" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2</v>
       </c>
@@ -7769,26 +7914,29 @@
         <v>0.21</v>
       </c>
       <c r="AQ50" s="4">
+        <v>500</v>
+      </c>
+      <c r="AR50" s="4">
         <v>17</v>
       </c>
-      <c r="AR50" s="3">
+      <c r="AS50" s="3">
         <v>50</v>
       </c>
-      <c r="AS50" s="4">
+      <c r="AT50" s="4">
         <v>10</v>
       </c>
-      <c r="AT50" s="5">
+      <c r="AU50" s="5">
         <v>0.31</v>
       </c>
-      <c r="AU50" s="5">
+      <c r="AV50" s="5">
         <v>1.32</v>
       </c>
-      <c r="AV50" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW50" s="13"/>
-    </row>
-    <row r="51" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX50" s="13"/>
+    </row>
+    <row r="51" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -7816,13 +7964,14 @@
       <c r="AO51" s="21"/>
       <c r="AP51" s="21"/>
       <c r="AQ51" s="7"/>
-      <c r="AS51" s="7"/>
-      <c r="AT51" s="21"/>
+      <c r="AR51" s="7"/>
+      <c r="AT51" s="7"/>
       <c r="AU51" s="21"/>
       <c r="AV51" s="21"/>
-      <c r="AW51" s="22"/>
-    </row>
-    <row r="52" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW51" s="21"/>
+      <c r="AX51" s="22"/>
+    </row>
+    <row r="52" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>2</v>
       </c>
@@ -7930,26 +8079,29 @@
         <v>0.21</v>
       </c>
       <c r="AQ52" s="16">
+        <v>500</v>
+      </c>
+      <c r="AR52" s="16">
         <v>17</v>
       </c>
-      <c r="AR52" s="15">
+      <c r="AS52" s="15">
         <v>50</v>
       </c>
-      <c r="AS52" s="16">
+      <c r="AT52" s="16">
         <v>10</v>
       </c>
-      <c r="AT52" s="17">
+      <c r="AU52" s="17">
         <v>0.31</v>
       </c>
-      <c r="AU52" s="17">
+      <c r="AV52" s="17">
         <v>1.32</v>
       </c>
-      <c r="AV52" s="17">
+      <c r="AW52" s="17">
         <v>1.27</v>
       </c>
-      <c r="AW52" s="18"/>
-    </row>
-    <row r="53" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX52" s="18"/>
+    </row>
+    <row r="53" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>2</v>
       </c>
@@ -8061,26 +8213,29 @@
         <v>0.21</v>
       </c>
       <c r="AQ53" s="4">
+        <v>500</v>
+      </c>
+      <c r="AR53" s="4">
         <v>17</v>
       </c>
-      <c r="AR53" s="3">
+      <c r="AS53" s="3">
         <v>50</v>
       </c>
-      <c r="AS53" s="4">
+      <c r="AT53" s="4">
         <v>10</v>
       </c>
-      <c r="AT53" s="5">
+      <c r="AU53" s="5">
         <v>0.31</v>
       </c>
-      <c r="AU53" s="5">
+      <c r="AV53" s="5">
         <v>1.32</v>
       </c>
-      <c r="AV53" s="5">
+      <c r="AW53" s="5">
         <v>1.27</v>
       </c>
-      <c r="AW53" s="13"/>
-    </row>
-    <row r="54" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX53" s="13"/>
+    </row>
+    <row r="54" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -8115,14 +8270,15 @@
       <c r="AO54" s="19"/>
       <c r="AP54" s="19"/>
       <c r="AQ54" s="25"/>
-      <c r="AR54" s="19"/>
+      <c r="AR54" s="25"/>
       <c r="AS54" s="19"/>
       <c r="AT54" s="19"/>
       <c r="AU54" s="19"/>
-      <c r="AV54" s="20"/>
-      <c r="AW54" s="19"/>
-    </row>
-    <row r="55" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AV54" s="19"/>
+      <c r="AW54" s="20"/>
+      <c r="AX54" s="19"/>
+    </row>
+    <row r="55" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>2</v>
       </c>
@@ -8217,26 +8373,29 @@
         <v>0.21</v>
       </c>
       <c r="AQ55" s="16">
+        <v>500</v>
+      </c>
+      <c r="AR55" s="16">
         <v>17</v>
       </c>
-      <c r="AR55" s="15">
+      <c r="AS55" s="15">
         <v>50</v>
       </c>
-      <c r="AS55" s="16">
+      <c r="AT55" s="16">
         <v>10</v>
       </c>
-      <c r="AT55" s="17">
+      <c r="AU55" s="17">
         <v>0.31</v>
       </c>
-      <c r="AU55" s="17">
+      <c r="AV55" s="17">
         <v>1.32</v>
       </c>
-      <c r="AV55" s="17">
+      <c r="AW55" s="17">
         <v>1.27</v>
       </c>
-      <c r="AW55" s="18"/>
-    </row>
-    <row r="56" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX55" s="18"/>
+    </row>
+    <row r="56" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>2</v>
       </c>
@@ -8330,26 +8489,29 @@
         <v>0.21</v>
       </c>
       <c r="AQ56" s="7">
+        <v>500</v>
+      </c>
+      <c r="AR56" s="7">
         <v>17</v>
       </c>
-      <c r="AR56" s="6">
+      <c r="AS56" s="6">
         <v>50</v>
       </c>
-      <c r="AS56" s="7">
+      <c r="AT56" s="7">
         <v>10</v>
       </c>
-      <c r="AT56" s="21">
+      <c r="AU56" s="21">
         <v>0.31</v>
       </c>
-      <c r="AU56" s="21">
+      <c r="AV56" s="21">
         <v>1.32</v>
       </c>
-      <c r="AV56" s="21">
+      <c r="AW56" s="21">
         <v>1.17</v>
       </c>
-      <c r="AW56" s="22"/>
-    </row>
-    <row r="57" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX56" s="22"/>
+    </row>
+    <row r="57" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2</v>
       </c>
@@ -8447,26 +8609,29 @@
         <v>0.21</v>
       </c>
       <c r="AQ57" s="4">
+        <v>500</v>
+      </c>
+      <c r="AR57" s="4">
         <v>17</v>
       </c>
-      <c r="AR57" s="3">
+      <c r="AS57" s="3">
         <v>50</v>
       </c>
-      <c r="AS57" s="4">
+      <c r="AT57" s="4">
         <v>10</v>
       </c>
-      <c r="AT57" s="5">
+      <c r="AU57" s="5">
         <v>0.31</v>
       </c>
-      <c r="AU57" s="5">
+      <c r="AV57" s="5">
         <v>1.32</v>
       </c>
-      <c r="AV57" s="5">
+      <c r="AW57" s="5">
         <v>1.17</v>
       </c>
-      <c r="AW57" s="13"/>
-    </row>
-    <row r="58" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX57" s="13"/>
+    </row>
+    <row r="58" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F58" s="7"/>
       <c r="H58" s="7"/>
       <c r="Q58" s="30"/>
@@ -8488,11 +8653,12 @@
       <c r="AD58" s="30"/>
       <c r="AE58" s="30"/>
       <c r="AQ58" s="7"/>
-      <c r="AS58" s="7"/>
-      <c r="AV58" s="21"/>
-      <c r="AW58" s="22"/>
-    </row>
-    <row r="59" spans="1:49" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AR58" s="7"/>
+      <c r="AT58" s="7"/>
+      <c r="AW58" s="21"/>
+      <c r="AX58" s="22"/>
+    </row>
+    <row r="59" spans="1:50" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>2</v>
       </c>
@@ -8606,26 +8772,29 @@
         <v>0.21</v>
       </c>
       <c r="AQ59" s="7">
+        <v>500</v>
+      </c>
+      <c r="AR59" s="7">
         <v>17</v>
       </c>
-      <c r="AR59" s="6">
+      <c r="AS59" s="6">
         <v>50</v>
       </c>
-      <c r="AS59" s="7">
+      <c r="AT59" s="7">
         <v>110</v>
       </c>
-      <c r="AT59" s="6">
+      <c r="AU59" s="6">
         <v>0.31</v>
       </c>
-      <c r="AU59" s="6">
+      <c r="AV59" s="6">
         <v>1.32</v>
       </c>
-      <c r="AV59" s="21">
+      <c r="AW59" s="21">
         <v>1.27</v>
       </c>
-      <c r="AW59" s="22"/>
-    </row>
-    <row r="60" spans="1:49" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX59" s="22"/>
+    </row>
+    <row r="60" spans="1:50" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>2</v>
       </c>
@@ -8735,26 +8904,29 @@
         <v>0.21</v>
       </c>
       <c r="AQ60" s="7">
+        <v>500</v>
+      </c>
+      <c r="AR60" s="7">
         <v>17</v>
       </c>
-      <c r="AR60" s="6">
+      <c r="AS60" s="6">
         <v>50</v>
       </c>
-      <c r="AS60" s="7">
+      <c r="AT60" s="7">
         <v>110</v>
       </c>
-      <c r="AT60" s="6">
+      <c r="AU60" s="6">
         <v>0.31</v>
       </c>
-      <c r="AU60" s="6">
+      <c r="AV60" s="6">
         <v>1.32</v>
       </c>
-      <c r="AV60" s="21">
+      <c r="AW60" s="21">
         <v>1.27</v>
       </c>
-      <c r="AW60" s="22"/>
-    </row>
-    <row r="61" spans="1:49" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX60" s="22"/>
+    </row>
+    <row r="61" spans="1:50" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>2</v>
       </c>
@@ -8864,26 +9036,29 @@
         <v>0.21</v>
       </c>
       <c r="AQ61" s="7">
+        <v>500</v>
+      </c>
+      <c r="AR61" s="7">
         <v>17</v>
       </c>
-      <c r="AR61" s="6">
+      <c r="AS61" s="6">
         <v>50</v>
       </c>
-      <c r="AS61" s="7">
+      <c r="AT61" s="7">
         <v>110</v>
       </c>
-      <c r="AT61" s="6">
+      <c r="AU61" s="6">
         <v>0.31</v>
       </c>
-      <c r="AU61" s="6">
+      <c r="AV61" s="6">
         <v>1.32</v>
       </c>
-      <c r="AV61" s="21">
+      <c r="AW61" s="21">
         <v>1.27</v>
       </c>
-      <c r="AW61" s="22"/>
-    </row>
-    <row r="62" spans="1:49" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX61" s="22"/>
+    </row>
+    <row r="62" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>2</v>
       </c>
@@ -8993,26 +9168,29 @@
         <v>0.21</v>
       </c>
       <c r="AQ62" s="4">
+        <v>500</v>
+      </c>
+      <c r="AR62" s="4">
         <v>17</v>
       </c>
-      <c r="AR62" s="3">
+      <c r="AS62" s="3">
         <v>50</v>
       </c>
-      <c r="AS62" s="4">
+      <c r="AT62" s="4">
         <v>110</v>
       </c>
-      <c r="AT62" s="3">
+      <c r="AU62" s="3">
         <v>0.31</v>
       </c>
-      <c r="AU62" s="3">
+      <c r="AV62" s="3">
         <v>1.32</v>
       </c>
-      <c r="AV62" s="5">
+      <c r="AW62" s="5">
         <v>1.27</v>
       </c>
-      <c r="AW62" s="13"/>
-    </row>
-    <row r="64" spans="1:49" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX62" s="13"/>
+    </row>
+    <row r="64" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -9111,27 +9289,30 @@
       <c r="AP64">
         <v>0.21</v>
       </c>
-      <c r="AQ64">
+      <c r="AQ64" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR64">
         <v>671</v>
       </c>
-      <c r="AR64">
+      <c r="AS64">
         <v>20</v>
       </c>
-      <c r="AS64" s="2">
+      <c r="AT64" s="2">
         <v>-999</v>
       </c>
-      <c r="AT64">
+      <c r="AU64">
         <v>0.38</v>
       </c>
-      <c r="AU64">
+      <c r="AV64">
         <v>0.99</v>
       </c>
-      <c r="AV64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW64" s="14"/>
-    </row>
-    <row r="65" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX64" s="14"/>
+    </row>
+    <row r="65" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>2</v>
       </c>
@@ -9229,27 +9410,30 @@
       <c r="AP65" s="15">
         <v>0.21</v>
       </c>
-      <c r="AQ65" s="15">
+      <c r="AQ65" s="16">
+        <v>500</v>
+      </c>
+      <c r="AR65" s="15">
         <v>671</v>
       </c>
-      <c r="AR65" s="15">
+      <c r="AS65" s="15">
         <v>50</v>
       </c>
-      <c r="AS65" s="18">
+      <c r="AT65" s="18">
         <v>10.7</v>
       </c>
-      <c r="AT65" s="15">
+      <c r="AU65" s="15">
         <v>0.38</v>
       </c>
-      <c r="AU65" s="15">
+      <c r="AV65" s="15">
         <v>0.99</v>
       </c>
-      <c r="AV65" s="17">
-        <v>1</v>
-      </c>
-      <c r="AW65" s="18"/>
-    </row>
-    <row r="66" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW65" s="17">
+        <v>1</v>
+      </c>
+      <c r="AX65" s="18"/>
+    </row>
+    <row r="66" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>2</v>
       </c>
@@ -9349,27 +9533,30 @@
       <c r="AP66" s="6">
         <v>0.21</v>
       </c>
-      <c r="AQ66" s="6">
+      <c r="AQ66" s="7">
+        <v>500</v>
+      </c>
+      <c r="AR66" s="6">
         <v>671</v>
       </c>
-      <c r="AR66" s="6">
+      <c r="AS66" s="6">
         <v>50</v>
       </c>
-      <c r="AS66" s="22">
+      <c r="AT66" s="22">
         <v>10.7</v>
       </c>
-      <c r="AT66" s="6">
+      <c r="AU66" s="6">
         <v>0.38</v>
       </c>
-      <c r="AU66" s="6">
+      <c r="AV66" s="6">
         <v>0.99</v>
       </c>
-      <c r="AV66" s="21">
-        <v>1</v>
-      </c>
-      <c r="AW66" s="22"/>
-    </row>
-    <row r="67" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW66" s="21">
+        <v>1</v>
+      </c>
+      <c r="AX66" s="22"/>
+    </row>
+    <row r="67" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>2</v>
       </c>
@@ -9463,27 +9650,30 @@
       <c r="AP67" s="6">
         <v>0.21</v>
       </c>
-      <c r="AQ67" s="6">
+      <c r="AQ67" s="7">
+        <v>500</v>
+      </c>
+      <c r="AR67" s="6">
         <v>671</v>
       </c>
-      <c r="AR67" s="6">
+      <c r="AS67" s="6">
         <v>50</v>
       </c>
-      <c r="AS67" s="22">
+      <c r="AT67" s="22">
         <v>10.7</v>
       </c>
-      <c r="AT67" s="6">
+      <c r="AU67" s="6">
         <v>0.38</v>
       </c>
-      <c r="AU67" s="6">
+      <c r="AV67" s="6">
         <v>0.99</v>
       </c>
-      <c r="AV67" s="21">
-        <v>1</v>
-      </c>
-      <c r="AW67" s="22"/>
-    </row>
-    <row r="68" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW67" s="21">
+        <v>1</v>
+      </c>
+      <c r="AX67" s="22"/>
+    </row>
+    <row r="68" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>2</v>
       </c>
@@ -9607,27 +9797,30 @@
       <c r="AP68" s="6">
         <v>0.21</v>
       </c>
-      <c r="AQ68" s="6">
+      <c r="AQ68" s="7">
+        <v>500</v>
+      </c>
+      <c r="AR68" s="6">
         <v>671</v>
       </c>
-      <c r="AR68" s="6">
+      <c r="AS68" s="6">
         <v>50</v>
       </c>
-      <c r="AS68" s="22">
+      <c r="AT68" s="22">
         <v>10.7</v>
       </c>
-      <c r="AT68" s="6">
+      <c r="AU68" s="6">
         <v>0.38</v>
       </c>
-      <c r="AU68" s="6">
+      <c r="AV68" s="6">
         <v>0.99</v>
       </c>
-      <c r="AV68" s="21">
-        <v>1</v>
-      </c>
-      <c r="AW68" s="22"/>
-    </row>
-    <row r="69" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW68" s="21">
+        <v>1</v>
+      </c>
+      <c r="AX68" s="22"/>
+    </row>
+    <row r="69" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>2</v>
       </c>
@@ -9744,27 +9937,30 @@
       <c r="AP69" s="3">
         <v>0.21</v>
       </c>
-      <c r="AQ69" s="3">
+      <c r="AQ69" s="4">
+        <v>500</v>
+      </c>
+      <c r="AR69" s="3">
         <v>671</v>
       </c>
-      <c r="AR69" s="3">
+      <c r="AS69" s="3">
         <v>50</v>
       </c>
-      <c r="AS69" s="13">
+      <c r="AT69" s="13">
         <v>10.7</v>
       </c>
-      <c r="AT69" s="3">
+      <c r="AU69" s="3">
         <v>0.38</v>
       </c>
-      <c r="AU69" s="3">
+      <c r="AV69" s="3">
         <v>0.99</v>
       </c>
-      <c r="AV69" s="5">
-        <v>1</v>
-      </c>
-      <c r="AW69" s="13"/>
-    </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW69" s="5">
+        <v>1</v>
+      </c>
+      <c r="AX69" s="13"/>
+    </row>
+    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -9864,26 +10060,29 @@
       <c r="AP70">
         <v>0.21</v>
       </c>
-      <c r="AQ70">
+      <c r="AQ70" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR70">
         <v>673</v>
       </c>
-      <c r="AR70">
+      <c r="AS70">
         <v>50</v>
       </c>
-      <c r="AS70" s="18">
+      <c r="AT70" s="18">
         <v>29.7</v>
       </c>
-      <c r="AT70">
+      <c r="AU70">
         <v>0.38</v>
       </c>
-      <c r="AU70">
+      <c r="AV70">
         <v>0.99</v>
       </c>
-      <c r="AV70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -9981,26 +10180,29 @@
       <c r="AP71">
         <v>0.21</v>
       </c>
-      <c r="AQ71">
+      <c r="AQ71" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR71">
         <v>673</v>
       </c>
-      <c r="AR71">
+      <c r="AS71">
         <v>50</v>
       </c>
-      <c r="AS71" s="14">
+      <c r="AT71" s="14">
         <v>29.7</v>
       </c>
-      <c r="AT71">
+      <c r="AU71">
         <v>0.38</v>
       </c>
-      <c r="AU71">
+      <c r="AV71">
         <v>0.99</v>
       </c>
-      <c r="AV71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -10098,26 +10300,29 @@
       <c r="AP72">
         <v>0.21</v>
       </c>
-      <c r="AQ72">
+      <c r="AQ72" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR72">
         <v>673</v>
       </c>
-      <c r="AR72">
+      <c r="AS72">
         <v>50</v>
       </c>
-      <c r="AS72" s="14">
+      <c r="AT72" s="14">
         <v>29.7</v>
       </c>
-      <c r="AT72">
+      <c r="AU72">
         <v>0.38</v>
       </c>
-      <c r="AU72">
+      <c r="AV72">
         <v>0.99</v>
       </c>
-      <c r="AV72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -10209,26 +10414,29 @@
       <c r="AP73">
         <v>0.21</v>
       </c>
-      <c r="AQ73">
+      <c r="AQ73" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR73">
         <v>673</v>
       </c>
-      <c r="AR73">
+      <c r="AS73">
         <v>50</v>
       </c>
-      <c r="AS73" s="14">
+      <c r="AT73" s="14">
         <v>29.7</v>
       </c>
-      <c r="AT73">
+      <c r="AU73">
         <v>0.38</v>
       </c>
-      <c r="AU73">
+      <c r="AV73">
         <v>0.99</v>
       </c>
-      <c r="AV73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -10326,26 +10534,29 @@
       <c r="AP74">
         <v>0.21</v>
       </c>
-      <c r="AQ74">
+      <c r="AQ74" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR74">
         <v>673</v>
       </c>
-      <c r="AR74">
+      <c r="AS74">
         <v>50</v>
       </c>
-      <c r="AS74" s="14">
+      <c r="AT74" s="14">
         <v>29.7</v>
       </c>
-      <c r="AT74">
+      <c r="AU74">
         <v>0.38</v>
       </c>
-      <c r="AU74">
+      <c r="AV74">
         <v>0.99</v>
       </c>
-      <c r="AV74" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>2</v>
       </c>
@@ -10444,27 +10655,30 @@
       <c r="AP75" s="15">
         <v>0.21</v>
       </c>
-      <c r="AQ75" s="15">
+      <c r="AQ75" s="16">
+        <v>500</v>
+      </c>
+      <c r="AR75" s="15">
         <v>674</v>
       </c>
-      <c r="AR75" s="15">
+      <c r="AS75" s="15">
         <v>50</v>
       </c>
-      <c r="AS75" s="18">
+      <c r="AT75" s="18">
         <v>12.4</v>
       </c>
-      <c r="AT75" s="15">
+      <c r="AU75" s="15">
         <v>0.38</v>
       </c>
-      <c r="AU75" s="15">
+      <c r="AV75" s="15">
         <v>0.99</v>
       </c>
-      <c r="AV75" s="17">
-        <v>1</v>
-      </c>
-      <c r="AW75" s="18"/>
-    </row>
-    <row r="76" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW75" s="17">
+        <v>1</v>
+      </c>
+      <c r="AX75" s="18"/>
+    </row>
+    <row r="76" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>2</v>
       </c>
@@ -10558,27 +10772,30 @@
       <c r="AP76" s="6">
         <v>0.21</v>
       </c>
-      <c r="AQ76" s="6">
+      <c r="AQ76" s="7">
+        <v>500</v>
+      </c>
+      <c r="AR76" s="6">
         <v>674</v>
       </c>
-      <c r="AR76" s="6">
+      <c r="AS76" s="6">
         <v>50</v>
       </c>
-      <c r="AS76" s="22">
+      <c r="AT76" s="22">
         <v>12.4</v>
       </c>
-      <c r="AT76" s="6">
+      <c r="AU76" s="6">
         <v>0.38</v>
       </c>
-      <c r="AU76" s="6">
+      <c r="AV76" s="6">
         <v>0.99</v>
       </c>
-      <c r="AV76" s="21">
-        <v>1</v>
-      </c>
-      <c r="AW76" s="22"/>
-    </row>
-    <row r="77" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW76" s="21">
+        <v>1</v>
+      </c>
+      <c r="AX76" s="22"/>
+    </row>
+    <row r="77" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>2</v>
       </c>
@@ -10678,27 +10895,30 @@
       <c r="AP77" s="3">
         <v>0.21</v>
       </c>
-      <c r="AQ77" s="3">
+      <c r="AQ77" s="4">
+        <v>500</v>
+      </c>
+      <c r="AR77" s="3">
         <v>674</v>
       </c>
-      <c r="AR77" s="3">
+      <c r="AS77" s="3">
         <v>50</v>
       </c>
-      <c r="AS77" s="13">
+      <c r="AT77" s="13">
         <v>12.4</v>
       </c>
-      <c r="AT77" s="3">
+      <c r="AU77" s="3">
         <v>0.38</v>
       </c>
-      <c r="AU77" s="3">
+      <c r="AV77" s="3">
         <v>0.99</v>
       </c>
-      <c r="AV77" s="5">
-        <v>1</v>
-      </c>
-      <c r="AW77" s="13"/>
-    </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW77" s="5">
+        <v>1</v>
+      </c>
+      <c r="AX77" s="13"/>
+    </row>
+    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -10793,22 +11013,25 @@
       <c r="AP78">
         <v>0.21</v>
       </c>
-      <c r="AQ78">
+      <c r="AQ78" s="2">
+        <v>500</v>
+      </c>
+      <c r="AR78">
         <v>674</v>
       </c>
-      <c r="AR78">
+      <c r="AS78">
         <v>50</v>
       </c>
-      <c r="AS78" s="16">
+      <c r="AT78" s="16">
         <v>-999</v>
       </c>
-      <c r="AT78">
+      <c r="AU78">
         <v>0.38</v>
       </c>
-      <c r="AU78">
+      <c r="AV78">
         <v>0.99</v>
       </c>
-      <c r="AV78" s="1">
+      <c r="AW78" s="1">
         <v>1</v>
       </c>
     </row>

--- a/matlab/StateTL_inputdata.xlsx
+++ b/matlab/StateTL_inputdata.xlsx
@@ -9,32 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="8790"/>
   </bookViews>
   <sheets>
     <sheet name="SR" sheetId="13" r:id="rId1"/>
-    <sheet name="stagedischarge" sheetId="14" r:id="rId2"/>
-    <sheet name="defaultmethod" sheetId="7" r:id="rId3"/>
-    <sheet name="evapfactors" sheetId="16" r:id="rId4"/>
-    <sheet name="evap" sheetId="4" r:id="rId5"/>
+    <sheet name="divcorrect" sheetId="18" r:id="rId2"/>
+    <sheet name="needids" sheetId="17" r:id="rId3"/>
+    <sheet name="stagedischarge" sheetId="14" r:id="rId4"/>
+    <sheet name="defaultmethod" sheetId="7" r:id="rId5"/>
+    <sheet name="evapfactors" sheetId="16" r:id="rId6"/>
+    <sheet name="evap" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="243">
   <si>
     <t>Reach</t>
   </si>
@@ -105,9 +96,6 @@
     <t>Fish Hatchery Outfall</t>
   </si>
   <si>
-    <t>Comanche Power Plant</t>
-  </si>
-  <si>
     <t>Northside Water Works</t>
   </si>
   <si>
@@ -663,10 +651,109 @@
     <t>Div2 assesses a 0.95% transit loss for releases from Crooked Creek aug station to mainstem</t>
   </si>
   <si>
-    <t>should probably stub out</t>
-  </si>
-  <si>
     <t>URFThreshold</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>gage</t>
+  </si>
+  <si>
+    <t>water used for replacement; all recent divs listed as Type:7 (release) so exclude T7</t>
+  </si>
+  <si>
+    <t>Fish Hatchery (1403507) Outfall</t>
+  </si>
+  <si>
+    <t>Comanche Power Plant Pump Station</t>
+  </si>
+  <si>
+    <t>confluence - no records</t>
+  </si>
+  <si>
+    <t>use XQ0</t>
+  </si>
+  <si>
+    <t>unmeasured inflow, have conf id</t>
+  </si>
+  <si>
+    <t>gage inflow, no interveining ditches, but 2.5 miles</t>
+  </si>
+  <si>
+    <t>gage inflow, no interveining ditches, 1 mile</t>
+  </si>
+  <si>
+    <t>gage inflow, 0.25 mile or so</t>
+  </si>
+  <si>
+    <t>in this case, these are T7 records!!</t>
+  </si>
+  <si>
+    <t>outfall (not diversion) for hatchery - don't get div records - use Liv avgs, need OID</t>
+  </si>
+  <si>
+    <t>maybe stub</t>
+  </si>
+  <si>
+    <t>sum lots of T7 and one TE records, not T8</t>
+  </si>
+  <si>
+    <t>T7 but not regular divs</t>
+  </si>
+  <si>
+    <t>If inflow, use Type:7,L, and E (but not others) if no XQ0</t>
+  </si>
+  <si>
+    <t>not mapped, actually is a river reach</t>
+  </si>
+  <si>
+    <t>about 1 mile</t>
+  </si>
+  <si>
+    <t>about 3.43 miles</t>
+  </si>
+  <si>
+    <t>maybe stub - new trib</t>
+  </si>
+  <si>
+    <t>gage inflow, blunt pumps after gage (divs 1500736, 737, 738) - ~3mile - maybe stub out</t>
+  </si>
+  <si>
+    <t>diversions only in 2018; S:2 U:0 record but no other codes; 2018 from PR includes short big error in daily rates (664cfs while PR rec says max q 15 cfs)</t>
+  </si>
+  <si>
+    <t>if using TD record, TD record is including T7 records which should be excluded, so need correction to exclude T7 records</t>
+  </si>
+  <si>
+    <t>2018 data includes Q error in March 2018</t>
+  </si>
+  <si>
+    <t>WCnum</t>
+  </si>
+  <si>
+    <t>WCidentifier</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Total (Diversion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamp-Bell Ditch Total (Diversion) consists of T:7 records - these are passed at headgate and T:7 record is quantifying credit to river; need net zero for mass balance for river, but then the T:7 release records could be tracked as releases (one is exchange to PR) </t>
+  </si>
+  <si>
+    <t>newamt</t>
+  </si>
+  <si>
+    <t>Transit Mix-West Pueblo Pit; 1day error in 1403694 S:2 F:1403526.006 U:0 T: G: To: has 664cfs while days before/after are 9.5/5.15 plus 12cfs from 1403694 S:2 F:1403526.231 U:0 T: G: To:</t>
   </si>
 </sst>
 </file>
@@ -1108,13 +1195,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX78"/>
+  <dimension ref="A1:BG78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ1" sqref="AQ1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,58 +1248,58 @@
     <col min="50" max="50" width="6.28515625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="H1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="N1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="Q1" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>1</v>
@@ -1221,24 +1308,24 @@
         <v>2</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X1" s="5"/>
       <c r="Y1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="AA1" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE1" s="26"/>
       <c r="AF1" s="5"/>
@@ -1253,49 +1340,49 @@
         <v>5</v>
       </c>
       <c r="AK1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AL1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AN1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AQ1" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="AT1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AU1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="AX1" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1338,7 +1425,7 @@
       <c r="AW2" s="20"/>
       <c r="AX2" s="19"/>
     </row>
-    <row r="3" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1358,20 +1445,20 @@
         <v>1403526</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H3" s="16">
         <v>1400534</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J3" s="16">
         <f>IF(K3="Inflow",1,IF(K3="Outflow",-1,IF(K3="Gage",0,"")))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
@@ -1388,11 +1475,11 @@
         <v>1</v>
       </c>
       <c r="T3" s="15">
-        <f t="shared" ref="T3:U4" si="0">AA3</f>
+        <f>AA3</f>
         <v>0.2</v>
       </c>
       <c r="U3" s="15">
-        <f t="shared" si="0"/>
+        <f>AB3</f>
         <v>0.9</v>
       </c>
       <c r="V3" s="17">
@@ -1404,7 +1491,7 @@
       </c>
       <c r="X3" s="17"/>
       <c r="Y3" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA3" s="15">
         <v>0.2</v>
@@ -1471,9 +1558,11 @@
       <c r="AW3" s="17">
         <v>0</v>
       </c>
-      <c r="AX3" s="18"/>
-    </row>
-    <row r="4" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX3" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1505,11 +1594,11 @@
         <v>14</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" ref="J4:J62" si="1">IF(K4="Inflow",1,IF(K4="Outflow",-1,IF(K4="Gage",0,"")))</f>
+        <f t="shared" ref="J4:J62" si="0">IF(K4="Inflow",1,IF(K4="Outflow",-1,IF(K4="Gage",0,"")))</f>
         <v>-1</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -1522,13 +1611,15 @@
       <c r="P4" s="4">
         <v>0</v>
       </c>
-      <c r="Q4" s="26"/>
+      <c r="Q4" s="26">
+        <v>1</v>
+      </c>
       <c r="T4" s="3">
-        <f t="shared" si="0"/>
+        <f>AA4</f>
         <v>0.1</v>
       </c>
       <c r="U4" s="3">
-        <f t="shared" si="0"/>
+        <f>AB4</f>
         <v>0.9</v>
       </c>
       <c r="V4" s="5">
@@ -1540,7 +1631,7 @@
       </c>
       <c r="X4" s="5"/>
       <c r="Y4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA4" s="3">
         <v>0.1</v>
@@ -1606,9 +1697,14 @@
       <c r="AW4" s="5">
         <v>0</v>
       </c>
-      <c r="AX4" s="13"/>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX4" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1623,35 +1719,35 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="D5:E20" si="2">E4+1</f>
+        <f t="shared" ref="D5:E20" si="1">E4+1</f>
         <v>3</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:G43" si="3">H4</f>
+        <f t="shared" ref="F5:G43" si="2">H4</f>
         <v>1409500</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Arkansas River above Pueblo</v>
       </c>
       <c r="H5" s="2">
-        <v>1403507</v>
+        <v>1409999</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N5" s="2">
         <v>161</v>
@@ -1667,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="U5">
-        <f t="shared" ref="U5:U43" si="4">ROUND(AB5,1)</f>
+        <f t="shared" ref="U5:U43" si="3">ROUND(AB5,1)</f>
         <v>0.9</v>
       </c>
       <c r="V5" s="1">
@@ -1679,7 +1775,7 @@
         <v>3.947826086956522E-2</v>
       </c>
       <c r="Y5" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z5" s="14"/>
       <c r="AA5" s="14">
@@ -1689,7 +1785,7 @@
         <v>0.9</v>
       </c>
       <c r="AC5" s="1">
-        <f t="shared" ref="AC5:AC15" si="5">AA5/(SUM(AA$5:AA$15))</f>
+        <f t="shared" ref="AC5:AC15" si="4">AA5/(SUM(AA$5:AA$15))</f>
         <v>4.4052863436123343E-2</v>
       </c>
       <c r="AD5" s="29">
@@ -1749,10 +1845,13 @@
       <c r="AW5" s="1">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX5" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>A5</f>
+        <f t="shared" ref="A6:A22" si="5">A5</f>
         <v>2</v>
       </c>
       <c r="B6">
@@ -1763,33 +1862,33 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E6">
+        <v>1409999</v>
+      </c>
+      <c r="G6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="3"/>
-        <v>1403507</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>Fish Hatchery Outfall</v>
       </c>
       <c r="H6" s="2">
         <v>1400618</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1807,7 +1906,7 @@
         <v>0.5</v>
       </c>
       <c r="U6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="V6" s="1">
@@ -1819,7 +1918,7 @@
         <v>1.973913043478261E-2</v>
       </c>
       <c r="Y6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z6">
         <v>201.43</v>
@@ -1831,7 +1930,7 @@
         <v>0.4</v>
       </c>
       <c r="AC6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.2026431718061672E-2</v>
       </c>
       <c r="AD6" s="29">
@@ -1891,47 +1990,50 @@
       <c r="AW6" s="1">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX6" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" ref="A7:C22" si="9">A6</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C15" si="10">C6</f>
+        <f t="shared" ref="C7:C15" si="9">C6</f>
         <v>2</v>
       </c>
       <c r="D7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E7">
+        <v>1400618</v>
+      </c>
+      <c r="G7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="3"/>
-        <v>1400618</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>Comanche Power Plant</v>
+        <v>Comanche Power Plant Pump Station</v>
       </c>
       <c r="H7" s="2">
         <v>1403694</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1949,7 +2051,7 @@
         <v>0.8</v>
       </c>
       <c r="U7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="V7" s="1">
@@ -1961,7 +2063,7 @@
         <v>3.947826086956522E-2</v>
       </c>
       <c r="Y7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z7">
         <f>Z9+2.73</f>
@@ -1976,7 +2078,7 @@
         <v>0.58892988929889367</v>
       </c>
       <c r="AC7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.5502381455532653E-2</v>
       </c>
       <c r="AH7">
@@ -2027,47 +2129,53 @@
       <c r="AW7" s="1">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX7" t="s">
+        <v>215</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="B8">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
       <c r="D8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E8">
+        <v>1403694</v>
+      </c>
+      <c r="G8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="3"/>
-        <v>1403694</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>Transit Mix-West Pueblo Pit</v>
       </c>
       <c r="H8" s="2">
         <v>1400589</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2085,7 +2193,7 @@
         <v>1.8</v>
       </c>
       <c r="U8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.3</v>
       </c>
       <c r="V8" s="1">
@@ -2097,7 +2205,7 @@
         <v>7.8956521739130439E-2</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z8">
         <v>198.72</v>
@@ -2111,7 +2219,7 @@
         <v>1.3110701107011062</v>
       </c>
       <c r="AC8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.903506347838804E-2</v>
       </c>
       <c r="AD8" s="29">
@@ -2171,47 +2279,53 @@
       <c r="AW8" s="1">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX8" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="B9">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
       <c r="D9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E9">
+        <v>1400589</v>
+      </c>
+      <c r="G9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="3"/>
-        <v>1400589</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>Northside Water Works</v>
       </c>
       <c r="H9" s="2">
         <v>1400536</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -2229,7 +2343,7 @@
         <v>0.8</v>
       </c>
       <c r="U9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="V9" s="1">
@@ -2241,7 +2355,7 @@
         <v>2.9608695652173913E-2</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z9">
         <v>197.86</v>
@@ -2255,7 +2369,7 @@
         <v>0.57434094903338229</v>
       </c>
       <c r="AC9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.4622918328003564E-2</v>
       </c>
       <c r="AH9">
@@ -2306,47 +2420,50 @@
       <c r="AW9" s="1">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="B10">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
       <c r="D10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F10" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="E10">
+        <v>1400536</v>
+      </c>
+      <c r="G10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="3"/>
-        <v>1400536</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>Riverside Dairy Ditch</v>
       </c>
       <c r="H10" s="2">
         <v>1400800</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2368,7 +2485,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="U10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.2</v>
       </c>
       <c r="V10" s="1">
@@ -2380,7 +2497,7 @@
         <v>0.18752173913043479</v>
       </c>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z10">
         <f>Z9-4.83</f>
@@ -2395,7 +2512,7 @@
         <v>3.2256590509666174</v>
       </c>
       <c r="AC10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.19445197153983784</v>
       </c>
       <c r="AD10" s="29">
@@ -2455,46 +2572,49 @@
       <c r="AW10" s="1">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="B11">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
       <c r="D11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F11" s="2">
         <v>1400800</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Fountain Creek</v>
       </c>
       <c r="H11" s="2">
         <v>1400620</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N11" s="2">
         <v>49</v>
@@ -2511,7 +2631,7 @@
         <v>0.3</v>
       </c>
       <c r="U11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="V11" s="1">
@@ -2523,7 +2643,7 @@
         <v>1.973913043478261E-2</v>
       </c>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z11" s="1">
         <v>192</v>
@@ -2537,7 +2657,7 @@
         <v>0.24407582938388495</v>
       </c>
       <c r="AC11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.5053134851869553E-2</v>
       </c>
       <c r="AH11">
@@ -2588,47 +2708,50 @@
       <c r="AW11" s="1">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX11" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="B12">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
       <c r="D12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="E12">
+        <v>1400620</v>
+      </c>
+      <c r="G12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="3"/>
-        <v>1400620</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>Pueblo Sewage Treatment Plant Outfall</v>
       </c>
       <c r="H12" s="2">
         <v>1409508</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2646,7 +2769,7 @@
         <v>0.4</v>
       </c>
       <c r="U12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="V12" s="1">
@@ -2658,7 +2781,7 @@
         <v>1.973913043478261E-2</v>
       </c>
       <c r="Y12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z12">
         <f>Z10-2.11</f>
@@ -2673,7 +2796,7 @@
         <v>0.25592417061611505</v>
       </c>
       <c r="AC12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.5783869553416784E-2</v>
       </c>
       <c r="AD12" s="29">
@@ -2733,53 +2856,56 @@
       <c r="AW12" s="1">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="B13">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
       <c r="D13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E13">
+        <v>1409508</v>
+      </c>
+      <c r="G13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="3"/>
-        <v>1409508</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>Salt Creek</v>
       </c>
       <c r="H13" s="2">
         <v>1400539</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N13" s="2">
         <v>67</v>
@@ -2795,7 +2921,7 @@
         <v>5.6</v>
       </c>
       <c r="U13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="V13" s="1">
@@ -2807,7 +2933,7 @@
         <v>0.24673913043478263</v>
       </c>
       <c r="Y13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z13">
         <v>186.27</v>
@@ -2819,7 +2945,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.2466960352422907</v>
       </c>
       <c r="AD13" s="29">
@@ -2879,47 +3005,50 @@
       <c r="AW13" s="1">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="B14">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
       <c r="D14">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E14">
+        <v>1400539</v>
+      </c>
+      <c r="G14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="3"/>
-        <v>1400539</v>
-      </c>
-      <c r="G14" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>Excelsior Ditch</v>
       </c>
       <c r="H14" s="2">
         <v>1509501</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2937,7 +3066,7 @@
         <v>2.7</v>
       </c>
       <c r="U14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="V14" s="1">
@@ -2949,7 +3078,7 @@
         <v>0.11843478260869565</v>
       </c>
       <c r="Y14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14">
@@ -2959,7 +3088,7 @@
         <v>2</v>
       </c>
       <c r="AC14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.11894273127753303</v>
       </c>
       <c r="AD14" s="29">
@@ -3019,33 +3148,36 @@
       <c r="AW14" s="1">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="15" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="B15" s="3">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
       <c r="D15" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F15" s="4">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E15" s="3">
+        <v>1509501</v>
+      </c>
+      <c r="G15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="3"/>
-        <v>1509501</v>
-      </c>
-      <c r="G15" s="5" t="str">
-        <f t="shared" si="3"/>
         <v>St. Charles River</v>
       </c>
       <c r="H15" s="4">
@@ -3055,17 +3187,17 @@
         <v>15</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N15" s="4">
         <v>5</v>
@@ -3082,7 +3214,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.3</v>
       </c>
       <c r="V15" s="5">
@@ -3095,7 +3227,7 @@
       </c>
       <c r="X15" s="5"/>
       <c r="Y15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA15" s="3">
         <v>4.4000000000000004</v>
@@ -3104,7 +3236,7 @@
         <v>3.3</v>
       </c>
       <c r="AC15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.19383259911894271</v>
       </c>
       <c r="AD15" s="26">
@@ -3164,11 +3296,16 @@
       <c r="AW15" s="5">
         <v>1.17</v>
       </c>
-      <c r="AX15" s="13"/>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX15" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG15" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="B16">
@@ -3182,35 +3319,35 @@
         <v>1</v>
       </c>
       <c r="E16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F16" s="2">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="3"/>
         <v>1409503</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Arkansas River near Avondale</v>
       </c>
       <c r="H16" s="2">
         <v>1420020</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N16" s="2">
         <v>283</v>
@@ -3226,18 +3363,18 @@
         <v>0.3</v>
       </c>
       <c r="U16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="V16" s="1">
         <v>0.01</v>
       </c>
       <c r="W16" s="1">
-        <f t="shared" ref="W16:W22" si="11">3.9*V16*(SUM(AA$16:AA$22)/SUM(AA$16:AA$37))</f>
+        <f t="shared" ref="W16:W22" si="10">3.9*V16*(SUM(AA$16:AA$22)/SUM(AA$16:AA$37))</f>
         <v>1.1567796610169491E-2</v>
       </c>
       <c r="Y16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA16">
         <v>0.3</v>
@@ -3246,7 +3383,7 @@
         <v>0.2</v>
       </c>
       <c r="AC16" s="1">
-        <f t="shared" ref="AC16:AC22" si="12">AA16/(SUM(AA$16:AA$22))</f>
+        <f t="shared" ref="AC16:AC22" si="11">AA16/(SUM(AA$16:AA$22))</f>
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="AD16" s="29">
@@ -3308,45 +3445,45 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="B17">
         <v>17</v>
       </c>
       <c r="C17">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C17:C22" si="12">C16</f>
         <v>3</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F17" s="2">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="3"/>
         <v>1420020</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Sixmile Creek</v>
       </c>
       <c r="H17" s="2">
         <v>1400538</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -3364,18 +3501,18 @@
         <v>2.9</v>
       </c>
       <c r="U17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
       <c r="V17" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="W17" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.16194915254237288</v>
       </c>
       <c r="Y17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA17">
         <v>2.9</v>
@@ -3384,7 +3521,7 @@
         <v>2.1</v>
       </c>
       <c r="AC17" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.1380952380952381</v>
       </c>
       <c r="AD17" s="29">
@@ -3445,46 +3582,49 @@
       <c r="AW17" s="1">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX17" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="3"/>
         <v>1400538</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Collier Ditch</v>
       </c>
       <c r="H18" s="2">
         <v>1700540</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -3502,18 +3642,18 @@
         <v>3.3</v>
       </c>
       <c r="U18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
       <c r="V18" s="1">
         <v>0.16</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.18508474576271186</v>
       </c>
       <c r="Y18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA18">
         <v>3.3</v>
@@ -3522,7 +3662,7 @@
         <v>2.4</v>
       </c>
       <c r="AC18" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.15714285714285714</v>
       </c>
       <c r="AD18" s="29">
@@ -3583,52 +3723,55 @@
       <c r="AW18" s="1">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="E19">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="F19" s="2">
         <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="3"/>
         <v>1700540</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Colorado Canal</v>
       </c>
       <c r="H19" s="2">
         <v>1409506</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
@@ -3644,18 +3787,18 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="U19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.4</v>
       </c>
       <c r="V19" s="1">
         <v>0.22</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.25449152542372877</v>
       </c>
       <c r="Y19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA19">
         <v>4.5999999999999996</v>
@@ -3664,7 +3807,7 @@
         <v>3.4</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.21904761904761902</v>
       </c>
       <c r="AD19" s="29">
@@ -3725,52 +3868,55 @@
       <c r="AW19" s="1">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="B20">
         <v>17</v>
       </c>
       <c r="C20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
       <c r="E20">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F20" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="3"/>
         <v>1409506</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Huerfano River</v>
       </c>
       <c r="H20" s="2">
         <v>1700542</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N20" s="2">
         <v>1</v>
@@ -3786,18 +3932,18 @@
         <v>0.5</v>
       </c>
       <c r="U20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="V20" s="1">
         <v>0.02</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.3135593220338983E-2</v>
       </c>
       <c r="Y20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA20">
         <v>0.5</v>
@@ -3806,7 +3952,7 @@
         <v>0.4</v>
       </c>
       <c r="AC20" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.3809523809523808E-2</v>
       </c>
       <c r="AD20" s="29">
@@ -3867,17 +4013,24 @@
       <c r="AW20" s="1">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX20" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="BG20" t="str">
+        <f>ROUND(5280/3/60/60,2) &amp;"hr"</f>
+        <v>0.49hr</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="B21">
         <v>17</v>
       </c>
       <c r="C21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="D21">
@@ -3888,31 +4041,31 @@
         <v>19</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1700542</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Rocky Ford Highline</v>
       </c>
       <c r="H21" s="2">
         <v>1700541</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N21" s="2">
         <v>129</v>
@@ -3928,18 +4081,18 @@
         <v>6.5</v>
       </c>
       <c r="U21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.8</v>
       </c>
       <c r="V21" s="1">
         <v>0.31</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.35860169491525423</v>
       </c>
       <c r="Y21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA21">
         <v>6.5</v>
@@ -3948,7 +4101,7 @@
         <v>4.8</v>
       </c>
       <c r="AC21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.30952380952380953</v>
       </c>
       <c r="AD21" s="29">
@@ -4009,17 +4162,20 @@
       <c r="AW21" s="1">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="22" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="B22" s="3">
         <v>17</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="D22" s="3">
@@ -4030,11 +4186,11 @@
         <v>20</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1700541</v>
       </c>
       <c r="G22" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Oxford Farmers Ditch</v>
       </c>
       <c r="H22" s="4">
@@ -4044,17 +4200,17 @@
         <v>16</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N22" s="4">
         <v>17</v>
@@ -4071,19 +4227,19 @@
         <v>2.9</v>
       </c>
       <c r="U22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
       <c r="V22" s="5">
         <v>0.14000000000000001</v>
       </c>
       <c r="W22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.16194915254237288</v>
       </c>
       <c r="X22" s="5"/>
       <c r="Y22" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA22" s="3">
         <v>2.9</v>
@@ -4092,7 +4248,7 @@
         <v>2.1</v>
       </c>
       <c r="AC22" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.1380952380952381</v>
       </c>
       <c r="AD22" s="26">
@@ -4153,9 +4309,11 @@
       <c r="AW22" s="5">
         <v>1.05</v>
       </c>
-      <c r="AX22" s="13"/>
-    </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX22" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ref="A23:C38" si="14">A22</f>
         <v>2</v>
@@ -4175,31 +4333,31 @@
         <v>21</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1409502</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Arkansas River near Nepesta</v>
       </c>
       <c r="H23" s="2">
         <v>1700557</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N23" s="2">
         <v>155</v>
@@ -4215,7 +4373,7 @@
         <v>9.6</v>
       </c>
       <c r="U23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.1</v>
       </c>
       <c r="V23" s="1">
@@ -4226,7 +4384,7 @@
         <v>0.52352542372881361</v>
       </c>
       <c r="Y23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA23">
         <v>9.6</v>
@@ -4297,7 +4455,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -4318,31 +4476,31 @@
         <v>22</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1700557</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Otero Canal</v>
       </c>
       <c r="H24" s="2">
         <v>1709502</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
@@ -4358,7 +4516,7 @@
         <v>5.8</v>
       </c>
       <c r="U24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.3</v>
       </c>
       <c r="V24" s="1">
@@ -4369,7 +4527,7 @@
         <v>0.31993220338983053</v>
       </c>
       <c r="Y24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA24">
         <v>5.8</v>
@@ -4438,8 +4596,11 @@
       <c r="AW24" s="1">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -4460,11 +4621,11 @@
         <v>23</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1709502</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Apishapa River</v>
       </c>
       <c r="H25" s="2">
@@ -4474,17 +4635,17 @@
         <v>20</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N25" s="2">
         <v>4</v>
@@ -4500,7 +4661,7 @@
         <v>2.1</v>
       </c>
       <c r="U25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="V25" s="1">
@@ -4511,7 +4672,7 @@
         <v>0.11633898305084747</v>
       </c>
       <c r="Y25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z25">
         <v>142.18</v>
@@ -4574,10 +4735,14 @@
         <v>1.05</v>
       </c>
       <c r="AX25" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="BG25" t="str">
+        <f>ROUND(2.5*5280/3/60/60,1) &amp;"hr maybe stub"</f>
+        <v>1.2hr maybe stub</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -4598,11 +4763,11 @@
         <v>24</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1700552</v>
       </c>
       <c r="G26" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Catlin Canal</v>
       </c>
       <c r="H26" s="4">
@@ -4612,17 +4777,17 @@
         <v>17</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N26" s="4">
         <v>132</v>
@@ -4639,7 +4804,7 @@
         <v>0.1</v>
       </c>
       <c r="U26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="V26" s="5">
@@ -4651,7 +4816,7 @@
       </c>
       <c r="X26" s="5"/>
       <c r="Y26" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z26" s="3">
         <v>142.19</v>
@@ -4724,9 +4889,11 @@
       <c r="AW26" s="5">
         <v>1.05</v>
       </c>
-      <c r="AX26" s="13"/>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX26" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -4746,31 +4913,31 @@
         <v>25</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1709503</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Arkansas River at Catlin Dam</v>
       </c>
       <c r="H27" s="2">
         <v>1700554</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N27" s="2">
         <v>101</v>
@@ -4786,19 +4953,19 @@
         <v>6.3</v>
       </c>
       <c r="U27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.7</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" ref="V27" si="15">ROUND(AC27,2)</f>
+        <f>ROUND(AC27,2)</f>
         <v>0.35</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" ref="W27:W32" si="16">3.9*V27*(SUM(AA$27:AA$32)/SUM(AA$16:AA$37))</f>
+        <f t="shared" ref="W27:W32" si="15">3.9*V27*(SUM(AA$27:AA$32)/SUM(AA$16:AA$37))</f>
         <v>0.34703389830508474</v>
       </c>
       <c r="Y27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA27">
         <v>6.3</v>
@@ -4807,7 +4974,7 @@
         <v>4.7</v>
       </c>
       <c r="AC27" s="31">
-        <f>AA27/(SUM(AA$27:AA$32))</f>
+        <f t="shared" ref="AC27:AC32" si="16">AA27/(SUM(AA$27:AA$32))</f>
         <v>0.35</v>
       </c>
       <c r="AD27" s="29">
@@ -4869,7 +5036,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -4890,31 +5057,31 @@
         <v>26</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1700554</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Holbrook Canal</v>
       </c>
       <c r="H28" s="2">
         <v>1700558</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N28" s="2">
         <v>0</v>
@@ -4930,18 +5097,18 @@
         <v>1.5</v>
       </c>
       <c r="U28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="V28" s="1">
         <v>0.08</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>7.9322033898305083E-2</v>
       </c>
       <c r="Y28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA28">
         <v>1.5</v>
@@ -4950,7 +5117,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AC28" s="31">
-        <f>AA28/(SUM(AA$27:AA$32))</f>
+        <f t="shared" si="16"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="AD28" s="29">
@@ -5011,8 +5178,11 @@
       <c r="AW28" s="1">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX28" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -5033,31 +5203,31 @@
         <v>27</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1700558</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Rocky Ford Ditch</v>
       </c>
       <c r="H29" s="2">
         <v>1700648</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N29" s="2">
         <v>83</v>
@@ -5073,18 +5243,18 @@
         <v>1</v>
       </c>
       <c r="U29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
       <c r="V29" s="1">
         <v>0.06</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>5.9491525423728805E-2</v>
       </c>
       <c r="Y29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z29">
         <v>132.29</v>
@@ -5096,7 +5266,7 @@
         <v>0.7</v>
       </c>
       <c r="AC29" s="31">
-        <f t="shared" ref="AC29:AC32" si="17">AA29/(SUM(AA$27:AA$32))</f>
+        <f t="shared" si="16"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="AD29" s="29">
@@ -5157,8 +5327,11 @@
       <c r="AW29" s="1">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX29" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -5179,11 +5352,11 @@
         <v>28</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1700648</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Fort Lyon Storage Canal</v>
       </c>
       <c r="H30" s="2">
@@ -5193,17 +5366,17 @@
         <v>21</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
@@ -5219,18 +5392,18 @@
         <v>1.3</v>
       </c>
       <c r="U30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V30" s="1">
         <v>0.08</v>
       </c>
       <c r="W30" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>7.9322033898305083E-2</v>
       </c>
       <c r="Y30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z30">
         <f>Z29-1.4</f>
@@ -5245,7 +5418,7 @@
         <v>0.99270072992701253</v>
       </c>
       <c r="AC30" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>7.4614760746147993E-2</v>
       </c>
       <c r="AF30" s="1"/>
@@ -5298,8 +5471,11 @@
       <c r="AW30" s="1">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX30" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -5320,31 +5496,31 @@
         <v>29</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1700668</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Rocky Ford Return</v>
       </c>
       <c r="H31" s="2">
         <v>1703525</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N31" s="2">
         <v>24</v>
@@ -5360,18 +5536,18 @@
         <v>1.3</v>
       </c>
       <c r="U31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V31" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>6.9406779661016951E-2</v>
       </c>
       <c r="Y31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z31">
         <f>Z29-2.77</f>
@@ -5386,7 +5562,7 @@
         <v>0.97142857142857564</v>
       </c>
       <c r="AC31" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>7.3015873015873339E-2</v>
       </c>
       <c r="AF31" s="1"/>
@@ -5439,8 +5615,14 @@
       <c r="AW31" s="1">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="32" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX31" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -5461,31 +5643,31 @@
         <v>30</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1703525</v>
       </c>
       <c r="G32" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Lake Meredith Outfall</v>
       </c>
       <c r="H32" s="4">
         <v>1709507</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N32" s="4">
         <v>72</v>
@@ -5504,19 +5686,19 @@
         <v>6.5</v>
       </c>
       <c r="U32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.8</v>
       </c>
       <c r="V32" s="5">
         <v>0.36</v>
       </c>
       <c r="W32" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0.35694915254237286</v>
       </c>
       <c r="X32" s="5"/>
       <c r="Y32" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z32" s="3">
         <v>122.7</v>
@@ -5530,7 +5712,7 @@
         <v>4.8358706986444115</v>
       </c>
       <c r="AC32" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0.36348047734908973</v>
       </c>
       <c r="AD32" s="26">
@@ -5591,9 +5773,11 @@
       <c r="AW32" s="5">
         <v>1.05</v>
       </c>
-      <c r="AX32" s="13"/>
-    </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX32" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -5613,31 +5797,31 @@
         <v>31</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1709507</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Arkansas River near Rocky Ford</v>
       </c>
       <c r="H33" s="2">
         <v>1709520</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N33" s="2">
         <v>107</v>
@@ -5653,7 +5837,7 @@
         <v>6.4</v>
       </c>
       <c r="U33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.7</v>
       </c>
       <c r="V33" s="1">
@@ -5665,7 +5849,7 @@
         <v>0.3519915254237288</v>
       </c>
       <c r="Y33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z33">
         <f>ROUND(Z32-5.6650572,2)</f>
@@ -5740,7 +5924,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -5764,21 +5948,21 @@
         <v>1709998</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Timpas Creek</v>
       </c>
       <c r="H34" s="2">
         <v>1703511</v>
       </c>
       <c r="I34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -5796,11 +5980,11 @@
         <v>0.9</v>
       </c>
       <c r="U34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="V34" s="1">
-        <f t="shared" ref="V34:V35" si="18">ROUND(AC34,2)</f>
+        <f>ROUND(AC34,2)</f>
         <v>0.06</v>
       </c>
       <c r="W34" s="1">
@@ -5808,7 +5992,7 @@
         <v>4.6932203389830507E-2</v>
       </c>
       <c r="Y34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z34">
         <f>ROUND(Z33-0.894105618177762,2)</f>
@@ -5823,7 +6007,7 @@
         <v>0.62756410256410211</v>
       </c>
       <c r="AC34" s="1">
-        <f t="shared" ref="AC34:AC37" si="19">AA34/(SUM(AA$33:AA$37))</f>
+        <f>AA34/(SUM(AA$33:AA$37))</f>
         <v>6.0265438786565498E-2</v>
       </c>
       <c r="AF34" s="1"/>
@@ -5877,10 +6061,10 @@
         <v>1.04</v>
       </c>
       <c r="AX34" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -5889,7 +6073,7 @@
         <v>17</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:C37" si="20">C34</f>
+        <f>C34</f>
         <v>6</v>
       </c>
       <c r="D35">
@@ -5901,31 +6085,31 @@
         <v>33</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1703511</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Holbrook Reservoir Outfall</v>
       </c>
       <c r="H35" s="2">
         <v>1700553</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N35" s="2">
         <v>0</v>
@@ -5944,19 +6128,19 @@
         <v>2.1</v>
       </c>
       <c r="U35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
       <c r="V35" s="1">
-        <f t="shared" si="18"/>
+        <f>ROUND(AC35,2)</f>
         <v>0.15</v>
       </c>
       <c r="W35" s="1">
-        <f t="shared" ref="W35:W36" si="21">3.9*V35*(SUM(AA$33:AA$37)/SUM(AA$16:AA$37))</f>
+        <f>3.9*V35*(SUM(AA$33:AA$37)/SUM(AA$16:AA$37))</f>
         <v>0.11733050847457627</v>
       </c>
       <c r="Y35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z35">
         <v>113.91</v>
@@ -5970,7 +6154,7 @@
         <v>1.5724358974358981</v>
       </c>
       <c r="AC35" s="1">
-        <f t="shared" si="19"/>
+        <f>AA35/(SUM(AA$33:AA$37))</f>
         <v>0.15100216684723733</v>
       </c>
       <c r="AD35" s="29">
@@ -6031,8 +6215,11 @@
       <c r="AW35" s="1">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX35" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -6041,7 +6228,7 @@
         <v>17</v>
       </c>
       <c r="C36">
-        <f t="shared" si="20"/>
+        <f>C35</f>
         <v>6</v>
       </c>
       <c r="D36">
@@ -6053,31 +6240,31 @@
         <v>34</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1700553</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Fort Lyon Canal</v>
       </c>
       <c r="H36" s="2">
         <v>1709999</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N36" s="2">
         <v>152</v>
@@ -6093,18 +6280,18 @@
         <v>1.7</v>
       </c>
       <c r="U36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.3</v>
       </c>
       <c r="V36" s="1">
         <v>0.12</v>
       </c>
       <c r="W36" s="1">
-        <f t="shared" si="21"/>
+        <f>3.9*V36*(SUM(AA$33:AA$37)/SUM(AA$16:AA$37))</f>
         <v>9.3864406779661014E-2</v>
       </c>
       <c r="Y36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA36">
         <v>1.7</v>
@@ -6113,7 +6300,7 @@
         <v>1.3</v>
       </c>
       <c r="AC36" s="1">
-        <f t="shared" si="19"/>
+        <f>AA36/(SUM(AA$33:AA$37))</f>
         <v>0.11971830985915494</v>
       </c>
       <c r="AD36" s="29">
@@ -6174,8 +6361,11 @@
       <c r="AW36" s="1">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="37" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX36" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -6184,23 +6374,23 @@
         <v>17</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="20"/>
+        <f>C36</f>
         <v>6</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" ref="D37:E43" si="22">D36+1</f>
+        <f t="shared" ref="D37:E43" si="17">D36+1</f>
         <v>5</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1709999</v>
       </c>
       <c r="G37" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Crooked Arroyo</v>
       </c>
       <c r="H37" s="4">
@@ -6210,11 +6400,11 @@
         <v>18</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -6233,7 +6423,7 @@
         <v>3.1</v>
       </c>
       <c r="U37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="V37" s="5">
@@ -6245,7 +6435,7 @@
       </c>
       <c r="X37" s="5"/>
       <c r="Y37" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA37" s="3">
         <v>3.1</v>
@@ -6254,7 +6444,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AC37" s="5">
-        <f t="shared" si="19"/>
+        <f>AA37/(SUM(AA$33:AA$37))</f>
         <v>0.21830985915492959</v>
       </c>
       <c r="AD37" s="26">
@@ -6316,10 +6506,10 @@
         <v>1.04</v>
       </c>
       <c r="AX37" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -6335,35 +6525,35 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>36</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1709504</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Arkansas River at La Junta</v>
       </c>
       <c r="H38" s="2">
         <v>1720017</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N38" s="2">
         <v>12</v>
@@ -6379,7 +6569,7 @@
         <v>0.1</v>
       </c>
       <c r="U38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="V38" s="1">
@@ -6390,7 +6580,7 @@
         <v>2.4035608308605343E-2</v>
       </c>
       <c r="Y38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA38">
         <v>0.1</v>
@@ -6460,45 +6650,45 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" ref="A39:C43" si="23">A38</f>
+        <f t="shared" ref="A39:C43" si="18">A38</f>
         <v>2</v>
       </c>
       <c r="B39">
         <v>17</v>
       </c>
       <c r="C39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>37</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1720017</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>King Arroyo</v>
       </c>
       <c r="H39" s="2">
         <v>1700556</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -6516,7 +6706,7 @@
         <v>16.3</v>
       </c>
       <c r="U39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="V39" s="1">
@@ -6527,7 +6717,7 @@
         <v>1.4421364985163203</v>
       </c>
       <c r="Y39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA39">
         <v>16.3</v>
@@ -6597,52 +6787,55 @@
       <c r="AW39" s="1">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX39" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="B40">
         <v>17</v>
       </c>
       <c r="C40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>38</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1700556</v>
       </c>
       <c r="G40" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Las Animas Consolidated Ditch</v>
       </c>
       <c r="H40" s="2">
         <v>1709514</v>
       </c>
       <c r="I40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J40" s="2">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="M40" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N40" s="2">
         <v>27</v>
@@ -6658,7 +6851,7 @@
         <v>1.6</v>
       </c>
       <c r="U40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
       <c r="V40" s="1">
@@ -6669,7 +6862,7 @@
         <v>0.14421364985163204</v>
       </c>
       <c r="Y40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA40">
         <v>1.6</v>
@@ -6739,32 +6932,35 @@
       <c r="AW40" s="1">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="41" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX40" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="B41" s="3">
         <v>17</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="D41" s="3">
         <v>4</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>39</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1709514</v>
       </c>
       <c r="G41" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Horse Creek</v>
       </c>
       <c r="H41" s="4">
@@ -6774,17 +6970,17 @@
         <v>19</v>
       </c>
       <c r="J41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N41" s="4">
         <v>7</v>
@@ -6801,7 +6997,7 @@
         <v>9</v>
       </c>
       <c r="U41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6.7</v>
       </c>
       <c r="V41" s="5">
@@ -6813,7 +7009,7 @@
       </c>
       <c r="X41" s="5"/>
       <c r="Y41" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA41" s="3">
         <v>9</v>
@@ -6883,11 +7079,13 @@
       <c r="AW41" s="5">
         <v>1.02</v>
       </c>
-      <c r="AX41" s="13"/>
-    </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AX41" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="B42">
@@ -6901,35 +7099,35 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1709505</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Arkansas River at Las Animas</v>
       </c>
       <c r="H42" s="2">
         <v>1709518</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N42" s="2">
         <v>25</v>
@@ -6945,7 +7143,7 @@
         <v>3.7</v>
       </c>
       <c r="U42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.7</v>
       </c>
       <c r="V42" s="1">
@@ -6956,7 +7154,7 @@
         <v>0.32804154302670624</v>
       </c>
       <c r="Y42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA42">
         <v>3.7</v>
@@ -7028,9 +7226,9 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="43" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="B43" s="3">
@@ -7044,35 +7242,35 @@
         <v>2</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>41</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1709518</v>
       </c>
       <c r="G43" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>Purgatorie River</v>
       </c>
       <c r="H43" s="4">
         <v>6703512</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N43" s="4">
         <v>6</v>
@@ -7089,7 +7287,7 @@
         <v>3</v>
       </c>
       <c r="U43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="V43" s="5">
@@ -7101,7 +7299,7 @@
       </c>
       <c r="X43" s="5"/>
       <c r="Y43" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA43" s="3">
         <v>3</v>
@@ -7172,9 +7370,14 @@
       <c r="AW43" s="5">
         <v>1.01</v>
       </c>
-      <c r="AX43" s="13"/>
-    </row>
-    <row r="44" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX43" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="BG43" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -7217,7 +7420,7 @@
       <c r="AW44" s="20"/>
       <c r="AX44" s="19"/>
     </row>
-    <row r="45" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>2</v>
       </c>
@@ -7237,26 +7440,26 @@
         <v>1700800</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H45" s="16">
         <v>1709520</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J45" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N45" s="16">
         <v>1</v>
@@ -7288,7 +7491,7 @@
       </c>
       <c r="X45" s="17"/>
       <c r="Y45" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Z45" s="15">
         <v>10.58</v>
@@ -7347,12 +7550,12 @@
         <v>0</v>
       </c>
       <c r="AX45" s="18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <f t="shared" ref="A46" si="24">A45</f>
+        <f>A45</f>
         <v>2</v>
       </c>
       <c r="B46" s="3">
@@ -7368,31 +7571,31 @@
         <v>2</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" ref="F46" si="25">H45</f>
+        <f>H45</f>
         <v>1709520</v>
       </c>
       <c r="G46" s="5" t="str">
-        <f t="shared" ref="G46" si="26">I45</f>
+        <f>I45</f>
         <v>Timpas Creek near Swink</v>
       </c>
       <c r="H46" s="4">
         <v>1709998</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N46" s="4">
         <v>21</v>
@@ -7421,7 +7624,7 @@
       </c>
       <c r="X46" s="5"/>
       <c r="Y46" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Z46" s="3">
         <v>2.87</v>
@@ -7480,10 +7683,10 @@
         <v>0</v>
       </c>
       <c r="AX46" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:50" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:59" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -7518,7 +7721,7 @@
       <c r="AW47" s="21"/>
       <c r="AX47" s="22"/>
     </row>
-    <row r="48" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:59" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>2</v>
       </c>
@@ -7538,26 +7741,26 @@
         <v>1700801</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H48" s="16">
         <v>1709510</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J48" s="16">
-        <f t="shared" ref="J48:J50" si="27">IF(K48="Inflow",1,IF(K48="Outflow",-1,IF(K48="Gage",0,"")))</f>
+        <f>IF(K48="Inflow",1,IF(K48="Outflow",-1,IF(K48="Gage",0,"")))</f>
         <v>1</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N48" s="16">
         <v>1</v>
@@ -7572,11 +7775,11 @@
         <v>1</v>
       </c>
       <c r="T48" s="15">
-        <f t="shared" ref="T48:T50" si="28">AA48</f>
+        <f>AA48</f>
         <v>3.97</v>
       </c>
       <c r="U48" s="15">
-        <f t="shared" ref="U48:U50" si="29">T48</f>
+        <f>T48</f>
         <v>3.97</v>
       </c>
       <c r="V48" s="17">
@@ -7589,7 +7792,7 @@
       </c>
       <c r="X48" s="17"/>
       <c r="Y48" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z48" s="15">
         <v>6.2</v>
@@ -7659,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.25">
@@ -7682,26 +7885,26 @@
         <v>1709510</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H49" s="2">
         <v>1700577</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J49" s="2">
-        <f t="shared" si="27"/>
+        <f>IF(K49="Inflow",1,IF(K49="Outflow",-1,IF(K49="Gage",0,"")))</f>
         <v>0</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N49" s="2">
         <v>4</v>
@@ -7713,11 +7916,11 @@
         <v>32</v>
       </c>
       <c r="T49">
-        <f t="shared" si="28"/>
+        <f>AA49</f>
         <v>0.8899999999999999</v>
       </c>
       <c r="U49">
-        <f t="shared" si="29"/>
+        <f>T49</f>
         <v>0.8899999999999999</v>
       </c>
       <c r="V49" s="1">
@@ -7725,11 +7928,11 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="W49" s="1">
-        <f t="shared" ref="W49:W50" si="30">0.95*V49</f>
+        <f>0.95*V49</f>
         <v>0.13300000000000001</v>
       </c>
       <c r="Y49" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z49">
         <v>2.23</v>
@@ -7797,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7820,20 +8023,20 @@
         <v>1700577</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H50" s="4">
         <v>1709999</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J50" s="4">
-        <f t="shared" si="27"/>
+        <f>IF(K50="Inflow",1,IF(K50="Outflow",-1,IF(K50="Gage",0,"")))</f>
         <v>-1</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -7848,11 +8051,11 @@
       </c>
       <c r="Q50" s="26"/>
       <c r="T50" s="3">
-        <f t="shared" si="28"/>
+        <f>AA50</f>
         <v>1.34</v>
       </c>
       <c r="U50" s="3">
-        <f t="shared" si="29"/>
+        <f>T50</f>
         <v>1.34</v>
       </c>
       <c r="V50" s="5">
@@ -7860,12 +8063,12 @@
         <v>0.22</v>
       </c>
       <c r="W50" s="5">
-        <f t="shared" si="30"/>
+        <f>0.95*V50</f>
         <v>0.20899999999999999</v>
       </c>
       <c r="X50" s="5"/>
       <c r="Y50" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z50" s="3">
         <v>1.34</v>
@@ -7991,20 +8194,20 @@
         <v>1103503</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H52" s="16">
         <v>1109518</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J52" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L52" s="16"/>
       <c r="M52" s="16"/>
@@ -8021,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="T52" s="15">
-        <f t="shared" ref="T52" si="31">AA52</f>
+        <f>AA52</f>
         <v>1.71</v>
       </c>
       <c r="U52" s="15">
@@ -8037,7 +8240,7 @@
       </c>
       <c r="X52" s="17"/>
       <c r="Y52" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z52" s="15">
         <v>1.71</v>
@@ -8121,26 +8324,26 @@
         <v>1109518</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H53" s="4">
         <v>1120002</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N53" s="4">
         <v>5</v>
@@ -8155,7 +8358,7 @@
         <v>1</v>
       </c>
       <c r="T53" s="3">
-        <f t="shared" ref="T53:T62" si="32">AA53</f>
+        <f t="shared" ref="T53:T62" si="19">AA53</f>
         <v>1.71</v>
       </c>
       <c r="U53" s="3">
@@ -8171,7 +8374,7 @@
       </c>
       <c r="X53" s="5"/>
       <c r="Y53" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z53" s="3">
         <v>1.71</v>
@@ -8298,20 +8501,20 @@
         <v>1003657</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H55" s="16">
         <v>1009999</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J55" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
@@ -8416,20 +8619,20 @@
         <v>1009999</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H56" s="7">
         <v>1009510</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J56" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
@@ -8532,26 +8735,26 @@
         <v>1009510</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H57" s="4">
         <v>1400800</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J57" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N57" s="4">
         <v>49</v>
@@ -8641,7 +8844,7 @@
       <c r="W58" s="21"/>
       <c r="X58" s="21"/>
       <c r="Y58" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z58" s="6">
         <v>361.99</v>
@@ -8678,26 +8881,26 @@
         <v>1109504</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H59" s="7">
         <v>1120002</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J59" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N59" s="6">
         <v>5</v>
@@ -8710,7 +8913,7 @@
       </c>
       <c r="Q59" s="30"/>
       <c r="T59" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>14.889999999999986</v>
       </c>
       <c r="U59" s="7">
@@ -8726,7 +8929,7 @@
       </c>
       <c r="X59" s="21"/>
       <c r="Y59" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z59" s="6">
         <v>347.1</v>
@@ -8814,20 +9017,20 @@
         <v>1120002</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H60" s="7">
         <v>1109501</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J60" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
@@ -8842,15 +9045,15 @@
       </c>
       <c r="Q60" s="30"/>
       <c r="T60" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>48.330000000000041</v>
       </c>
       <c r="U60" s="7">
-        <f t="shared" ref="U60:U62" si="33">T60</f>
+        <f>T60</f>
         <v>48.330000000000041</v>
       </c>
       <c r="V60" s="21">
-        <f t="shared" ref="V60" si="34">AC60</f>
+        <f>AC60</f>
         <v>0.76447326795317971</v>
       </c>
       <c r="W60" s="21">
@@ -8858,7 +9061,7 @@
       </c>
       <c r="X60" s="21"/>
       <c r="Y60" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z60" s="6">
         <v>298.77</v>
@@ -8946,26 +9149,26 @@
         <v>1109501</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H61" s="7">
         <v>1209502</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J61" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N61" s="6">
         <v>5</v>
@@ -8978,11 +9181,11 @@
       </c>
       <c r="Q61" s="30"/>
       <c r="T61" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>73.72999999999999</v>
       </c>
       <c r="U61" s="7">
-        <f t="shared" si="33"/>
+        <f>T61</f>
         <v>73.72999999999999</v>
       </c>
       <c r="V61" s="21">
@@ -8993,7 +9196,7 @@
       </c>
       <c r="X61" s="21"/>
       <c r="Y61" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z61" s="6">
         <v>225.04</v>
@@ -9078,26 +9281,26 @@
         <v>1209502</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H62" s="4">
         <v>1403526</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J62" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N62" s="4">
         <v>5</v>
@@ -9110,11 +9313,11 @@
       </c>
       <c r="Q62" s="26"/>
       <c r="T62" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>21.97</v>
       </c>
       <c r="U62" s="4">
-        <f t="shared" si="33"/>
+        <f>T62</f>
         <v>21.97</v>
       </c>
       <c r="V62" s="5">
@@ -9125,7 +9328,7 @@
       </c>
       <c r="X62" s="5"/>
       <c r="Y62" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z62" s="3">
         <v>203.07</v>
@@ -9210,20 +9413,20 @@
         <v>6703512</v>
       </c>
       <c r="G64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H64" s="2">
         <v>6709501</v>
       </c>
       <c r="I64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J64" s="7">
-        <f t="shared" ref="J64:J78" si="35">IF(K64="Inflow",1,IF(K64="Outflow",-1,IF(K64="Gage",0,"")))</f>
+        <f t="shared" ref="J64:J78" si="20">IF(K64="Inflow",1,IF(K64="Outflow",-1,IF(K64="Gage",0,"")))</f>
         <v>-1</v>
       </c>
       <c r="K64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L64"/>
       <c r="M64"/>
@@ -9252,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="Y64" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z64"/>
       <c r="AA64"/>
@@ -9333,27 +9536,27 @@
         <v>6709501</v>
       </c>
       <c r="G65" s="16" t="str">
-        <f t="shared" ref="G65" si="36">I64</f>
+        <f>I64</f>
         <v>Arkansas River below John Martin Reservoir</v>
       </c>
       <c r="H65" s="16">
         <v>6700610</v>
       </c>
       <c r="I65" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J65" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K65" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M65" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N65" s="15">
         <v>150</v>
@@ -9378,7 +9581,7 @@
         <v>1</v>
       </c>
       <c r="Y65" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC65" s="17"/>
       <c r="AD65" s="17"/>
@@ -9448,7 +9651,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="6">
-        <f t="shared" ref="E66:E78" si="37">E65+1</f>
+        <f t="shared" ref="E66:E78" si="21">E65+1</f>
         <v>3</v>
       </c>
       <c r="F66" s="7">
@@ -9456,27 +9659,27 @@
         <v>6700610</v>
       </c>
       <c r="G66" s="7" t="str">
-        <f t="shared" ref="G66:G77" si="38">I65</f>
+        <f t="shared" ref="G66:G77" si="22">I65</f>
         <v>Fort Bent Canal</v>
       </c>
       <c r="H66" s="7">
         <v>6700613</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J66" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N66" s="6">
         <v>17.600000000000001</v>
@@ -9501,7 +9704,7 @@
         <v>1</v>
       </c>
       <c r="Y66" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC66" s="21"/>
       <c r="AD66" s="21"/>
@@ -9567,33 +9770,33 @@
         <v>2</v>
       </c>
       <c r="D67" s="6">
-        <f t="shared" ref="D67:D77" si="39">D66+1</f>
+        <f t="shared" ref="D67:D77" si="23">D66+1</f>
         <v>3</v>
       </c>
       <c r="E67" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" ref="F67:F77" si="40">H66</f>
+        <f t="shared" ref="F67:F77" si="24">H66</f>
         <v>6700613</v>
       </c>
       <c r="G67" s="7" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="22"/>
         <v>Keesee Ditch</v>
       </c>
       <c r="H67" s="30">
         <v>6700607</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J67" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N67" s="6">
         <v>15.6</v>
@@ -9618,7 +9821,7 @@
         <v>1</v>
       </c>
       <c r="Y67" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC67" s="21"/>
       <c r="AD67" s="21"/>
@@ -9684,39 +9887,39 @@
         <v>2</v>
       </c>
       <c r="D68" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="E68" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="F68" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="24"/>
         <v>6700607</v>
       </c>
       <c r="G68" s="7" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="22"/>
         <v>Amity Canal</v>
       </c>
       <c r="H68" s="30">
         <v>6700614</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J68" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N68" s="6">
         <v>69</v>
@@ -9733,7 +9936,7 @@
         <v>1.4</v>
       </c>
       <c r="U68" s="6">
-        <f t="shared" ref="U68:U69" si="41">ROUND(AB68,1)</f>
+        <f>ROUND(AB68,1)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="V68" s="20">
@@ -9744,21 +9947,21 @@
         <v>1</v>
       </c>
       <c r="Y68" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z68" s="6">
         <v>48.6</v>
       </c>
       <c r="AA68" s="6">
-        <f>($Z68-$Z69)/($Z$68-$Z$70)*AD$68</f>
+        <f t="shared" ref="AA68:AC69" si="25">($Z68-$Z69)/($Z$68-$Z$70)*AD$68</f>
         <v>1.4412665985699702</v>
       </c>
       <c r="AB68" s="6">
-        <f t="shared" ref="AB68:AB69" si="42">($Z68-$Z69)/($Z$68-$Z$70)*AE$68</f>
+        <f t="shared" si="25"/>
         <v>1.1021450459652715</v>
       </c>
       <c r="AC68" s="21">
-        <f t="shared" ref="AC68:AC69" si="43">($Z68-$Z69)/($Z$68-$Z$70)*AF$68</f>
+        <f t="shared" si="25"/>
         <v>5.9346271705822309E-2</v>
       </c>
       <c r="AD68" s="6">
@@ -9831,39 +10034,39 @@
         <v>2</v>
       </c>
       <c r="D69" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="F69" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="24"/>
         <v>6700614</v>
       </c>
       <c r="G69" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="22"/>
         <v>Lamar Ditch</v>
       </c>
       <c r="H69" s="26">
         <v>6709500</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J69" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N69" s="3">
         <v>33.9</v>
@@ -9876,11 +10079,11 @@
       </c>
       <c r="Q69" s="26"/>
       <c r="T69" s="3">
-        <f t="shared" ref="T69" si="44">ROUND(AA69,1)</f>
+        <f>ROUND(AA69,1)</f>
         <v>0.3</v>
       </c>
       <c r="U69" s="3">
-        <f t="shared" si="41"/>
+        <f>ROUND(AB69,1)</f>
         <v>0.2</v>
       </c>
       <c r="V69" s="5">
@@ -9891,21 +10094,21 @@
         <v>1</v>
       </c>
       <c r="Y69" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z69" s="3">
         <v>40.299999999999997</v>
       </c>
       <c r="AA69" s="3">
-        <f t="shared" ref="AA69" si="45">($Z69-$Z70)/($Z$68-$Z$70)*AD$68</f>
+        <f t="shared" si="25"/>
         <v>0.25873340143002976</v>
       </c>
       <c r="AB69" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="25"/>
         <v>0.19785495403472866</v>
       </c>
       <c r="AC69" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="25"/>
         <v>1.0653728294177699E-2</v>
       </c>
       <c r="AD69" s="5"/>
@@ -9974,35 +10177,35 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <f t="shared" si="37"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="24"/>
         <v>6709500</v>
       </c>
       <c r="G70" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="22"/>
         <v>Arkansas River at Lamar</v>
       </c>
       <c r="H70" s="29">
         <v>6700612</v>
       </c>
       <c r="I70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J70" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N70">
         <v>16.8</v>
@@ -10027,7 +10230,7 @@
       </c>
       <c r="X70"/>
       <c r="Y70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z70">
         <v>38.81</v>
@@ -10093,39 +10296,39 @@
         <v>3</v>
       </c>
       <c r="D71">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E71">
-        <f t="shared" si="37"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="24"/>
         <v>6700612</v>
       </c>
       <c r="G71" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="22"/>
         <v>Hyde Ditch</v>
       </c>
       <c r="H71" s="29">
         <v>6709502</v>
       </c>
       <c r="I71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J71" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="K71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N71">
         <v>2.2999999999999998</v>
@@ -10150,7 +10353,7 @@
       </c>
       <c r="X71"/>
       <c r="Y71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD71" s="1"/>
       <c r="AH71">
@@ -10213,39 +10416,39 @@
         <v>3</v>
       </c>
       <c r="D72">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="E72">
-        <f t="shared" si="37"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="24"/>
         <v>6709502</v>
       </c>
       <c r="G72" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="22"/>
         <v>Big Sandy Creek</v>
       </c>
       <c r="H72" s="29">
         <v>6700617</v>
       </c>
       <c r="I72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J72" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N72">
         <v>29.1</v>
@@ -10270,7 +10473,7 @@
       </c>
       <c r="X72"/>
       <c r="Y72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD72" s="1"/>
       <c r="AH72">
@@ -10333,33 +10536,33 @@
         <v>3</v>
       </c>
       <c r="D73">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="E73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="24"/>
         <v>6700617</v>
       </c>
       <c r="G73" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="22"/>
         <v>XY Canal</v>
       </c>
       <c r="H73" s="29">
         <v>6700608</v>
       </c>
       <c r="I73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J73" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="K73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -10384,7 +10587,7 @@
       </c>
       <c r="X73"/>
       <c r="Y73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD73" s="1"/>
       <c r="AH73">
@@ -10447,39 +10650,39 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="E74">
-        <f t="shared" si="37"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="24"/>
         <v>6700608</v>
       </c>
       <c r="G74" s="2" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="22"/>
         <v>Buffalo Canal</v>
       </c>
       <c r="H74" s="29">
         <v>6700904</v>
       </c>
       <c r="I74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J74" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="K74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N74">
         <v>21.4</v>
@@ -10504,7 +10707,7 @@
       </c>
       <c r="X74"/>
       <c r="Y74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD74" s="1"/>
       <c r="AH74">
@@ -10570,35 +10773,35 @@
         <v>1</v>
       </c>
       <c r="E75" s="15">
-        <f t="shared" si="37"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="F75" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="24"/>
         <v>6700904</v>
       </c>
       <c r="G75" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="22"/>
         <v>Arkansas River at Granada</v>
       </c>
       <c r="H75" s="28">
         <v>6700616</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J75" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K75" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M75" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N75" s="15">
         <v>68.400000000000006</v>
@@ -10623,7 +10826,7 @@
         <v>1</v>
       </c>
       <c r="Y75" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC75" s="17"/>
       <c r="AD75" s="17"/>
@@ -10689,33 +10892,33 @@
         <v>4</v>
       </c>
       <c r="D76" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="E76" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
       <c r="F76" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="24"/>
         <v>6700616</v>
       </c>
       <c r="G76" s="7" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="22"/>
         <v>Sisson Canal</v>
       </c>
       <c r="H76" s="7">
         <v>6709511</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J76" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N76" s="6">
         <v>0</v>
@@ -10740,7 +10943,7 @@
         <v>1</v>
       </c>
       <c r="Y76" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC76" s="21"/>
       <c r="AD76" s="21"/>
@@ -10806,39 +11009,39 @@
         <v>4</v>
       </c>
       <c r="D77" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="E77" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="F77" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="24"/>
         <v>6709511</v>
       </c>
       <c r="G77" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="22"/>
         <v>Frontier Ditch, KS</v>
       </c>
       <c r="H77" s="4">
         <v>6709510</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J77" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N77" s="3">
         <v>0</v>
@@ -10863,7 +11066,7 @@
         <v>1</v>
       </c>
       <c r="Y77" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
@@ -10932,35 +11135,35 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="F78" s="2">
-        <f t="shared" ref="F78" si="46">H77</f>
+        <f>H77</f>
         <v>6709510</v>
       </c>
       <c r="G78" s="2" t="str">
-        <f t="shared" ref="G78" si="47">I77</f>
+        <f>I77</f>
         <v>Arkansas River at Coolidge</v>
       </c>
       <c r="H78" s="2">
         <v>6709999</v>
       </c>
       <c r="I78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J78" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N78">
         <v>157</v>
@@ -10984,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="Y78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AH78">
         <v>17500</v>
@@ -11043,10 +11246,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1400534</v>
+      </c>
+      <c r="B2">
+        <v>11400534</v>
+      </c>
+      <c r="C2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="12">
+        <v>40848</v>
+      </c>
+      <c r="E2">
+        <v>999</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1403694</v>
+      </c>
+      <c r="B3">
+        <f>10000000+A3</f>
+        <v>11403694</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="12">
+        <v>43188</v>
+      </c>
+      <c r="E3" s="12">
+        <v>43188</v>
+      </c>
+      <c r="F3">
+        <f>(9.5+5.15)/2+12</f>
+        <v>19.324999999999999</v>
+      </c>
+      <c r="G3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="2">
+        <v>1409999</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11941,12 +12257,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11960,13 +12276,13 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11980,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11994,7 +12310,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12008,7 +12324,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12022,7 +12338,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12036,7 +12352,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12050,7 +12366,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12064,7 +12380,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12078,7 +12394,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12092,7 +12408,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12106,7 +12422,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12120,7 +12436,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12134,7 +12450,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -12148,7 +12464,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -12162,7 +12478,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -12176,7 +12492,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -12190,7 +12506,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -12204,7 +12520,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -12218,7 +12534,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -12232,7 +12548,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -12246,7 +12562,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -12254,7 +12570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M16"/>
   <sheetViews>
@@ -12273,21 +12589,21 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" t="s">
         <v>172</v>
       </c>
-      <c r="C1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" t="s">
-        <v>173</v>
-      </c>
       <c r="I1" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2">
         <v>29</v>
@@ -12298,7 +12614,7 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -12309,7 +12625,7 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -12320,7 +12636,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5">
         <v>27</v>
@@ -12329,33 +12645,33 @@
         <v>1.7</v>
       </c>
       <c r="I5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="D6" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>190</v>
-      </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K6" t="s">
         <v>185</v>
       </c>
-      <c r="K6" t="s">
-        <v>186</v>
-      </c>
       <c r="L6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -12379,10 +12695,10 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E8">
         <f>C4*D13+E13</f>
@@ -12408,10 +12724,10 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9">
         <f>C5*D13+E13</f>
@@ -12437,13 +12753,13 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" t="s">
         <v>181</v>
-      </c>
-      <c r="E10" t="s">
-        <v>182</v>
       </c>
       <c r="I10">
         <v>17</v>
@@ -12465,7 +12781,7 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I11">
         <v>17</v>
@@ -12487,10 +12803,10 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" t="s">
         <v>183</v>
-      </c>
-      <c r="E12" t="s">
-        <v>184</v>
       </c>
       <c r="I12">
         <v>17</v>
@@ -12558,7 +12874,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -12566,7 +12882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B367"/>
@@ -12582,15 +12898,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/matlab/StateTL_inputdata.xlsx
+++ b/matlab/StateTL_inputdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="SR" sheetId="13" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="evap" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1463,11 +1464,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="AJ26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="1" topLeftCell="AA11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ43" sqref="AQ43"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,8 +1498,8 @@
     <col min="28" max="28" width="6.7109375" customWidth="1"/>
     <col min="29" max="29" width="5.85546875" customWidth="1"/>
     <col min="30" max="31" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.5703125" customWidth="1"/>
-    <col min="33" max="34" width="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.5703125" style="26" customWidth="1"/>
+    <col min="33" max="34" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9" style="2" customWidth="1"/>
     <col min="36" max="36" width="4.7109375" customWidth="1"/>
     <col min="37" max="37" width="7.140625" bestFit="1" customWidth="1"/>
@@ -1601,13 +1602,13 @@
       <c r="AE1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="24" t="s">
         <v>74</v>
       </c>
       <c r="AI1" s="4" t="s">
@@ -1710,14 +1711,14 @@
       <c r="AE2" s="17">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF2" s="16">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="17">
-        <v>0.83</v>
-      </c>
-      <c r="AH2" s="17">
-        <v>0.21</v>
+      <c r="AF2" s="25">
+        <v>6</v>
+      </c>
+      <c r="AG2" s="25">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="AH2" s="25">
+        <v>0.2797</v>
       </c>
       <c r="AI2" s="16">
         <v>500</v>
@@ -1823,14 +1824,14 @@
       <c r="AE3" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="AH3" s="5">
-        <v>0.21</v>
+      <c r="AF3" s="24">
+        <v>6</v>
+      </c>
+      <c r="AG3" s="24">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="AH3" s="24">
+        <v>0.2797</v>
       </c>
       <c r="AI3" s="4">
         <v>500</v>
@@ -1937,14 +1938,14 @@
       <c r="AE4" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>0.21</v>
+      <c r="AF4" s="26">
+        <v>6</v>
+      </c>
+      <c r="AG4" s="26">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="AH4" s="26">
+        <v>0.2797</v>
       </c>
       <c r="AI4" s="2">
         <v>500</v>
@@ -2049,14 +2050,14 @@
       <c r="AE5" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>0.21</v>
+      <c r="AF5" s="26">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="26">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="AH5" s="26">
+        <v>0.2797</v>
       </c>
       <c r="AI5" s="2">
         <v>500</v>
@@ -2160,14 +2161,14 @@
       <c r="AE6" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0.21</v>
+      <c r="AF6" s="26">
+        <v>6</v>
+      </c>
+      <c r="AG6" s="26">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="AH6" s="26">
+        <v>0.2797</v>
       </c>
       <c r="AI6" s="2">
         <v>500</v>
@@ -2271,14 +2272,14 @@
       <c r="AE7" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>0.21</v>
+      <c r="AF7" s="26">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="26">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="AH7" s="26">
+        <v>0.2797</v>
       </c>
       <c r="AI7" s="2">
         <v>500</v>
@@ -2382,14 +2383,14 @@
       <c r="AE8" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>0.21</v>
+      <c r="AF8" s="26">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="26">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="AH8" s="26">
+        <v>0.2797</v>
       </c>
       <c r="AI8" s="2">
         <v>500</v>
@@ -2491,14 +2492,14 @@
       <c r="AE9" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>0.21</v>
+      <c r="AF9" s="26">
+        <v>6</v>
+      </c>
+      <c r="AG9" s="26">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="AH9" s="26">
+        <v>0.2797</v>
       </c>
       <c r="AI9" s="2">
         <v>500</v>
@@ -2609,14 +2610,14 @@
       <c r="AE10" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>0.21</v>
+      <c r="AF10" s="26">
+        <v>6</v>
+      </c>
+      <c r="AG10" s="26">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="AH10" s="26">
+        <v>0.2797</v>
       </c>
       <c r="AI10" s="2">
         <v>500</v>
@@ -2720,14 +2721,14 @@
       <c r="AE11" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>0.21</v>
+      <c r="AF11" s="26">
+        <v>6</v>
+      </c>
+      <c r="AG11" s="26">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="AH11" s="26">
+        <v>0.2797</v>
       </c>
       <c r="AI11" s="2">
         <v>500</v>
@@ -2835,14 +2836,14 @@
       <c r="AE12" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>0.21</v>
+      <c r="AF12" s="26">
+        <v>6</v>
+      </c>
+      <c r="AG12" s="26">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="AH12" s="26">
+        <v>0.2797</v>
       </c>
       <c r="AI12" s="2">
         <v>500</v>
@@ -2943,14 +2944,14 @@
       <c r="AE13" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>0.21</v>
+      <c r="AF13" s="26">
+        <v>6</v>
+      </c>
+      <c r="AG13" s="26">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="AH13" s="26">
+        <v>0.2797</v>
       </c>
       <c r="AI13" s="2">
         <v>500</v>
@@ -3060,14 +3061,14 @@
       <c r="AE14" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="AH14" s="5">
-        <v>0.21</v>
+      <c r="AF14" s="24">
+        <v>6</v>
+      </c>
+      <c r="AG14" s="24">
+        <v>0.63519999999999999</v>
+      </c>
+      <c r="AH14" s="24">
+        <v>0.2797</v>
       </c>
       <c r="AI14" s="4">
         <v>500</v>
@@ -3174,14 +3175,14 @@
       <c r="AE15" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>0.21</v>
+      <c r="AF15" s="26">
+        <v>4</v>
+      </c>
+      <c r="AG15" s="26">
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="AH15" s="26">
+        <v>0.22839999999999999</v>
       </c>
       <c r="AI15" s="2">
         <v>500</v>
@@ -3281,14 +3282,14 @@
       <c r="AE16" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>0.21</v>
+      <c r="AF16" s="26">
+        <v>4</v>
+      </c>
+      <c r="AG16" s="26">
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="AH16" s="26">
+        <v>0.22839999999999999</v>
       </c>
       <c r="AI16" s="2">
         <v>500</v>
@@ -3388,14 +3389,14 @@
       <c r="AE17" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>0.21</v>
+      <c r="AF17" s="26">
+        <v>4</v>
+      </c>
+      <c r="AG17" s="26">
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="AH17" s="26">
+        <v>0.22839999999999999</v>
       </c>
       <c r="AI17" s="2">
         <v>500</v>
@@ -3499,14 +3500,14 @@
       <c r="AE18" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>0.21</v>
+      <c r="AF18" s="26">
+        <v>4</v>
+      </c>
+      <c r="AG18" s="26">
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="AH18" s="26">
+        <v>0.22839999999999999</v>
       </c>
       <c r="AI18" s="2">
         <v>500</v>
@@ -3613,14 +3614,14 @@
       <c r="AE19" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH19" s="1">
-        <v>0.21</v>
+      <c r="AF19" s="26">
+        <v>4</v>
+      </c>
+      <c r="AG19" s="26">
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="AH19" s="26">
+        <v>0.22839999999999999</v>
       </c>
       <c r="AI19" s="2">
         <v>500</v>
@@ -3728,14 +3729,14 @@
       <c r="AE20" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>0.21</v>
+      <c r="AF20" s="26">
+        <v>4</v>
+      </c>
+      <c r="AG20" s="26">
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="AH20" s="26">
+        <v>0.22839999999999999</v>
       </c>
       <c r="AI20" s="2">
         <v>500</v>
@@ -3842,14 +3843,14 @@
       <c r="AE21" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF21" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="AH21" s="5">
-        <v>0.21</v>
+      <c r="AF21" s="24">
+        <v>4</v>
+      </c>
+      <c r="AG21" s="24">
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="AH21" s="24">
+        <v>0.22839999999999999</v>
       </c>
       <c r="AI21" s="4">
         <v>500</v>
@@ -3953,14 +3954,14 @@
       <c r="AE22" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH22" s="1">
-        <v>0.21</v>
+      <c r="AF22" s="26">
+        <v>4</v>
+      </c>
+      <c r="AG22" s="26">
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="AH22" s="26">
+        <v>0.24690000000000001</v>
       </c>
       <c r="AI22" s="2">
         <v>500</v>
@@ -4062,14 +4063,14 @@
       <c r="AE23" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH23" s="1">
-        <v>0.21</v>
+      <c r="AF23" s="26">
+        <v>4</v>
+      </c>
+      <c r="AG23" s="26">
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="AH23" s="26">
+        <v>0.24690000000000001</v>
       </c>
       <c r="AI23" s="2">
         <v>500</v>
@@ -4177,14 +4178,14 @@
       <c r="AE24" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG24" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>0.21</v>
+      <c r="AF24" s="26">
+        <v>4</v>
+      </c>
+      <c r="AG24" s="26">
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="AH24" s="26">
+        <v>0.24690000000000001</v>
       </c>
       <c r="AI24" s="2">
         <v>500</v>
@@ -4296,14 +4297,14 @@
       <c r="AE25" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF25" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="AH25" s="5">
-        <v>0.21</v>
+      <c r="AF25" s="24">
+        <v>4</v>
+      </c>
+      <c r="AG25" s="24">
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="AH25" s="24">
+        <v>0.24690000000000001</v>
       </c>
       <c r="AI25" s="4">
         <v>500</v>
@@ -4407,14 +4408,14 @@
       <c r="AE26" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF26" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH26" s="1">
-        <v>0.21</v>
+      <c r="AF26" s="26">
+        <v>4</v>
+      </c>
+      <c r="AG26" s="26">
+        <v>0.70189999999999997</v>
+      </c>
+      <c r="AH26" s="26">
+        <v>0.2102</v>
       </c>
       <c r="AI26" s="2">
         <v>500</v>
@@ -4516,14 +4517,14 @@
       <c r="AE27" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH27" s="1">
-        <v>0.21</v>
+      <c r="AF27" s="26">
+        <v>4</v>
+      </c>
+      <c r="AG27" s="26">
+        <v>0.70189999999999997</v>
+      </c>
+      <c r="AH27" s="26">
+        <v>0.2102</v>
       </c>
       <c r="AI27" s="2">
         <v>500</v>
@@ -4628,14 +4629,14 @@
       <c r="AE28" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF28" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH28" s="1">
-        <v>0.21</v>
+      <c r="AF28" s="26">
+        <v>4</v>
+      </c>
+      <c r="AG28" s="26">
+        <v>0.70189999999999997</v>
+      </c>
+      <c r="AH28" s="26">
+        <v>0.2102</v>
       </c>
       <c r="AI28" s="2">
         <v>500</v>
@@ -4740,14 +4741,14 @@
       <c r="AE29" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH29" s="1">
-        <v>0.21</v>
+      <c r="AF29" s="26">
+        <v>4</v>
+      </c>
+      <c r="AG29" s="26">
+        <v>0.70189999999999997</v>
+      </c>
+      <c r="AH29" s="26">
+        <v>0.2102</v>
       </c>
       <c r="AI29" s="2">
         <v>500</v>
@@ -4855,14 +4856,14 @@
       <c r="AE30" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF30" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG30" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH30" s="1">
-        <v>0.21</v>
+      <c r="AF30" s="26">
+        <v>4</v>
+      </c>
+      <c r="AG30" s="26">
+        <v>0.70189999999999997</v>
+      </c>
+      <c r="AH30" s="26">
+        <v>0.2102</v>
       </c>
       <c r="AI30" s="2">
         <v>500</v>
@@ -4977,14 +4978,14 @@
       <c r="AE31" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF31" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="AH31" s="5">
-        <v>0.21</v>
+      <c r="AF31" s="24">
+        <v>4</v>
+      </c>
+      <c r="AG31" s="24">
+        <v>0.70189999999999997</v>
+      </c>
+      <c r="AH31" s="24">
+        <v>0.2102</v>
       </c>
       <c r="AI31" s="4">
         <v>500</v>
@@ -5088,14 +5089,14 @@
       <c r="AE32" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG32" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH32" s="1">
-        <v>0.21</v>
+      <c r="AF32" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="AG32" s="26">
+        <v>0.49640000000000001</v>
+      </c>
+      <c r="AH32" s="26">
+        <v>0.2626</v>
       </c>
       <c r="AI32" s="2">
         <v>500</v>
@@ -5197,14 +5198,14 @@
       <c r="AE33" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG33" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH33" s="1">
-        <v>0.21</v>
+      <c r="AF33" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="AG33" s="26">
+        <v>0.49640000000000001</v>
+      </c>
+      <c r="AH33" s="26">
+        <v>0.2626</v>
       </c>
       <c r="AI33" s="2">
         <v>500</v>
@@ -5315,14 +5316,14 @@
       <c r="AE34" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF34" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG34" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH34" s="1">
-        <v>0.21</v>
+      <c r="AF34" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="AG34" s="26">
+        <v>0.49640000000000001</v>
+      </c>
+      <c r="AH34" s="26">
+        <v>0.2626</v>
       </c>
       <c r="AI34" s="2">
         <v>500</v>
@@ -5427,14 +5428,14 @@
       <c r="AE35" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG35" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH35" s="1">
-        <v>0.21</v>
+      <c r="AF35" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="AG35" s="26">
+        <v>0.49640000000000001</v>
+      </c>
+      <c r="AH35" s="26">
+        <v>0.2626</v>
       </c>
       <c r="AI35" s="2">
         <v>500</v>
@@ -5541,14 +5542,14 @@
       <c r="AE36" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF36" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG36" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="AH36" s="5">
-        <v>0.21</v>
+      <c r="AF36" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="AG36" s="24">
+        <v>0.49640000000000001</v>
+      </c>
+      <c r="AH36" s="24">
+        <v>0.2626</v>
       </c>
       <c r="AI36" s="4">
         <v>500</v>
@@ -5652,14 +5653,14 @@
       <c r="AE37" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG37" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH37" s="1">
-        <v>0.21</v>
+      <c r="AF37" s="26">
+        <v>3</v>
+      </c>
+      <c r="AG37" s="26">
+        <v>1.1425000000000001</v>
+      </c>
+      <c r="AH37" s="26">
+        <v>0.14080000000000001</v>
       </c>
       <c r="AI37" s="2">
         <v>500</v>
@@ -5759,14 +5760,14 @@
       <c r="AE38" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG38" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH38" s="1">
-        <v>0.21</v>
+      <c r="AF38" s="26">
+        <v>3</v>
+      </c>
+      <c r="AG38" s="26">
+        <v>1.1425000000000001</v>
+      </c>
+      <c r="AH38" s="26">
+        <v>0.14080000000000001</v>
       </c>
       <c r="AI38" s="2">
         <v>500</v>
@@ -5870,14 +5871,14 @@
       <c r="AE39" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF39" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG39" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH39" s="1">
-        <v>0.21</v>
+      <c r="AF39" s="26">
+        <v>3</v>
+      </c>
+      <c r="AG39" s="26">
+        <v>1.1425000000000001</v>
+      </c>
+      <c r="AH39" s="26">
+        <v>0.14080000000000001</v>
       </c>
       <c r="AI39" s="2">
         <v>500</v>
@@ -5983,14 +5984,14 @@
       <c r="AE40" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF40" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG40" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="AH40" s="5">
-        <v>0.21</v>
+      <c r="AF40" s="24">
+        <v>3</v>
+      </c>
+      <c r="AG40" s="24">
+        <v>1.1425000000000001</v>
+      </c>
+      <c r="AH40" s="24">
+        <v>0.14080000000000001</v>
       </c>
       <c r="AI40" s="4">
         <v>500</v>
@@ -6094,14 +6095,14 @@
       <c r="AE41" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG41" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH41" s="1">
-        <v>0.21</v>
+      <c r="AF41" s="26">
+        <v>3</v>
+      </c>
+      <c r="AG41" s="26">
+        <v>1.1425000000000001</v>
+      </c>
+      <c r="AH41" s="26">
+        <v>0.14080000000000001</v>
       </c>
       <c r="AI41" s="2">
         <v>500</v>
@@ -6158,7 +6159,7 @@
         <v>64</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" ref="I42" si="9">IF(J42="Inflow",1,IF(J42="Outflow",-1,IF(J42="Gage",0,IF(J42="Top",0,""))))</f>
+        <f>IF(J42="Inflow",1,IF(J42="Outflow",-1,IF(J42="Gage",0,IF(J42="Top",0,""))))</f>
         <v>1</v>
       </c>
       <c r="J42" s="2" t="s">
@@ -6206,14 +6207,14 @@
       <c r="AE42" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG42" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH42" s="1">
-        <v>0.21</v>
+      <c r="AF42" s="26">
+        <v>3</v>
+      </c>
+      <c r="AG42" s="26">
+        <v>1.1425000000000001</v>
+      </c>
+      <c r="AH42" s="26">
+        <v>0.14080000000000001</v>
       </c>
       <c r="AI42" s="2">
         <v>500</v>
@@ -6277,7 +6278,7 @@
         <v>247</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" ref="I43" si="10">IF(J43="Inflow",1,IF(J43="Outflow",-1,IF(J43="Gage",0,IF(J43="Top",0,""))))</f>
+        <f>IF(J43="Inflow",1,IF(J43="Outflow",-1,IF(J43="Gage",0,IF(J43="Top",0,""))))</f>
         <v>1</v>
       </c>
       <c r="J43" s="2" t="s">
@@ -6321,14 +6322,14 @@
       <c r="AE43" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG43" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH43" s="1">
-        <v>0.21</v>
+      <c r="AF43" s="26">
+        <v>3</v>
+      </c>
+      <c r="AG43" s="26">
+        <v>1.1425000000000001</v>
+      </c>
+      <c r="AH43" s="26">
+        <v>0.14080000000000001</v>
       </c>
       <c r="AI43" s="2">
         <v>500</v>
@@ -6384,7 +6385,7 @@
         <v>274</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" ref="I44" si="11">IF(J44="Inflow",1,IF(J44="Outflow",-1,IF(J44="Gage",0,IF(J44="Top",0,""))))</f>
+        <f>IF(J44="Inflow",1,IF(J44="Outflow",-1,IF(J44="Gage",0,IF(J44="Top",0,""))))</f>
         <v>1</v>
       </c>
       <c r="J44" s="2" t="s">
@@ -6443,14 +6444,14 @@
       <c r="AE44" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF44" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG44" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="AH44" s="1">
-        <v>0.21</v>
+      <c r="AF44" s="26">
+        <v>3</v>
+      </c>
+      <c r="AG44" s="26">
+        <v>1.1425000000000001</v>
+      </c>
+      <c r="AH44" s="26">
+        <v>0.14080000000000001</v>
       </c>
       <c r="AI44" s="2">
         <v>500</v>
@@ -6501,9 +6502,9 @@
       <c r="Y45" s="21"/>
       <c r="AD45" s="7"/>
       <c r="AE45" s="21"/>
-      <c r="AF45" s="7"/>
-      <c r="AG45" s="21"/>
-      <c r="AH45" s="21"/>
+      <c r="AF45" s="27"/>
+      <c r="AG45" s="27"/>
+      <c r="AH45" s="27"/>
       <c r="AI45" s="7"/>
       <c r="AJ45" s="7"/>
       <c r="AL45" s="7"/>
@@ -6537,7 +6538,7 @@
         <v>192</v>
       </c>
       <c r="I46" s="50">
-        <f t="shared" ref="I46:I47" si="12">IF(J46="Inflow",1,IF(J46="Outflow",-1,IF(J46="Gage",0,IF(J46="Top",0,""))))</f>
+        <f>IF(J46="Inflow",1,IF(J46="Outflow",-1,IF(J46="Gage",0,IF(J46="Top",0,""))))</f>
         <v>0</v>
       </c>
       <c r="J46" s="50" t="s">
@@ -6592,14 +6593,14 @@
       <c r="AE46" s="51">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF46" s="50">
-        <v>1</v>
-      </c>
-      <c r="AG46" s="51">
-        <v>0.83</v>
-      </c>
-      <c r="AH46" s="51">
-        <v>0.21</v>
+      <c r="AF46" s="52">
+        <v>1</v>
+      </c>
+      <c r="AG46" s="52">
+        <v>1.1377999999999999</v>
+      </c>
+      <c r="AH46" s="52">
+        <v>0.1648</v>
       </c>
       <c r="AI46" s="50">
         <v>500</v>
@@ -6617,7 +6618,7 @@
         <v>251</v>
       </c>
       <c r="AN46" s="51">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="AO46" s="51">
         <v>1.32</v>
@@ -6654,7 +6655,7 @@
         <v>193</v>
       </c>
       <c r="I47" s="16">
-        <f t="shared" si="12"/>
+        <f>IF(J47="Inflow",1,IF(J47="Outflow",-1,IF(J47="Gage",0,IF(J47="Top",0,""))))</f>
         <v>0</v>
       </c>
       <c r="J47" s="16" t="s">
@@ -6707,14 +6708,14 @@
       <c r="AE47" s="17">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF47" s="16">
-        <v>1</v>
-      </c>
-      <c r="AG47" s="17">
-        <v>0.83</v>
-      </c>
-      <c r="AH47" s="17">
-        <v>0.21</v>
+      <c r="AF47" s="25">
+        <v>1</v>
+      </c>
+      <c r="AG47" s="25">
+        <v>1.1377999999999999</v>
+      </c>
+      <c r="AH47" s="25">
+        <v>0.1648</v>
       </c>
       <c r="AI47" s="16">
         <v>500</v>
@@ -6732,7 +6733,7 @@
         <v>251</v>
       </c>
       <c r="AN47" s="17">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="AO47" s="17">
         <v>1.32</v>
@@ -6775,9 +6776,9 @@
       </c>
       <c r="AD48" s="7"/>
       <c r="AE48" s="21"/>
-      <c r="AF48" s="7"/>
-      <c r="AG48" s="21"/>
-      <c r="AH48" s="21"/>
+      <c r="AF48" s="27"/>
+      <c r="AG48" s="27"/>
+      <c r="AH48" s="27"/>
       <c r="AI48" s="7"/>
       <c r="AJ48" s="7"/>
       <c r="AL48" s="7"/>
@@ -6811,7 +6812,7 @@
         <v>99</v>
       </c>
       <c r="I49" s="50">
-        <f t="shared" ref="I49:I51" si="13">IF(J49="Inflow",1,IF(J49="Outflow",-1,IF(J49="Gage",0,IF(J49="Top",0,""))))</f>
+        <f>IF(J49="Inflow",1,IF(J49="Outflow",-1,IF(J49="Gage",0,IF(J49="Top",0,""))))</f>
         <v>0</v>
       </c>
       <c r="J49" s="50" t="s">
@@ -6866,14 +6867,14 @@
       <c r="AE49" s="51">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF49" s="50">
-        <v>1</v>
-      </c>
-      <c r="AG49" s="51">
-        <v>0.83</v>
-      </c>
-      <c r="AH49" s="51">
-        <v>0.21</v>
+      <c r="AF49" s="52">
+        <v>1</v>
+      </c>
+      <c r="AG49" s="52">
+        <v>1.1377999999999999</v>
+      </c>
+      <c r="AH49" s="52">
+        <v>0.1648</v>
       </c>
       <c r="AI49" s="50">
         <v>500</v>
@@ -6891,7 +6892,7 @@
         <v>251</v>
       </c>
       <c r="AN49" s="51">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="AO49" s="51">
         <v>1.32</v>
@@ -6927,7 +6928,7 @@
         <v>101</v>
       </c>
       <c r="I50" s="16">
-        <f t="shared" si="13"/>
+        <f>IF(J50="Inflow",1,IF(J50="Outflow",-1,IF(J50="Gage",0,IF(J50="Top",0,""))))</f>
         <v>0</v>
       </c>
       <c r="J50" s="16" t="s">
@@ -6954,7 +6955,7 @@
       </c>
       <c r="U50" s="17"/>
       <c r="V50" s="17">
-        <f t="shared" ref="V50:V51" si="14">Y$52/SUM(Y$49:Y$51)</f>
+        <f>Y$52/SUM(Y$49:Y$51)</f>
         <v>0.16300081998869265</v>
       </c>
       <c r="W50" s="25"/>
@@ -6980,14 +6981,14 @@
       <c r="AE50" s="17">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF50" s="16">
-        <v>1</v>
-      </c>
-      <c r="AG50" s="17">
-        <v>0.83</v>
-      </c>
-      <c r="AH50" s="17">
-        <v>0.21</v>
+      <c r="AF50" s="25">
+        <v>1</v>
+      </c>
+      <c r="AG50" s="25">
+        <v>1.1377999999999999</v>
+      </c>
+      <c r="AH50" s="25">
+        <v>0.1648</v>
       </c>
       <c r="AI50" s="16">
         <v>500</v>
@@ -7005,7 +7006,7 @@
         <v>251</v>
       </c>
       <c r="AN50" s="17">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="AO50" s="17">
         <v>1.32</v>
@@ -7041,7 +7042,7 @@
         <v>102</v>
       </c>
       <c r="I51" s="7">
-        <f t="shared" si="13"/>
+        <f>IF(J51="Inflow",1,IF(J51="Outflow",-1,IF(J51="Gage",0,IF(J51="Top",0,""))))</f>
         <v>-1</v>
       </c>
       <c r="J51" s="7" t="s">
@@ -7064,7 +7065,7 @@
       </c>
       <c r="U51" s="21"/>
       <c r="V51" s="21">
-        <f t="shared" si="14"/>
+        <f>Y$52/SUM(Y$49:Y$51)</f>
         <v>0.16300081998869265</v>
       </c>
       <c r="W51" s="27"/>
@@ -7090,14 +7091,14 @@
       <c r="AE51" s="21">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF51" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG51" s="21">
-        <v>0.83</v>
-      </c>
-      <c r="AH51" s="21">
-        <v>0.21</v>
+      <c r="AF51" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="27">
+        <v>1.1377999999999999</v>
+      </c>
+      <c r="AH51" s="27">
+        <v>0.1648</v>
       </c>
       <c r="AI51" s="7">
         <v>500</v>
@@ -7115,7 +7116,7 @@
         <v>251</v>
       </c>
       <c r="AN51" s="21">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="AO51" s="21">
         <v>1.32</v>
@@ -7153,9 +7154,9 @@
       </c>
       <c r="AD52" s="7"/>
       <c r="AE52" s="21"/>
-      <c r="AF52" s="7"/>
-      <c r="AG52" s="21"/>
-      <c r="AH52" s="21"/>
+      <c r="AF52" s="27"/>
+      <c r="AG52" s="27"/>
+      <c r="AH52" s="27"/>
       <c r="AI52" s="7"/>
       <c r="AJ52" s="7"/>
       <c r="AL52" s="7"/>
@@ -7191,7 +7192,7 @@
         <v>258</v>
       </c>
       <c r="I53" s="50">
-        <f t="shared" ref="I53:I55" si="15">IF(J53="Inflow",1,IF(J53="Outflow",-1,IF(J53="Gage",0,IF(J53="Top",0,""))))</f>
+        <f>IF(J53="Inflow",1,IF(J53="Outflow",-1,IF(J53="Gage",0,IF(J53="Top",0,""))))</f>
         <v>0</v>
       </c>
       <c r="J53" s="50" t="s">
@@ -7251,14 +7252,14 @@
       <c r="AE53" s="51">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF53" s="50">
-        <v>1</v>
-      </c>
-      <c r="AG53" s="51">
-        <v>0.83</v>
-      </c>
-      <c r="AH53" s="51">
-        <v>0.21</v>
+      <c r="AF53" s="52">
+        <v>1</v>
+      </c>
+      <c r="AG53" s="52">
+        <v>1.1377999999999999</v>
+      </c>
+      <c r="AH53" s="52">
+        <v>0.1648</v>
       </c>
       <c r="AI53" s="50">
         <v>500</v>
@@ -7276,7 +7277,7 @@
         <v>251</v>
       </c>
       <c r="AN53" s="51">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="AO53" s="51">
         <v>1.32</v>
@@ -7312,7 +7313,7 @@
         <v>260</v>
       </c>
       <c r="I54" s="16">
-        <f t="shared" si="15"/>
+        <f>IF(J54="Inflow",1,IF(J54="Outflow",-1,IF(J54="Gage",0,IF(J54="Top",0,""))))</f>
         <v>0</v>
       </c>
       <c r="J54" s="16" t="s">
@@ -7339,7 +7340,7 @@
       </c>
       <c r="U54" s="17"/>
       <c r="V54" s="17">
-        <f t="shared" ref="V54:V55" si="16">Y$56/SUM(W$53,Y$53:Y$55)</f>
+        <f>Y$56/SUM(W$53,Y$53:Y$55)</f>
         <v>0.41087026574215463</v>
       </c>
       <c r="W54" s="25"/>
@@ -7365,14 +7366,14 @@
       <c r="AE54" s="17">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF54" s="16">
-        <v>1</v>
-      </c>
-      <c r="AG54" s="17">
-        <v>0.83</v>
-      </c>
-      <c r="AH54" s="17">
-        <v>0.21</v>
+      <c r="AF54" s="25">
+        <v>1</v>
+      </c>
+      <c r="AG54" s="25">
+        <v>1.1377999999999999</v>
+      </c>
+      <c r="AH54" s="25">
+        <v>0.1648</v>
       </c>
       <c r="AI54" s="16">
         <v>500</v>
@@ -7390,7 +7391,7 @@
         <v>251</v>
       </c>
       <c r="AN54" s="17">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="AO54" s="17">
         <v>1.32</v>
@@ -7426,7 +7427,7 @@
         <v>262</v>
       </c>
       <c r="I55" s="7">
-        <f t="shared" si="15"/>
+        <f>IF(J55="Inflow",1,IF(J55="Outflow",-1,IF(J55="Gage",0,IF(J55="Top",0,""))))</f>
         <v>-1</v>
       </c>
       <c r="J55" s="7" t="s">
@@ -7449,7 +7450,7 @@
       </c>
       <c r="U55" s="21"/>
       <c r="V55" s="21">
-        <f t="shared" si="16"/>
+        <f>Y$56/SUM(W$53,Y$53:Y$55)</f>
         <v>0.41087026574215463</v>
       </c>
       <c r="W55" s="27"/>
@@ -7475,14 +7476,14 @@
       <c r="AE55" s="21">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF55" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG55" s="21">
-        <v>0.83</v>
-      </c>
-      <c r="AH55" s="21">
-        <v>0.21</v>
+      <c r="AF55" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG55" s="27">
+        <v>1.1377999999999999</v>
+      </c>
+      <c r="AH55" s="27">
+        <v>0.1648</v>
       </c>
       <c r="AI55" s="7">
         <v>500</v>
@@ -7500,7 +7501,7 @@
         <v>251</v>
       </c>
       <c r="AN55" s="21">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="AO55" s="21">
         <v>1.32</v>
@@ -7538,9 +7539,9 @@
       </c>
       <c r="AD56" s="7"/>
       <c r="AE56" s="21"/>
-      <c r="AF56" s="7"/>
-      <c r="AG56" s="21"/>
-      <c r="AH56" s="21"/>
+      <c r="AF56" s="27"/>
+      <c r="AG56" s="27"/>
+      <c r="AH56" s="27"/>
       <c r="AI56" s="7"/>
       <c r="AJ56" s="7"/>
       <c r="AL56" s="7"/>
@@ -7574,7 +7575,7 @@
         <v>267</v>
       </c>
       <c r="I57" s="42">
-        <f t="shared" ref="I57:I59" si="17">IF(J57="Inflow",1,IF(J57="Outflow",-1,IF(J57="Gage",0,IF(J57="Top",0,""))))</f>
+        <f>IF(J57="Inflow",1,IF(J57="Outflow",-1,IF(J57="Gage",0,IF(J57="Top",0,""))))</f>
         <v>0</v>
       </c>
       <c r="J57" s="42" t="s">
@@ -7627,14 +7628,14 @@
       <c r="AE57" s="44">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF57" s="42">
-        <v>1</v>
-      </c>
-      <c r="AG57" s="44">
-        <v>0.83</v>
-      </c>
-      <c r="AH57" s="44">
-        <v>0.21</v>
+      <c r="AF57" s="43">
+        <v>1</v>
+      </c>
+      <c r="AG57" s="43">
+        <v>1.1377999999999999</v>
+      </c>
+      <c r="AH57" s="43">
+        <v>0.1648</v>
       </c>
       <c r="AI57" s="42">
         <v>500</v>
@@ -7652,7 +7653,7 @@
         <v>251</v>
       </c>
       <c r="AN57" s="44">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="AO57" s="44">
         <v>1.32</v>
@@ -7690,7 +7691,7 @@
         <v>264</v>
       </c>
       <c r="I58" s="7">
-        <f t="shared" ref="I58" si="18">IF(J58="Inflow",1,IF(J58="Outflow",-1,IF(J58="Gage",0,IF(J58="Top",0,""))))</f>
+        <f>IF(J58="Inflow",1,IF(J58="Outflow",-1,IF(J58="Gage",0,IF(J58="Top",0,""))))</f>
         <v>1</v>
       </c>
       <c r="J58" s="7" t="s">
@@ -7750,14 +7751,14 @@
       <c r="AE58" s="21">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF58" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG58" s="21">
-        <v>0.83</v>
-      </c>
-      <c r="AH58" s="21">
-        <v>0.21</v>
+      <c r="AF58" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG58" s="27">
+        <v>1.1377999999999999</v>
+      </c>
+      <c r="AH58" s="27">
+        <v>0.1648</v>
       </c>
       <c r="AI58" s="7">
         <v>500</v>
@@ -7775,7 +7776,7 @@
         <v>251</v>
       </c>
       <c r="AN58" s="21">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="AO58" s="21">
         <v>1.32</v>
@@ -7811,7 +7812,7 @@
         <v>268</v>
       </c>
       <c r="I59" s="7">
-        <f t="shared" si="17"/>
+        <f>IF(J59="Inflow",1,IF(J59="Outflow",-1,IF(J59="Gage",0,IF(J59="Top",0,""))))</f>
         <v>1</v>
       </c>
       <c r="J59" s="7" t="s">
@@ -7871,14 +7872,14 @@
       <c r="AE59" s="21">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF59" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG59" s="21">
-        <v>0.83</v>
-      </c>
-      <c r="AH59" s="21">
-        <v>0.21</v>
+      <c r="AF59" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG59" s="27">
+        <v>1.1377999999999999</v>
+      </c>
+      <c r="AH59" s="27">
+        <v>0.1648</v>
       </c>
       <c r="AI59" s="7">
         <v>500</v>
@@ -7896,7 +7897,7 @@
         <v>251</v>
       </c>
       <c r="AN59" s="21">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="AO59" s="21">
         <v>1.32</v>
@@ -7934,9 +7935,9 @@
       </c>
       <c r="AD60" s="7"/>
       <c r="AE60" s="21"/>
-      <c r="AF60" s="7"/>
-      <c r="AG60" s="21"/>
-      <c r="AH60" s="21"/>
+      <c r="AF60" s="27"/>
+      <c r="AG60" s="27"/>
+      <c r="AH60" s="27"/>
       <c r="AI60" s="7"/>
       <c r="AJ60" s="7"/>
       <c r="AL60" s="7"/>
@@ -7970,7 +7971,7 @@
         <v>107</v>
       </c>
       <c r="I61" s="42">
-        <f t="shared" ref="I61:I62" si="19">IF(J61="Inflow",1,IF(J61="Outflow",-1,IF(J61="Gage",0,IF(J61="Top",0,""))))</f>
+        <f>IF(J61="Inflow",1,IF(J61="Outflow",-1,IF(J61="Gage",0,IF(J61="Top",0,""))))</f>
         <v>1</v>
       </c>
       <c r="J61" s="42" t="s">
@@ -8018,14 +8019,14 @@
       <c r="AE61" s="44">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF61" s="42">
-        <v>1</v>
-      </c>
-      <c r="AG61" s="44">
-        <v>0.83</v>
-      </c>
-      <c r="AH61" s="44">
-        <v>0.21</v>
+      <c r="AF61" s="43">
+        <v>1</v>
+      </c>
+      <c r="AG61" s="43">
+        <v>1.1377999999999999</v>
+      </c>
+      <c r="AH61" s="43">
+        <v>0.1648</v>
       </c>
       <c r="AI61" s="42">
         <v>500</v>
@@ -8079,7 +8080,7 @@
         <v>109</v>
       </c>
       <c r="I62" s="7">
-        <f t="shared" si="19"/>
+        <f>IF(J62="Inflow",1,IF(J62="Outflow",-1,IF(J62="Gage",0,IF(J62="Top",0,""))))</f>
         <v>0</v>
       </c>
       <c r="J62" s="7" t="s">
@@ -8131,14 +8132,14 @@
       <c r="AE62" s="21">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF62" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG62" s="21">
-        <v>0.83</v>
-      </c>
-      <c r="AH62" s="21">
-        <v>0.21</v>
+      <c r="AF62" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG62" s="27">
+        <v>1.1377999999999999</v>
+      </c>
+      <c r="AH62" s="27">
+        <v>0.1648</v>
       </c>
       <c r="AI62" s="7">
         <v>500</v>
@@ -8196,9 +8197,9 @@
       <c r="AC63" s="38"/>
       <c r="AD63" s="38"/>
       <c r="AE63" s="38"/>
-      <c r="AF63" s="47"/>
-      <c r="AG63" s="38"/>
-      <c r="AH63" s="38"/>
+      <c r="AF63" s="46"/>
+      <c r="AG63" s="46"/>
+      <c r="AH63" s="46"/>
       <c r="AI63" s="47"/>
       <c r="AJ63" s="47"/>
       <c r="AK63" s="38"/>
@@ -8233,7 +8234,7 @@
         <v>111</v>
       </c>
       <c r="I64" s="7">
-        <f t="shared" ref="I64:I66" si="20">IF(J64="Inflow",1,IF(J64="Outflow",-1,IF(J64="Gage",0,IF(J64="Top",0,""))))</f>
+        <f>IF(J64="Inflow",1,IF(J64="Outflow",-1,IF(J64="Gage",0,IF(J64="Top",0,""))))</f>
         <v>1</v>
       </c>
       <c r="J64" s="2" t="s">
@@ -8287,13 +8288,13 @@
       <c r="AE64" s="21">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF64" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG64" s="21">
+      <c r="AF64" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG64" s="27">
         <v>0.83</v>
       </c>
-      <c r="AH64" s="21">
+      <c r="AH64" s="27">
         <v>0.21</v>
       </c>
       <c r="AI64" s="7">
@@ -8347,7 +8348,7 @@
         <v>112</v>
       </c>
       <c r="I65" s="7">
-        <f t="shared" si="20"/>
+        <f>IF(J65="Inflow",1,IF(J65="Outflow",-1,IF(J65="Gage",0,IF(J65="Top",0,""))))</f>
         <v>-1</v>
       </c>
       <c r="J65" s="7" t="s">
@@ -8399,13 +8400,13 @@
       <c r="AE65" s="21">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF65" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG65" s="21">
+      <c r="AF65" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG65" s="27">
         <v>0.83</v>
       </c>
-      <c r="AH65" s="21">
+      <c r="AH65" s="27">
         <v>0.21</v>
       </c>
       <c r="AI65" s="7">
@@ -8459,7 +8460,7 @@
         <v>113</v>
       </c>
       <c r="I66" s="7">
-        <f t="shared" si="20"/>
+        <f>IF(J66="Inflow",1,IF(J66="Outflow",-1,IF(J66="Gage",0,IF(J66="Top",0,""))))</f>
         <v>0</v>
       </c>
       <c r="J66" s="7" t="s">
@@ -8509,13 +8510,13 @@
       <c r="AE66" s="21">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF66" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG66" s="21">
+      <c r="AF66" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG66" s="27">
         <v>0.83</v>
       </c>
-      <c r="AH66" s="21">
+      <c r="AH66" s="27">
         <v>0.21</v>
       </c>
       <c r="AI66" s="7">
@@ -8562,6 +8563,9 @@
       <c r="W67" s="46"/>
       <c r="X67" s="36"/>
       <c r="Y67" s="36"/>
+      <c r="AF67" s="35"/>
+      <c r="AG67" s="35"/>
+      <c r="AH67" s="35"/>
       <c r="AI67" s="34"/>
       <c r="AJ67" s="34"/>
       <c r="AL67" s="34"/>
@@ -8592,7 +8596,7 @@
         <v>114</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" ref="I68:I71" si="21">IF(J68="Inflow",1,IF(J68="Outflow",-1,IF(J68="Gage",0,IF(J68="Top",0,""))))</f>
+        <f>IF(J68="Inflow",1,IF(J68="Outflow",-1,IF(J68="Gage",0,IF(J68="Top",0,""))))</f>
         <v>0</v>
       </c>
       <c r="J68" s="6" t="s">
@@ -8642,13 +8646,13 @@
       <c r="AE68" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF68" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG68" s="6">
+      <c r="AF68" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG68" s="27">
         <v>0.83</v>
       </c>
-      <c r="AH68" s="6">
+      <c r="AH68" s="27">
         <v>0.21</v>
       </c>
       <c r="AI68" s="7">
@@ -8703,7 +8707,7 @@
         <v>109</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="21"/>
+        <f>IF(J69="Inflow",1,IF(J69="Outflow",-1,IF(J69="Gage",0,IF(J69="Top",0,""))))</f>
         <v>1</v>
       </c>
       <c r="J69" s="6" t="s">
@@ -8749,13 +8753,13 @@
       <c r="AE69" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF69" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG69" s="6">
+      <c r="AF69" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG69" s="27">
         <v>0.83</v>
       </c>
-      <c r="AH69" s="6">
+      <c r="AH69" s="27">
         <v>0.21</v>
       </c>
       <c r="AI69" s="7">
@@ -8807,7 +8811,7 @@
         <v>116</v>
       </c>
       <c r="I70" s="6">
-        <f t="shared" si="21"/>
+        <f>IF(J70="Inflow",1,IF(J70="Outflow",-1,IF(J70="Gage",0,IF(J70="Top",0,""))))</f>
         <v>0</v>
       </c>
       <c r="J70" s="6" t="s">
@@ -8857,13 +8861,13 @@
       <c r="AE70" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF70" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG70" s="6">
+      <c r="AF70" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG70" s="27">
         <v>0.83</v>
       </c>
-      <c r="AH70" s="6">
+      <c r="AH70" s="27">
         <v>0.21</v>
       </c>
       <c r="AI70" s="7">
@@ -8915,7 +8919,7 @@
         <v>119</v>
       </c>
       <c r="I71" s="7">
-        <f t="shared" si="21"/>
+        <f>IF(J71="Inflow",1,IF(J71="Outflow",-1,IF(J71="Gage",0,IF(J71="Top",0,""))))</f>
         <v>0</v>
       </c>
       <c r="J71" s="7" t="s">
@@ -8965,13 +8969,13 @@
       <c r="AE71" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF71" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG71" s="6">
+      <c r="AF71" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG71" s="27">
         <v>0.83</v>
       </c>
-      <c r="AH71" s="6">
+      <c r="AH71" s="27">
         <v>0.21</v>
       </c>
       <c r="AI71" s="7">
@@ -9011,6 +9015,9 @@
       <c r="P72" s="35"/>
       <c r="V72" s="37"/>
       <c r="W72" s="35"/>
+      <c r="AF72" s="35"/>
+      <c r="AG72" s="35"/>
+      <c r="AH72" s="35"/>
       <c r="AI72" s="34"/>
       <c r="AL72" s="34"/>
       <c r="AM72" s="34"/>
@@ -9040,7 +9047,7 @@
         <v>160</v>
       </c>
       <c r="I73" s="7">
-        <f t="shared" ref="I73:I92" si="22">IF(J73="Inflow",1,IF(J73="Outflow",-1,IF(J73="Gage",0,IF(J73="Top",0,""))))</f>
+        <f t="shared" ref="I73:I92" si="9">IF(J73="Inflow",1,IF(J73="Outflow",-1,IF(J73="Gage",0,IF(J73="Top",0,""))))</f>
         <v>0</v>
       </c>
       <c r="J73" t="s">
@@ -9090,14 +9097,14 @@
       <c r="AE73">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF73">
-        <v>1</v>
-      </c>
-      <c r="AG73">
-        <v>0.83</v>
-      </c>
-      <c r="AH73">
-        <v>0.21</v>
+      <c r="AF73" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG73" s="26">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="AH73" s="26">
+        <v>0.20039999999999999</v>
       </c>
       <c r="AI73" s="2">
         <v>500</v>
@@ -9149,7 +9156,7 @@
         <v>159</v>
       </c>
       <c r="I74" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J74" s="15" t="s">
@@ -9197,14 +9204,14 @@
       <c r="AE74" s="15">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF74" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG74" s="15">
-        <v>0.83</v>
-      </c>
-      <c r="AH74" s="15">
-        <v>0.21</v>
+      <c r="AF74" s="25">
+        <v>1</v>
+      </c>
+      <c r="AG74" s="25">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="AH74" s="25">
+        <v>0.20039999999999999</v>
       </c>
       <c r="AI74" s="16">
         <v>500</v>
@@ -9247,7 +9254,7 @@
         <v>2</v>
       </c>
       <c r="E75" s="6">
-        <f t="shared" ref="E75:E92" si="23">E74+1</f>
+        <f t="shared" ref="E75:E92" si="10">E74+1</f>
         <v>3</v>
       </c>
       <c r="F75" s="7">
@@ -9258,7 +9265,7 @@
         <v>149</v>
       </c>
       <c r="I75" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="J75" s="6" t="s">
@@ -9305,14 +9312,14 @@
       <c r="AE75" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF75" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG75" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="AH75" s="6">
-        <v>0.21</v>
+      <c r="AF75" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG75" s="27">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="AH75" s="27">
+        <v>0.20039999999999999</v>
       </c>
       <c r="AI75" s="7">
         <v>500</v>
@@ -9351,11 +9358,11 @@
         <v>2</v>
       </c>
       <c r="D76" s="6">
-        <f t="shared" ref="D76:D91" si="24">D75+1</f>
+        <f t="shared" ref="D76:D91" si="11">D75+1</f>
         <v>3</v>
       </c>
       <c r="E76" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="F76" s="7">
@@ -9366,7 +9373,7 @@
         <v>148</v>
       </c>
       <c r="I76" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="J76" s="6" t="s">
@@ -9407,14 +9414,14 @@
       <c r="AE76" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF76" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG76" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="AH76" s="6">
-        <v>0.21</v>
+      <c r="AF76" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG76" s="27">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="AH76" s="27">
+        <v>0.20039999999999999</v>
       </c>
       <c r="AI76" s="7">
         <v>500</v>
@@ -9453,11 +9460,11 @@
         <v>2</v>
       </c>
       <c r="D77" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="E77" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="F77" s="26">
@@ -9470,7 +9477,7 @@
         <v>290</v>
       </c>
       <c r="I77" s="7">
-        <f t="shared" ref="I77" si="25">IF(J77="Inflow",1,IF(J77="Outflow",-1,IF(J77="Gage",0,IF(J77="Top",0,""))))</f>
+        <f>IF(J77="Inflow",1,IF(J77="Outflow",-1,IF(J77="Gage",0,IF(J77="Top",0,""))))</f>
         <v>1</v>
       </c>
       <c r="J77" t="s">
@@ -9530,14 +9537,14 @@
       <c r="AE77" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF77" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG77" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="AH77" s="6">
-        <v>0.21</v>
+      <c r="AF77" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG77" s="27">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="AH77" s="27">
+        <v>0.20039999999999999</v>
       </c>
       <c r="AI77" s="7">
         <v>500</v>
@@ -9576,11 +9583,11 @@
         <v>2</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="E78" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="F78" s="26">
@@ -9593,7 +9600,7 @@
         <v>289</v>
       </c>
       <c r="I78" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J78" t="s">
@@ -9653,14 +9660,14 @@
       <c r="AE78" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF78" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG78" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="AH78" s="6">
-        <v>0.21</v>
+      <c r="AF78" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG78" s="27">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="AH78" s="27">
+        <v>0.20039999999999999</v>
       </c>
       <c r="AI78" s="7">
         <v>500</v>
@@ -9699,11 +9706,11 @@
         <v>2</v>
       </c>
       <c r="D79" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E79" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="F79" s="26">
@@ -9716,7 +9723,7 @@
         <v>288</v>
       </c>
       <c r="I79" s="7">
-        <f t="shared" ref="I79" si="26">IF(J79="Inflow",1,IF(J79="Outflow",-1,IF(J79="Gage",0,IF(J79="Top",0,""))))</f>
+        <f>IF(J79="Inflow",1,IF(J79="Outflow",-1,IF(J79="Gage",0,IF(J79="Top",0,""))))</f>
         <v>1</v>
       </c>
       <c r="J79" t="s">
@@ -9776,14 +9783,14 @@
       <c r="AE79" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF79" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG79" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="AH79" s="6">
-        <v>0.21</v>
+      <c r="AF79" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG79" s="27">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="AH79" s="27">
+        <v>0.20039999999999999</v>
       </c>
       <c r="AI79" s="7">
         <v>500</v>
@@ -9822,11 +9829,11 @@
         <v>2</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="E80" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="F80" s="7">
@@ -9837,7 +9844,7 @@
         <v>150</v>
       </c>
       <c r="I80" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="J80" s="6" t="s">
@@ -9885,14 +9892,14 @@
       <c r="AE80" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF80" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG80" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="AH80" s="6">
-        <v>0.21</v>
+      <c r="AF80" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG80" s="27">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="AH80" s="27">
+        <v>0.20039999999999999</v>
       </c>
       <c r="AI80" s="7">
         <v>500</v>
@@ -9931,11 +9938,11 @@
         <v>2</v>
       </c>
       <c r="D81" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="E81" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="F81" s="7">
@@ -9948,7 +9955,7 @@
         <v>292</v>
       </c>
       <c r="I81" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J81" t="s">
@@ -10008,14 +10015,14 @@
       <c r="AE81" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF81" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG81" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="AH81" s="6">
-        <v>0.21</v>
+      <c r="AF81" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG81" s="27">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="AH81" s="27">
+        <v>0.20039999999999999</v>
       </c>
       <c r="AI81" s="7">
         <v>500</v>
@@ -10054,11 +10061,11 @@
         <v>2</v>
       </c>
       <c r="D82" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="E82" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="F82" s="4">
@@ -10069,7 +10076,7 @@
         <v>151</v>
       </c>
       <c r="I82" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="J82" s="3" t="s">
@@ -10119,14 +10126,14 @@
       <c r="AE82" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF82" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG82" s="3">
-        <v>0.83</v>
-      </c>
-      <c r="AH82" s="3">
-        <v>0.21</v>
+      <c r="AF82" s="24">
+        <v>1</v>
+      </c>
+      <c r="AG82" s="24">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="AH82" s="24">
+        <v>0.20039999999999999</v>
       </c>
       <c r="AI82" s="4">
         <v>500</v>
@@ -10168,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="F83" s="2">
@@ -10178,7 +10185,7 @@
         <v>144</v>
       </c>
       <c r="I83" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J83" t="s">
@@ -10227,14 +10234,14 @@
       <c r="AE83">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF83">
-        <v>1</v>
-      </c>
-      <c r="AG83">
+      <c r="AF83" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG83" s="26">
         <v>0.83</v>
       </c>
-      <c r="AH83">
-        <v>0.21</v>
+      <c r="AH83" s="26">
+        <v>0.2</v>
       </c>
       <c r="AI83" s="2">
         <v>500</v>
@@ -10272,11 +10279,11 @@
         <v>3</v>
       </c>
       <c r="D84">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="E84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="F84" s="2">
@@ -10286,7 +10293,7 @@
         <v>152</v>
       </c>
       <c r="I84" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="J84" t="s">
@@ -10335,14 +10342,14 @@
       <c r="AE84">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF84">
-        <v>1</v>
-      </c>
-      <c r="AG84">
+      <c r="AF84" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG84" s="26">
         <v>0.83</v>
       </c>
-      <c r="AH84">
-        <v>0.21</v>
+      <c r="AH84" s="26">
+        <v>0.2</v>
       </c>
       <c r="AI84" s="2">
         <v>500</v>
@@ -10380,11 +10387,11 @@
         <v>3</v>
       </c>
       <c r="D85">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="E85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="F85" s="2">
@@ -10397,7 +10404,7 @@
         <v>295</v>
       </c>
       <c r="I85" s="7">
-        <f t="shared" ref="I85" si="27">IF(J85="Inflow",1,IF(J85="Outflow",-1,IF(J85="Gage",0,IF(J85="Top",0,""))))</f>
+        <f>IF(J85="Inflow",1,IF(J85="Outflow",-1,IF(J85="Gage",0,IF(J85="Top",0,""))))</f>
         <v>1</v>
       </c>
       <c r="J85" t="s">
@@ -10456,14 +10463,14 @@
       <c r="AE85">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF85">
-        <v>1</v>
-      </c>
-      <c r="AG85">
+      <c r="AF85" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG85" s="26">
         <v>0.83</v>
       </c>
-      <c r="AH85">
-        <v>0.21</v>
+      <c r="AH85" s="26">
+        <v>0.2</v>
       </c>
       <c r="AI85" s="2">
         <v>500</v>
@@ -10501,11 +10508,11 @@
         <v>3</v>
       </c>
       <c r="D86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="E86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F86" s="2">
@@ -10518,7 +10525,7 @@
         <v>145</v>
       </c>
       <c r="I86" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J86" t="s">
@@ -10567,14 +10574,14 @@
       <c r="AE86">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF86">
-        <v>1</v>
-      </c>
-      <c r="AG86">
+      <c r="AF86" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG86" s="26">
         <v>0.83</v>
       </c>
-      <c r="AH86">
-        <v>0.21</v>
+      <c r="AH86" s="26">
+        <v>0.2</v>
       </c>
       <c r="AI86" s="2">
         <v>500</v>
@@ -10612,11 +10619,11 @@
         <v>3</v>
       </c>
       <c r="D87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="E87">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F87" s="2">
@@ -10629,7 +10636,7 @@
         <v>153</v>
       </c>
       <c r="I87" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="J87" t="s">
@@ -10672,14 +10679,14 @@
       <c r="AE87">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF87">
-        <v>1</v>
-      </c>
-      <c r="AG87">
+      <c r="AF87" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG87" s="26">
         <v>0.83</v>
       </c>
-      <c r="AH87">
-        <v>0.21</v>
+      <c r="AH87" s="26">
+        <v>0.2</v>
       </c>
       <c r="AI87" s="2">
         <v>500</v>
@@ -10720,11 +10727,11 @@
         <v>3</v>
       </c>
       <c r="D88">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="E88">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="F88" s="2">
@@ -10734,7 +10741,7 @@
         <v>154</v>
       </c>
       <c r="I88" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="J88" t="s">
@@ -10783,14 +10790,14 @@
       <c r="AE88">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF88">
-        <v>1</v>
-      </c>
-      <c r="AG88">
+      <c r="AF88" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG88" s="26">
         <v>0.83</v>
       </c>
-      <c r="AH88">
-        <v>0.21</v>
+      <c r="AH88" s="26">
+        <v>0.2</v>
       </c>
       <c r="AI88" s="2">
         <v>500</v>
@@ -10831,7 +10838,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="F89" s="16">
@@ -10842,7 +10849,7 @@
         <v>146</v>
       </c>
       <c r="I89" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J89" s="15" t="s">
@@ -10889,14 +10896,14 @@
       <c r="AE89" s="15">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF89" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG89" s="15">
-        <v>0.83</v>
-      </c>
-      <c r="AH89" s="15">
-        <v>0.21</v>
+      <c r="AF89" s="25">
+        <v>1</v>
+      </c>
+      <c r="AG89" s="25">
+        <v>0.70640000000000003</v>
+      </c>
+      <c r="AH89" s="25">
+        <v>0.19439999999999999</v>
       </c>
       <c r="AI89" s="16">
         <v>500</v>
@@ -10935,11 +10942,11 @@
         <v>4</v>
       </c>
       <c r="D90" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="E90" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="F90" s="7">
@@ -10950,7 +10957,7 @@
         <v>155</v>
       </c>
       <c r="I90" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="J90" s="6" t="s">
@@ -10994,14 +11001,14 @@
       <c r="AE90" s="6">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF90" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG90" s="6">
-        <v>0.83</v>
-      </c>
-      <c r="AH90" s="6">
-        <v>0.21</v>
+      <c r="AF90" s="27">
+        <v>1</v>
+      </c>
+      <c r="AG90" s="27">
+        <v>0.70640000000000003</v>
+      </c>
+      <c r="AH90" s="27">
+        <v>0.19439999999999999</v>
       </c>
       <c r="AI90" s="7">
         <v>500</v>
@@ -11040,11 +11047,11 @@
         <v>4</v>
       </c>
       <c r="D91" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="E91" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="F91" s="4">
@@ -11057,7 +11064,7 @@
         <v>156</v>
       </c>
       <c r="I91" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="J91" s="3" t="s">
@@ -11110,14 +11117,14 @@
       <c r="AE91" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF91" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG91" s="3">
-        <v>0.83</v>
-      </c>
-      <c r="AH91" s="3">
-        <v>0.21</v>
+      <c r="AF91" s="24">
+        <v>1</v>
+      </c>
+      <c r="AG91" s="24">
+        <v>0.70640000000000003</v>
+      </c>
+      <c r="AH91" s="24">
+        <v>0.19439999999999999</v>
       </c>
       <c r="AI91" s="4">
         <v>500</v>
@@ -11159,7 +11166,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="F92" s="16">
@@ -11170,7 +11177,7 @@
         <v>147</v>
       </c>
       <c r="I92" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J92" s="15" t="s">
@@ -11226,14 +11233,14 @@
       <c r="AE92" s="15">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF92" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG92" s="15">
-        <v>0.83</v>
-      </c>
-      <c r="AH92" s="15">
-        <v>0.21</v>
+      <c r="AF92" s="25">
+        <v>1</v>
+      </c>
+      <c r="AG92" s="25">
+        <v>0.70640000000000003</v>
+      </c>
+      <c r="AH92" s="25">
+        <v>0.19439999999999999</v>
       </c>
       <c r="AI92" s="16">
         <v>500</v>
@@ -11275,6 +11282,9 @@
       <c r="P93" s="35"/>
       <c r="V93" s="37"/>
       <c r="W93" s="35"/>
+      <c r="AF93" s="35"/>
+      <c r="AG93" s="35"/>
+      <c r="AH93" s="35"/>
       <c r="AI93" s="34"/>
       <c r="AL93" s="34"/>
       <c r="AM93" s="34"/>
@@ -18957,7 +18967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19209,7 +19219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
